--- a/src/attributions/attributions_saliency_traj_124.xlsx
+++ b/src/attributions/attributions_saliency_traj_124.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.829243309563026e-05</v>
+        <v>1.528184657217935e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0003309710300527513</v>
+        <v>0.0003092768602073193</v>
       </c>
       <c r="C4" t="n">
-        <v>4.793095286004245e-05</v>
+        <v>8.589486969867721e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003074732376262546</v>
+        <v>2.205976670666132e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001169656243291683</v>
+        <v>1.679098204476759e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002433628833387047</v>
+        <v>0.0003545141953509301</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001310149673372507</v>
+        <v>3.664246833068319e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001698327250778675</v>
+        <v>8.384248940274119e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>1.047788828145713e-05</v>
+        <v>0.0001115406048484147</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001438595063518733</v>
+        <v>0.0001044676391757093</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002680823963601142</v>
+        <v>0.0001272399822482839</v>
       </c>
       <c r="L4" t="n">
-        <v>3.308158193249255e-05</v>
+        <v>9.706058335723355e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>6.546010263264179e-05</v>
+        <v>0.0001147365474025719</v>
       </c>
       <c r="N4" t="n">
-        <v>2.172094173147343e-05</v>
+        <v>3.707739779201802e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.328038135601673e-05</v>
+        <v>0.0001929680729517713</v>
       </c>
       <c r="P4" t="n">
-        <v>2.554099592089187e-05</v>
+        <v>4.64693657704629e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0001594456407474354</v>
+        <v>8.403710671700537e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>5.228516965871677e-05</v>
+        <v>2.290012525918428e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>6.689909059787169e-05</v>
+        <v>5.753504410677124e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0001005609447020106</v>
+        <v>3.526228829286993e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>4.583518239087425e-05</v>
+        <v>6.223584205145016e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>2.724097794271074e-05</v>
+        <v>5.530462658498436e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0001712388184387237</v>
+        <v>8.364637324120849e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>8.635802805656567e-05</v>
+        <v>3.830437708529644e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.614267163560726e-05</v>
+        <v>3.840850695269182e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.680643077241257e-05</v>
+        <v>5.411616803030483e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.612894422782119e-05</v>
+        <v>1.987337964237668e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.443336264463142e-05</v>
+        <v>6.067949288990349e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.000162597352755256</v>
+        <v>1.302450800721999e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.274776670674328e-05</v>
+        <v>0.0001200905244331807</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.039313428918831e-05</v>
+        <v>5.571547808358446e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.402441795216873e-05</v>
+        <v>6.42307277303189e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.040405095409369e-06</v>
+        <v>2.433331064821687e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.506822344614193e-05</v>
+        <v>9.592899004928768e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.719524829648435e-05</v>
+        <v>3.514966374495998e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.398833986371756e-05</v>
+        <v>1.889401210064534e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>8.766519749769941e-05</v>
+        <v>1.637789864616934e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0001051000435836613</v>
+        <v>1.470495226385538e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>6.492009561043233e-05</v>
+        <v>5.798213533125818e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.304102811962366e-05</v>
+        <v>5.535124728339724e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0001161885666078888</v>
+        <v>4.077833000337705e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0001368861267110333</v>
+        <v>3.785716035054065e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.337655496376101e-05</v>
+        <v>2.984344791912008e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.602807606104761e-05</v>
+        <v>2.726986531342845e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>3.042271146114217e-07</v>
+        <v>4.500901559367776e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0001581028918735683</v>
+        <v>2.266141018480994e-05</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0001728691713651642</v>
+        <v>0.000119617412565276</v>
       </c>
       <c r="AV4" t="n">
-        <v>6.148737156763673e-05</v>
+        <v>0.0001445953676011413</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0001778112782631069</v>
+        <v>0.0001212088754982688</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.000144286168506369</v>
+        <v>7.909324631327763e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0001760195300448686</v>
+        <v>5.878927913727239e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.981137706432492e-05</v>
+        <v>0.000133313427795656</v>
       </c>
       <c r="BA4" t="n">
-        <v>9.208053234033287e-05</v>
+        <v>0.0001305327605223283</v>
       </c>
       <c r="BB4" t="n">
-        <v>5.942820280324668e-07</v>
+        <v>0.0001304314064327627</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.372767944005318e-05</v>
+        <v>0.0001317513815592974</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.788030102849007e-05</v>
+        <v>3.962359915021807e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.02829105546698e-05</v>
+        <v>5.245969805400819e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>8.781164069660008e-05</v>
+        <v>1.918248381116427e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>5.649769809679128e-05</v>
+        <v>1.127007089962717e-05</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.556274764880072e-05</v>
+        <v>0.0001682560687186196</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.047749447025126e-05</v>
+        <v>0.0001373902050545439</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.679036333574913e-05</v>
+        <v>3.288748121121898e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>5.055514338891953e-05</v>
+        <v>5.769126346422127e-06</v>
       </c>
       <c r="BL4" t="n">
-        <v>6.105381908128038e-05</v>
+        <v>4.357424768386409e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0001391271653119475</v>
+        <v>3.261027450207621e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.000107426822069101</v>
+        <v>2.815860170812812e-06</v>
       </c>
       <c r="BO4" t="n">
-        <v>6.124143692431971e-05</v>
+        <v>4.834247374674305e-05</v>
       </c>
       <c r="BP4" t="n">
-        <v>8.110720955301076e-06</v>
+        <v>6.394530646502972e-05</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3.912335159839131e-06</v>
+        <v>1.657234133745078e-05</v>
       </c>
       <c r="BR4" t="n">
-        <v>5.017099465476349e-05</v>
+        <v>3.039975126739591e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>7.258240657392889e-07</v>
+        <v>7.736332190688699e-05</v>
       </c>
       <c r="BT4" t="n">
-        <v>3.977505912189372e-06</v>
+        <v>9.488900104770437e-05</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0001296609407290816</v>
+        <v>6.404382293112576e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>4.946956323692575e-05</v>
+        <v>8.858527871780097e-05</v>
       </c>
       <c r="BW4" t="n">
-        <v>2.097786455124151e-05</v>
+        <v>0.0001103409304050729</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0002607051865197718</v>
+        <v>4.902040382148698e-05</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.0002782975207082927</v>
+        <v>7.187674782471731e-05</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0002497705281712115</v>
+        <v>3.500368620734662e-05</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.216567579831462e-05</v>
+        <v>5.492939089890569e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.131595308834221e-05</v>
+        <v>6.286045390879735e-05</v>
       </c>
       <c r="CC4" t="n">
-        <v>4.959513171343133e-05</v>
+        <v>1.21006669360213e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>5.53586105525028e-05</v>
+        <v>1.095470906875562e-05</v>
       </c>
       <c r="CE4" t="n">
-        <v>8.695447468198836e-05</v>
+        <v>1.287359373236541e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>3.83087171940133e-05</v>
+        <v>4.021128188469447e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>3.135505539830774e-05</v>
+        <v>6.029144969943445e-07</v>
       </c>
       <c r="CH4" t="n">
-        <v>2.321598003618419e-06</v>
+        <v>1.27511402752134e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>4.207186793792062e-05</v>
+        <v>6.65877087158151e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>6.247355486266315e-06</v>
+        <v>7.935735993669368e-06</v>
       </c>
       <c r="CK4" t="n">
-        <v>6.775880319764838e-05</v>
+        <v>3.343981234138482e-06</v>
       </c>
       <c r="CL4" t="n">
-        <v>4.920758783555357e-06</v>
+        <v>4.944037573295645e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.368374432786368e-05</v>
+        <v>5.349754064809531e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>4.804780837730505e-05</v>
+        <v>0.0001241431746166199</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.210291520692408e-05</v>
+        <v>6.34202006040141e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.0001558927178848535</v>
+        <v>6.311474135145545e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0001159396197181195</v>
+        <v>2.772667176031973e-05</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0001686000177869573</v>
+        <v>1.58332331920974e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.0001136497521656565</v>
+        <v>5.583788151852787e-06</v>
       </c>
       <c r="CT4" t="n">
-        <v>4.92185827170033e-05</v>
+        <v>5.350990250008181e-05</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.821215846575797e-06</v>
+        <v>9.826212044572458e-05</v>
       </c>
       <c r="CV4" t="n">
-        <v>5.271986447041854e-05</v>
+        <v>5.718983629776631e-06</v>
       </c>
       <c r="CW4" t="n">
-        <v>7.701365393586457e-05</v>
+        <v>2.964953637274448e-05</v>
       </c>
       <c r="CX4" t="n">
-        <v>6.247634155442938e-05</v>
+        <v>3.474379991530441e-05</v>
       </c>
       <c r="CY4" t="n">
-        <v>4.250703568686731e-05</v>
+        <v>1.005026570055634e-05</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.151153082901146e-05</v>
+        <v>1.987153518712148e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>3.16885816573631e-05</v>
+        <v>5.150616561877541e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.363709088764153e-05</v>
+        <v>2.420190503471531e-05</v>
       </c>
       <c r="DC4" t="n">
-        <v>6.071229654480703e-05</v>
+        <v>1.227351640409324e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>2.832410700648325e-06</v>
+        <v>4.533373066806234e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>8.704749780008569e-05</v>
+        <v>0.0001118334330385551</v>
       </c>
       <c r="DF4" t="n">
-        <v>9.873163799056783e-05</v>
+        <v>3.765253495657817e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>5.597527342615649e-05</v>
+        <v>5.255251016933471e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0002011954784393311</v>
+        <v>5.533138755708933e-05</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.000111305394966621</v>
+        <v>2.787391167657916e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>9.730020246934146e-05</v>
+        <v>0.0001259243435924873</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0001317823334829882</v>
+        <v>2.459053575876169e-06</v>
       </c>
       <c r="DL4" t="n">
-        <v>5.177247658139095e-06</v>
+        <v>2.913197567977477e-05</v>
       </c>
       <c r="DM4" t="n">
-        <v>2.363618114031851e-05</v>
+        <v>0.0001897062902571633</v>
       </c>
       <c r="DN4" t="n">
-        <v>2.476327608746942e-05</v>
+        <v>6.803327414672822e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>8.931944466894493e-05</v>
+        <v>8.800360774330329e-06</v>
       </c>
       <c r="DP4" t="n">
-        <v>9.846421016845852e-05</v>
+        <v>5.018393494538032e-06</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.000101245372206904</v>
+        <v>1.737859929562546e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>6.685014341201168e-06</v>
+        <v>4.882730081590125e-06</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.833625356084667e-05</v>
+        <v>7.244571861519944e-06</v>
       </c>
       <c r="DT4" t="n">
-        <v>8.26267569209449e-06</v>
+        <v>1.237224205397069e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0001789027446648106</v>
+        <v>6.205909812706523e-07</v>
       </c>
       <c r="DV4" t="n">
-        <v>3.90142849937547e-06</v>
+        <v>5.655690256389789e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>2.830568882927764e-05</v>
+        <v>3.398826083866879e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0001073935709428042</v>
+        <v>5.194473487790674e-06</v>
       </c>
       <c r="DY4" t="n">
-        <v>5.005690763937309e-05</v>
+        <v>1.446781607228331e-05</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0001026395548251458</v>
+        <v>7.492294389521703e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>4.089996218681335e-05</v>
+        <v>1.947482451214455e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0001403106871293858</v>
+        <v>3.493225676720613e-06</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.378956585540436e-05</v>
+        <v>7.758103492960799e-06</v>
       </c>
       <c r="ED4" t="n">
-        <v>7.979421934578568e-05</v>
+        <v>5.218666410655715e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>2.744801531662233e-05</v>
+        <v>2.526229036448058e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>5.87978029216174e-05</v>
+        <v>1.166725269285962e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.0001408526441082358</v>
+        <v>3.992057827417739e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>7.813773845555261e-05</v>
+        <v>2.298303843417671e-05</v>
       </c>
       <c r="EI4" t="n">
-        <v>2.401441088295542e-05</v>
+        <v>5.143699672771618e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.0001530267618363723</v>
+        <v>3.403155278647318e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>3.51942544511985e-05</v>
+        <v>2.115142251568614e-06</v>
       </c>
       <c r="EL4" t="n">
-        <v>4.944212196278386e-05</v>
+        <v>3.668866338557564e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>5.628420694847591e-05</v>
+        <v>1.827381674956996e-05</v>
       </c>
       <c r="EN4" t="n">
-        <v>4.241413989802822e-05</v>
+        <v>1.027600137604168e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>6.997841410338879e-05</v>
+        <v>4.535282278084196e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>5.430822056951001e-06</v>
+        <v>7.240105333039537e-07</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.725215770420618e-05</v>
+        <v>7.277963959495537e-06</v>
       </c>
       <c r="ER4" t="n">
-        <v>2.781713010335807e-05</v>
+        <v>4.308341158321127e-05</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0001123296533478424</v>
+        <v>2.926086017396301e-05</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0001072577433660626</v>
+        <v>0.0001211553608300164</v>
       </c>
       <c r="EU4" t="n">
-        <v>7.887265383033082e-06</v>
+        <v>7.091653242241591e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>3.363689393154345e-05</v>
+        <v>7.128521974664181e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>1.298639290325809e-06</v>
+        <v>0.0001103777904063463</v>
       </c>
       <c r="EX4" t="n">
-        <v>2.880425017792732e-05</v>
+        <v>7.248175734275719e-06</v>
       </c>
       <c r="EY4" t="n">
-        <v>8.079238614300266e-05</v>
+        <v>3.471634408924729e-05</v>
       </c>
       <c r="EZ4" t="n">
-        <v>4.960107253282331e-05</v>
+        <v>1.850666194513906e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>2.073031646432355e-05</v>
+        <v>5.79960487812059e-06</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.44203058880521e-05</v>
+        <v>2.674731695151422e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>5.933652209932916e-05</v>
+        <v>3.424554961384274e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>4.175856702204328e-06</v>
+        <v>1.379937384626828e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>4.022998837172054e-05</v>
+        <v>2.796468152155285e-06</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.554118352942169e-05</v>
+        <v>6.565441435668617e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>6.788082828279585e-05</v>
+        <v>6.644046516157687e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>5.5974509450607e-05</v>
+        <v>4.130004890612327e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>3.190276765963063e-05</v>
+        <v>4.920159699395299e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>8.149422501446679e-05</v>
+        <v>7.525077671743929e-05</v>
       </c>
       <c r="FK4" t="n">
-        <v>5.421337846200913e-05</v>
+        <v>6.793008651584387e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.0001713860692689195</v>
+        <v>5.586647603195161e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>1.839666765590664e-05</v>
+        <v>3.333709901198745e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>6.110354661359452e-06</v>
+        <v>8.501250704284757e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>4.706663457909599e-05</v>
+        <v>6.292908074101433e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>3.302347249700688e-05</v>
+        <v>4.23556957684923e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1.06324405351188e-05</v>
+        <v>1.376858926960267e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>3.111244950559922e-05</v>
+        <v>6.025265247444622e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0001678320695646107</v>
+        <v>8.529521437594667e-05</v>
       </c>
       <c r="FT4" t="n">
-        <v>8.171898662112653e-05</v>
+        <v>0.0001998960215132684</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.0001473991869715974</v>
+        <v>0.0001770274684531614</v>
       </c>
       <c r="FV4" t="n">
-        <v>3.592457142076455e-05</v>
+        <v>2.271221455885097e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>1.000331576506142e-05</v>
+        <v>5.76090496906545e-06</v>
       </c>
       <c r="FX4" t="n">
-        <v>7.316109986277297e-06</v>
+        <v>7.281008583959192e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>2.632561518112198e-05</v>
+        <v>8.114497177302837e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>5.692823833669536e-05</v>
+        <v>1.389658609696198e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>6.070913514122367e-07</v>
+        <v>3.427525007282384e-05</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0001664162118686363</v>
+        <v>0.0001081014124793001</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.0001789444650057703</v>
+        <v>3.728382580447942e-05</v>
       </c>
       <c r="GD4" t="n">
-        <v>3.204360837116838e-05</v>
+        <v>7.043000368867069e-05</v>
       </c>
       <c r="GE4" t="n">
-        <v>3.965205905842595e-05</v>
+        <v>5.582413723459467e-05</v>
       </c>
       <c r="GF4" t="n">
-        <v>2.875768768717535e-05</v>
+        <v>8.741422789171338e-05</v>
       </c>
       <c r="GG4" t="n">
-        <v>4.3298008677084e-05</v>
+        <v>0.0001079697758541442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001431595301255584</v>
+        <v>0.0002710252010729164</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004547411110252142</v>
+        <v>0.001587142352946103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003531626134645194</v>
+        <v>1.525630796095356e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001309726969338953</v>
+        <v>0.0005751426797360182</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006996010197326541</v>
+        <v>0.0001350770180579275</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001603894867002964</v>
+        <v>0.0005274597206152976</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001083174138329923</v>
+        <v>8.624917245469987e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003850823733955622</v>
+        <v>0.0002268136158818379</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0016451874980703</v>
+        <v>0.000520895526278764</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002595545025542378</v>
+        <v>0.0002022097469307482</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005007674917578697</v>
+        <v>0.001452778815291822</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000774968764744699</v>
+        <v>2.236397995147854e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0005938535905443132</v>
+        <v>0.000638553814496845</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001692494144663215</v>
+        <v>0.0001140558233601041</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003857590025290847</v>
+        <v>9.899576980387792e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001612603897228837</v>
+        <v>0.0001623739954084158</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.003588777035474777</v>
+        <v>0.000437167618656531</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002904100809246302</v>
+        <v>0.0003650826110970229</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0011368696577847</v>
+        <v>3.27502129948698e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0003406000905670226</v>
+        <v>5.847322609042749e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001261496916413307</v>
+        <v>3.136296800221317e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>7.255899254232645e-05</v>
+        <v>5.437117579276673e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002941490383818746</v>
+        <v>0.0004453387227840722</v>
       </c>
       <c r="X5" t="n">
-        <v>2.870869138860144e-05</v>
+        <v>3.179476698278449e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001657886896282434</v>
+        <v>0.0001819026510929689</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0003335071378387511</v>
+        <v>5.315700036589988e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001280783908441663</v>
+        <v>0.0001636278029764071</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.000956309144385159</v>
+        <v>0.0001425781520083547</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0004918319755233824</v>
+        <v>5.311818677000701e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0007658282993361354</v>
+        <v>2.463279815856367e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.001027399674057961</v>
+        <v>6.996222509769723e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.001819232711568475</v>
+        <v>9.21083556022495e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.542677435092628e-05</v>
+        <v>0.0001117658102884889</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.000862063723616302</v>
+        <v>0.0001963465329026803</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.001234786468558013</v>
+        <v>0.0002266656956635416</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0008167149499058723</v>
+        <v>0.0001015313318930566</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0004471443535294384</v>
+        <v>1.611099287401885e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0006793537177145481</v>
+        <v>0.0003358818066772074</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0009725005365908146</v>
+        <v>0.0001561423705425113</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.002411618363112211</v>
+        <v>5.4458825616166e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.002023329026997089</v>
+        <v>0.0001831078407121822</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0001115963095799088</v>
+        <v>0.0002006036520469934</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.000342701852787286</v>
+        <v>5.764748493675143e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.875829083379358e-05</v>
+        <v>0.00014783043297939</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0003436310507822782</v>
+        <v>8.015696221264079e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.002925653476268053</v>
+        <v>4.880174310528673e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.004632172640413046</v>
+        <v>0.0006939855520613492</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.002987910760566592</v>
+        <v>2.164815668947995e-06</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.00411645695567131</v>
+        <v>0.0004485802492126822</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.004850014112889767</v>
+        <v>0.0002063954307232052</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0008228551014326513</v>
+        <v>0.0003062353935092688</v>
       </c>
       <c r="AZ5" t="n">
-        <v>9.887415217235684e-06</v>
+        <v>0.0005343413213267922</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.001097889267839491</v>
+        <v>0.0005440695094875991</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0003994933504145592</v>
+        <v>4.679005724028684e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.00155066407751292</v>
+        <v>4.051439464092255e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.001233619637787342</v>
+        <v>0.0001636679371586069</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0009973440319299698</v>
+        <v>4.02667501475662e-06</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.0006038095452822745</v>
+        <v>0.0002662683837115765</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.003703346941620111</v>
+        <v>0.0003797714889515191</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.002872668672353029</v>
+        <v>0.0001919915375765413</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0007582026300951838</v>
+        <v>0.0003564506187103689</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.00112132029607892</v>
+        <v>9.937063441611826e-05</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.001052595674991608</v>
+        <v>0.0006837645778432488</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.002321492880582809</v>
+        <v>3.642437513917685e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.001066902070306242</v>
+        <v>0.0005403381655924022</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.00137125316541642</v>
+        <v>0.0003311754262540489</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0010390963871032</v>
+        <v>0.0002107749751303345</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0004325367917772382</v>
+        <v>0.0002263649948872626</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0001049048005370423</v>
+        <v>0.0001167963346233591</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0006381429266184568</v>
+        <v>0.0001813526469049975</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.001312061795033514</v>
+        <v>0.000235538900597021</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0002783968229778111</v>
+        <v>6.150025728857145e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.001246038475073874</v>
+        <v>0.0001449453120585531</v>
       </c>
       <c r="BV5" t="n">
-        <v>4.824683128390461e-05</v>
+        <v>0.0006281616515479982</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0005970547208562493</v>
+        <v>1.046376200974919e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.001947082346305251</v>
+        <v>0.0002984135935548693</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.002253970596939325</v>
+        <v>1.931298538693227e-05</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.000794431718531996</v>
+        <v>0.0002510636113584042</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0004340632585808635</v>
+        <v>0.0003643320233095437</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0009559228783473372</v>
+        <v>0.0003360003465786576</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0003445190959610045</v>
+        <v>2.152198067051359e-05</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0003916941932402551</v>
+        <v>8.454238559352234e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0009099856251850724</v>
+        <v>0.0001704675960354507</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0001001275086309761</v>
+        <v>6.124444189481437e-05</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0005399170331656933</v>
+        <v>0.0001303572789765894</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0002665041538421065</v>
+        <v>8.871273894328624e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0001265253813471645</v>
+        <v>3.448616917012259e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0004035109013784677</v>
+        <v>0.0001828882814152166</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0004185923608019948</v>
+        <v>9.036327537614852e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0004961300292052329</v>
+        <v>5.255641735857353e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0001948739518411458</v>
+        <v>0.0001937567867571488</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0001674714148975909</v>
+        <v>0.0002730499254539609</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.001302425633184612</v>
+        <v>0.0001206819651997648</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.001517570111900568</v>
+        <v>1.960137888090685e-05</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.001244100509211421</v>
+        <v>0.000216469110455364</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.000534134276676923</v>
+        <v>0.0002781782823149115</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.267550396732986e-05</v>
+        <v>0.0004617147205863148</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001522070611827075</v>
+        <v>0.0001851087727118284</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0008602774469181895</v>
+        <v>2.902475353039335e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0005501366103999317</v>
+        <v>7.518168422393501e-05</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.000642706174403429</v>
+        <v>0.0002764174714684486</v>
       </c>
       <c r="CX5" t="n">
-        <v>4.532195453066379e-05</v>
+        <v>6.712350295856595e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>5.004365812055767e-05</v>
+        <v>0.0001318930590059608</v>
       </c>
       <c r="CZ5" t="n">
-        <v>3.608501356211491e-05</v>
+        <v>3.3571614039829e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.000321703206282109</v>
+        <v>9.695937478682026e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.0003970998805016279</v>
+        <v>0.0001582731492817402</v>
       </c>
       <c r="DC5" t="n">
-        <v>9.427904296899214e-05</v>
+        <v>3.231058872188441e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0002101200807373971</v>
+        <v>2.422717807348818e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>8.713081479072571e-05</v>
+        <v>0.0001668159093242139</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.002183216158300638</v>
+        <v>0.0001632589701330289</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0010432522976771</v>
+        <v>0.0001756091078277677</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.002853239187970757</v>
+        <v>0.0002248427044833079</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0009005953324958682</v>
+        <v>0.0001627380697755143</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.001865267986431718</v>
+        <v>5.65969712624792e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.000376333569874987</v>
+        <v>0.0001463261578464881</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.001052655628882349</v>
+        <v>0.0002550732751842588</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.00170118291862309</v>
+        <v>0.0001092542515834793</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.000920509803108871</v>
+        <v>0.0001190875700558536</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.00207549100741744</v>
+        <v>0.0004627735179383308</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.001557762967422605</v>
+        <v>0.0003672325983643532</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.001055891625583172</v>
+        <v>0.0001993137848330662</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0007034564623609185</v>
+        <v>6.163722719065845e-05</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.002441771328449249</v>
+        <v>0.0002216939901700243</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0004596672370098531</v>
+        <v>0.0001291457156185061</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.001581462449394166</v>
+        <v>0.0002292385033797473</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.000910536793526262</v>
+        <v>8.108450856525451e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0004120655939914286</v>
+        <v>1.841859557316639e-06</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0003682182286866009</v>
+        <v>0.0004944895044900477</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0005722127971239388</v>
+        <v>8.279093890450895e-07</v>
       </c>
       <c r="DZ5" t="n">
-        <v>3.330319304950535e-05</v>
+        <v>0.0002009936724789441</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.001707319170236588</v>
+        <v>0.0005592175293713808</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.001696473802439868</v>
+        <v>1.403129135724157e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0003305107820779085</v>
+        <v>3.473727701930329e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.001226620515808463</v>
+        <v>0.0001872877037385479</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.001088634366169572</v>
+        <v>2.258930362586398e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0003258834476582706</v>
+        <v>4.042620275868103e-05</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0007574376068077981</v>
+        <v>1.033989246934652e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0003708839067257941</v>
+        <v>0.0002488827740307897</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0008582673035562038</v>
+        <v>1.96023283933755e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001119008171372116</v>
+        <v>0.000113050831714645</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.0003569059481378645</v>
+        <v>0.0001617855305084959</v>
       </c>
       <c r="EL5" t="n">
-        <v>5.91417629038915e-05</v>
+        <v>0.0001647289027459919</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0005779305938631296</v>
+        <v>0.0001015067100524902</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0001409663236699998</v>
+        <v>3.652365921880119e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.002109813969582319</v>
+        <v>9.921353921527043e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.00064733752515167</v>
+        <v>0.0004924663226120174</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.000114940688945353</v>
+        <v>0.0001325868943240494</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0004889406263828278</v>
+        <v>0.0002188044600188732</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0009718700894154608</v>
+        <v>0.0003830071655102074</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0001913211890496314</v>
+        <v>0.0004603810957632959</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0002429914457025006</v>
+        <v>0.0003938135632779449</v>
       </c>
       <c r="EV5" t="n">
-        <v>4.690472269430757e-05</v>
+        <v>0.000358727527782321</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0008503507124260068</v>
+        <v>8.857646025717258e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0003404546587262303</v>
+        <v>7.084896060405299e-05</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.001014368957839906</v>
+        <v>0.000251419231062755</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0001924103562487289</v>
+        <v>3.707233190652914e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>7.397629815386608e-05</v>
+        <v>0.0001682841975707561</v>
       </c>
       <c r="FB5" t="n">
-        <v>8.009371958905831e-05</v>
+        <v>0.0001188483074656688</v>
       </c>
       <c r="FC5" t="n">
-        <v>4.691609865403734e-05</v>
+        <v>9.488323121331632e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>5.248498928267509e-05</v>
+        <v>0.0001973278704099357</v>
       </c>
       <c r="FE5" t="n">
-        <v>5.281441553961486e-05</v>
+        <v>5.479087485582568e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0004903668304905295</v>
+        <v>7.904863741714507e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>4.712829831987619e-05</v>
+        <v>0.0001018892726278864</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.0004856752348132432</v>
+        <v>0.0002020922256633639</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0006094076670706272</v>
+        <v>0.0001208597823278978</v>
       </c>
       <c r="FJ5" t="n">
-        <v>1.208623871207237e-06</v>
+        <v>0.0002839059743564576</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.000266577466391027</v>
+        <v>8.734357106732205e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.001457365462556481</v>
+        <v>0.0001838574826251715</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.001048793201334774</v>
+        <v>0.000272931472864002</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0001033994776662439</v>
+        <v>0.0001490781432949007</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0002908929018303752</v>
+        <v>7.462274516001344e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.001217404613271356</v>
+        <v>0.0001397523010382429</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.001279259333387017</v>
+        <v>0.000300990097457543</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0004931855946779251</v>
+        <v>0.0002504894218873233</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.002426987048238516</v>
+        <v>0.0002052033232757822</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.00270896521396935</v>
+        <v>0.001321088871918619</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0002929915499407798</v>
+        <v>0.0002720062038861215</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0005786697147414088</v>
+        <v>0.0004133103939238936</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.002858011517673731</v>
+        <v>2.994086935359519e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.001548819825984538</v>
+        <v>8.047901792451739e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0002462907577864826</v>
+        <v>5.47548224858474e-05</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0005641198949888349</v>
+        <v>1.221476122736931e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0001178737002192065</v>
+        <v>2.075916563626379e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.0003287761064711958</v>
+        <v>0.0002151392836822197</v>
       </c>
       <c r="GC5" t="n">
-        <v>6.773957284167409e-05</v>
+        <v>0.000342744606314227</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.002035215264186263</v>
+        <v>0.0001188843089039437</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0005270018009468913</v>
+        <v>0.0003216304467059672</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0009331153705716133</v>
+        <v>0.0002433299086987972</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.001230158261023462</v>
+        <v>0.0001092649181373417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.709696774327313e-07</v>
+        <v>1.579004162977071e-07</v>
       </c>
       <c r="B6" t="n">
-        <v>2.028023573075188e-06</v>
+        <v>6.465545538958395e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>4.766091876717837e-08</v>
+        <v>3.049190979709238e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>2.427827894280199e-06</v>
+        <v>6.125216032160097e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>3.789637048612349e-07</v>
+        <v>3.660411778128037e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>6.998618573561544e-07</v>
+        <v>1.260444037143316e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>1.490125782765972e-06</v>
+        <v>1.331902694801101e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>7.965225563566491e-07</v>
+        <v>4.211323556546631e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>1.087227246898692e-06</v>
+        <v>1.398820813847124e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>8.334009180543944e-07</v>
+        <v>1.446074691102694e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>5.000435976398876e-07</v>
+        <v>2.12254942510981e-08</v>
       </c>
       <c r="L6" t="n">
-        <v>7.541942181887862e-08</v>
+        <v>2.258529150367394e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>1.36334199396515e-06</v>
+        <v>8.822171366773546e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>4.745286474872046e-08</v>
+        <v>3.704353446210007e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>6.805481120863988e-07</v>
+        <v>1.211342464557674e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>5.687597877113149e-07</v>
+        <v>9.352018537356344e-08</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.532544153335039e-07</v>
+        <v>3.952865057499366e-08</v>
       </c>
       <c r="R6" t="n">
-        <v>6.803936685173539e-07</v>
+        <v>5.831541329825995e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>3.003909512244718e-07</v>
+        <v>2.343497556012153e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>4.334620200552308e-07</v>
+        <v>2.072394664764943e-07</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91121671377914e-07</v>
+        <v>1.295423857072819e-07</v>
       </c>
       <c r="V6" t="n">
-        <v>6.829951644249377e-07</v>
+        <v>2.775084055883781e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.564868512105022e-06</v>
+        <v>8.122385111164476e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>4.778065658683772e-07</v>
+        <v>4.445901424787735e-08</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.264764364350413e-07</v>
+        <v>3.267597037392989e-08</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.437514912249753e-07</v>
+        <v>4.316699460105156e-07</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.057868956877428e-07</v>
+        <v>9.217505692049599e-08</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.594873517926317e-07</v>
+        <v>7.697897075331639e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.507822216557543e-08</v>
+        <v>1.949381953636475e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.090649998848676e-07</v>
+        <v>5.043798410042655e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.567656227052794e-07</v>
+        <v>5.058303145233367e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.980843861332687e-07</v>
+        <v>2.301592587627965e-07</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.062351427412068e-07</v>
+        <v>5.923073587155159e-08</v>
       </c>
       <c r="AH6" t="n">
-        <v>3.61836754336764e-07</v>
+        <v>3.910413965968473e-07</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.102694113797043e-08</v>
+        <v>2.769900220300769e-07</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.623203781444317e-08</v>
+        <v>1.636344677535817e-07</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.191164180156193e-07</v>
+        <v>9.27894205915436e-09</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.154589075573313e-07</v>
+        <v>2.803979626264663e-08</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.326229662230617e-07</v>
+        <v>1.525503847688015e-07</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.382464440932381e-07</v>
+        <v>4.588499393776146e-07</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.868788548468729e-07</v>
+        <v>4.483030693336332e-07</v>
       </c>
       <c r="AP6" t="n">
-        <v>6.87657120579388e-07</v>
+        <v>2.123312441426606e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7.607587804159266e-08</v>
+        <v>1.183563824724843e-08</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.546223415971326e-07</v>
+        <v>4.265342568032793e-08</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.87478857280621e-08</v>
+        <v>4.713206180895213e-08</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.319758439422003e-06</v>
+        <v>6.109736716553016e-09</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.52273923959001e-06</v>
+        <v>5.190831302570587e-07</v>
       </c>
       <c r="AV6" t="n">
-        <v>8.529558499503764e-07</v>
+        <v>2.493411557225045e-07</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.831651616157615e-06</v>
+        <v>9.517474381937063e-07</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.526964403339662e-07</v>
+        <v>7.93621893535601e-07</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.375539540049431e-07</v>
+        <v>5.772151325800223e-07</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.257075155081111e-06</v>
+        <v>8.584749480178289e-07</v>
       </c>
       <c r="BA6" t="n">
-        <v>7.745243806311919e-07</v>
+        <v>9.283498911827337e-07</v>
       </c>
       <c r="BB6" t="n">
-        <v>3.256925822370249e-07</v>
+        <v>6.894778721289185e-07</v>
       </c>
       <c r="BC6" t="n">
-        <v>7.229981520140427e-07</v>
+        <v>8.481693214434927e-08</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.718945376680495e-07</v>
+        <v>1.38833144092132e-07</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.010694177239202e-07</v>
+        <v>2.886911829591554e-07</v>
       </c>
       <c r="BF6" t="n">
-        <v>9.002552019410359e-07</v>
+        <v>3.713275873451494e-07</v>
       </c>
       <c r="BG6" t="n">
-        <v>3.350891404352296e-07</v>
+        <v>1.732395276121679e-07</v>
       </c>
       <c r="BH6" t="n">
-        <v>6.096537390476442e-07</v>
+        <v>3.013804246165819e-07</v>
       </c>
       <c r="BI6" t="n">
-        <v>7.106810926416074e-07</v>
+        <v>3.8299072002701e-07</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.785568480907386e-07</v>
+        <v>1.874361998943641e-09</v>
       </c>
       <c r="BK6" t="n">
-        <v>2.776704199902724e-08</v>
+        <v>3.15371124770536e-07</v>
       </c>
       <c r="BL6" t="n">
-        <v>5.375072760216426e-07</v>
+        <v>2.398121523583541e-08</v>
       </c>
       <c r="BM6" t="n">
-        <v>8.691202424415678e-07</v>
+        <v>2.066028770286721e-07</v>
       </c>
       <c r="BN6" t="n">
-        <v>5.616490739157598e-07</v>
+        <v>1.502142623621694e-07</v>
       </c>
       <c r="BO6" t="n">
-        <v>2.945843959878403e-07</v>
+        <v>3.384223532520991e-07</v>
       </c>
       <c r="BP6" t="n">
-        <v>9.639657037041616e-07</v>
+        <v>1.390283870250641e-07</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3.195984561443765e-07</v>
+        <v>2.628723052566784e-07</v>
       </c>
       <c r="BR6" t="n">
-        <v>4.348987658886472e-07</v>
+        <v>1.976305981088444e-07</v>
       </c>
       <c r="BS6" t="n">
-        <v>4.799274506694928e-07</v>
+        <v>6.064253739168635e-07</v>
       </c>
       <c r="BT6" t="n">
-        <v>3.613966725879436e-08</v>
+        <v>5.026457756684977e-07</v>
       </c>
       <c r="BU6" t="n">
-        <v>5.466439461088157e-07</v>
+        <v>3.970420436871791e-09</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.370959239466174e-07</v>
+        <v>1.881606692677451e-07</v>
       </c>
       <c r="BW6" t="n">
-        <v>4.69826488824765e-09</v>
+        <v>2.254979278859537e-07</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.694897719062283e-06</v>
+        <v>1.8340713836551e-07</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.666551838752639e-06</v>
+        <v>4.531380568550958e-07</v>
       </c>
       <c r="BZ6" t="n">
-        <v>9.60841020969383e-07</v>
+        <v>2.568423269622144e-07</v>
       </c>
       <c r="CA6" t="n">
-        <v>6.446464340115199e-07</v>
+        <v>3.323069677207968e-07</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.320070737165224e-07</v>
+        <v>6.274913744164223e-07</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.672879304554954e-07</v>
+        <v>3.804925086114963e-08</v>
       </c>
       <c r="CD6" t="n">
-        <v>5.076273623672023e-07</v>
+        <v>4.970037537077587e-08</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.658152228856125e-07</v>
+        <v>1.288275619515389e-08</v>
       </c>
       <c r="CF6" t="n">
-        <v>8.378535198971804e-08</v>
+        <v>1.123027786320563e-07</v>
       </c>
       <c r="CG6" t="n">
-        <v>5.928581572334224e-07</v>
+        <v>3.188181096902554e-08</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.386839301176224e-07</v>
+        <v>2.748348926218114e-08</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.175641060058297e-07</v>
+        <v>1.238639271150532e-07</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.094594068717925e-07</v>
+        <v>5.554350224201698e-08</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.265852347387408e-07</v>
+        <v>9.527015265575756e-08</v>
       </c>
       <c r="CL6" t="n">
-        <v>2.108365890762798e-07</v>
+        <v>1.840019692167516e-08</v>
       </c>
       <c r="CM6" t="n">
-        <v>5.565928518080909e-08</v>
+        <v>4.265590547447573e-08</v>
       </c>
       <c r="CN6" t="n">
-        <v>5.296362459716875e-08</v>
+        <v>3.655166551652655e-07</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.405901457474101e-07</v>
+        <v>3.932337477863257e-08</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.354189635094372e-06</v>
+        <v>1.878958926226915e-07</v>
       </c>
       <c r="CQ6" t="n">
-        <v>2.689961320356815e-07</v>
+        <v>2.003194481403625e-07</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.444996996724512e-06</v>
+        <v>2.772103755432909e-07</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.53418284298823e-07</v>
+        <v>3.440835314449942e-07</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.086347538148402e-06</v>
+        <v>4.227857175465033e-07</v>
       </c>
       <c r="CU6" t="n">
-        <v>9.790426247491268e-07</v>
+        <v>4.099852617400757e-07</v>
       </c>
       <c r="CV6" t="n">
-        <v>5.074843443253485e-07</v>
+        <v>2.803771081971718e-08</v>
       </c>
       <c r="CW6" t="n">
-        <v>4.083034923496598e-07</v>
+        <v>1.001655380861166e-08</v>
       </c>
       <c r="CX6" t="n">
-        <v>8.267202389333761e-08</v>
+        <v>9.441411918942322e-08</v>
       </c>
       <c r="CY6" t="n">
-        <v>4.284879366878158e-07</v>
+        <v>3.560271011338045e-08</v>
       </c>
       <c r="CZ6" t="n">
-        <v>4.402457065566523e-08</v>
+        <v>1.372088576090391e-07</v>
       </c>
       <c r="DA6" t="n">
-        <v>1.67770849657245e-07</v>
+        <v>8.881805513283325e-08</v>
       </c>
       <c r="DB6" t="n">
-        <v>4.246584950351462e-08</v>
+        <v>4.503080219819822e-08</v>
       </c>
       <c r="DC6" t="n">
-        <v>6.578220279607194e-08</v>
+        <v>6.475140423845005e-08</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.021642728777806e-07</v>
+        <v>5.13775262334093e-08</v>
       </c>
       <c r="DE6" t="n">
-        <v>8.388977903450723e-07</v>
+        <v>3.357563684858178e-07</v>
       </c>
       <c r="DF6" t="n">
-        <v>2.948994506368763e-07</v>
+        <v>5.054171765550564e-07</v>
       </c>
       <c r="DG6" t="n">
-        <v>9.595171377441147e-07</v>
+        <v>1.736611920932774e-07</v>
       </c>
       <c r="DH6" t="n">
-        <v>4.273403817478538e-07</v>
+        <v>1.533910563011887e-07</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.508842842667946e-06</v>
+        <v>7.609224894622457e-08</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1.501246515545063e-06</v>
+        <v>7.361454095189401e-07</v>
       </c>
       <c r="DK6" t="n">
-        <v>6.128757377155125e-07</v>
+        <v>3.389166636225127e-08</v>
       </c>
       <c r="DL6" t="n">
-        <v>9.28099439079233e-07</v>
+        <v>2.435780857013015e-07</v>
       </c>
       <c r="DM6" t="n">
-        <v>9.017006732392474e-07</v>
+        <v>9.008066399474046e-07</v>
       </c>
       <c r="DN6" t="n">
-        <v>4.07054386641903e-07</v>
+        <v>1.362716943731357e-07</v>
       </c>
       <c r="DO6" t="n">
-        <v>6.352465220516024e-07</v>
+        <v>1.888114979919919e-07</v>
       </c>
       <c r="DP6" t="n">
-        <v>4.478290236420435e-07</v>
+        <v>6.516208372886467e-08</v>
       </c>
       <c r="DQ6" t="n">
-        <v>3.284316107965424e-07</v>
+        <v>1.224514392106357e-07</v>
       </c>
       <c r="DR6" t="n">
-        <v>6.9700291760455e-07</v>
+        <v>1.851960149679144e-07</v>
       </c>
       <c r="DS6" t="n">
-        <v>4.827710995414236e-07</v>
+        <v>5.618480969360462e-08</v>
       </c>
       <c r="DT6" t="n">
-        <v>5.634141189148067e-07</v>
+        <v>3.556721139830188e-09</v>
       </c>
       <c r="DU6" t="n">
-        <v>2.521813371458848e-07</v>
+        <v>2.706443069655506e-09</v>
       </c>
       <c r="DV6" t="n">
-        <v>6.29666146778618e-07</v>
+        <v>3.811830424638174e-07</v>
       </c>
       <c r="DW6" t="n">
-        <v>5.078560150195699e-08</v>
+        <v>8.18336829411237e-08</v>
       </c>
       <c r="DX6" t="n">
-        <v>4.494878851346584e-07</v>
+        <v>1.848384414415705e-07</v>
       </c>
       <c r="DY6" t="n">
-        <v>3.067717102567258e-07</v>
+        <v>2.205435833957381e-07</v>
       </c>
       <c r="DZ6" t="n">
-        <v>9.596971040082281e-07</v>
+        <v>1.514189591489412e-07</v>
       </c>
       <c r="EA6" t="n">
-        <v>6.342449410112749e-07</v>
+        <v>4.468594738682441e-07</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.519474722044833e-06</v>
+        <v>5.072072895018209e-07</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.790027539527728e-07</v>
+        <v>2.875312077321723e-07</v>
       </c>
       <c r="ED6" t="n">
-        <v>4.668175961342058e-07</v>
+        <v>2.097376778920079e-07</v>
       </c>
       <c r="EE6" t="n">
-        <v>7.181437808867486e-07</v>
+        <v>4.923971985704156e-08</v>
       </c>
       <c r="EF6" t="n">
-        <v>6.240908305699122e-07</v>
+        <v>4.141703158211385e-08</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.507443011585565e-07</v>
+        <v>7.958222880688481e-08</v>
       </c>
       <c r="EH6" t="n">
-        <v>3.831154344879906e-07</v>
+        <v>5.37510622677928e-08</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.968438709809561e-07</v>
+        <v>4.525886083683872e-07</v>
       </c>
       <c r="EJ6" t="n">
-        <v>7.234592089844227e-07</v>
+        <v>1.218172087646963e-07</v>
       </c>
       <c r="EK6" t="n">
-        <v>2.816356641233142e-07</v>
+        <v>5.000849512271088e-09</v>
       </c>
       <c r="EL6" t="n">
-        <v>1.251898851251099e-07</v>
+        <v>2.646554548846325e-07</v>
       </c>
       <c r="EM6" t="n">
-        <v>8.891717584447179e-08</v>
+        <v>3.995476447471447e-07</v>
       </c>
       <c r="EN6" t="n">
-        <v>9.581738424913055e-08</v>
+        <v>1.213385871778883e-07</v>
       </c>
       <c r="EO6" t="n">
-        <v>8.683746841597895e-07</v>
+        <v>1.352759113615321e-07</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.665879238998969e-07</v>
+        <v>1.792593593563652e-07</v>
       </c>
       <c r="EQ6" t="n">
-        <v>4.041192624981704e-08</v>
+        <v>1.3775195384369e-07</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.953963189611386e-07</v>
+        <v>2.651277952736564e-08</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.456567417790211e-07</v>
+        <v>3.898065585872246e-07</v>
       </c>
       <c r="ET6" t="n">
-        <v>5.02190289353166e-08</v>
+        <v>5.596905339189107e-07</v>
       </c>
       <c r="EU6" t="n">
-        <v>1.084441123566648e-06</v>
+        <v>3.480910208963905e-07</v>
       </c>
       <c r="EV6" t="n">
-        <v>2.853084879461676e-07</v>
+        <v>5.673435907738167e-07</v>
       </c>
       <c r="EW6" t="n">
-        <v>2.645458607730689e-07</v>
+        <v>6.957881737434946e-08</v>
       </c>
       <c r="EX6" t="n">
-        <v>4.054410567277955e-07</v>
+        <v>2.762795148214536e-08</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.423632281534083e-07</v>
+        <v>4.398475361711007e-09</v>
       </c>
       <c r="EZ6" t="n">
-        <v>5.817899051407949e-08</v>
+        <v>5.887687226646676e-09</v>
       </c>
       <c r="FA6" t="n">
-        <v>3.352238309162203e-07</v>
+        <v>1.111939695874753e-08</v>
       </c>
       <c r="FB6" t="n">
-        <v>2.330378379156173e-07</v>
+        <v>1.359717174409525e-07</v>
       </c>
       <c r="FC6" t="n">
-        <v>1.559567266440354e-07</v>
+        <v>4.533324116096082e-08</v>
       </c>
       <c r="FD6" t="n">
-        <v>2.898405071505294e-08</v>
+        <v>2.783917807391845e-08</v>
       </c>
       <c r="FE6" t="n">
-        <v>7.064127061084946e-09</v>
+        <v>1.220335548168805e-07</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.077877058719423e-07</v>
+        <v>8.712407861821703e-08</v>
       </c>
       <c r="FG6" t="n">
-        <v>3.227297895591619e-08</v>
+        <v>1.333198156316939e-07</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.280213609788916e-06</v>
+        <v>1.618569598349495e-07</v>
       </c>
       <c r="FI6" t="n">
-        <v>1.018633710714312e-07</v>
+        <v>4.379273477184142e-08</v>
       </c>
       <c r="FJ6" t="n">
-        <v>2.003490351398796e-07</v>
+        <v>4.122923087379604e-07</v>
       </c>
       <c r="FK6" t="n">
-        <v>9.7633051154844e-07</v>
+        <v>2.532207474814641e-07</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.081220830201346e-06</v>
+        <v>6.179622005220153e-07</v>
       </c>
       <c r="FM6" t="n">
-        <v>5.875888291484443e-07</v>
+        <v>2.989960989907559e-08</v>
       </c>
       <c r="FN6" t="n">
-        <v>2.949079203062865e-07</v>
+        <v>1.767346020642435e-07</v>
       </c>
       <c r="FO6" t="n">
-        <v>1.064965147179464e-07</v>
+        <v>2.073918636824601e-07</v>
       </c>
       <c r="FP6" t="n">
-        <v>3.603198308610445e-07</v>
+        <v>3.158251047352678e-07</v>
       </c>
       <c r="FQ6" t="n">
-        <v>4.531358683834696e-07</v>
+        <v>3.245132518259197e-07</v>
       </c>
       <c r="FR6" t="n">
-        <v>9.504572062724037e-07</v>
+        <v>3.199347009541498e-09</v>
       </c>
       <c r="FS6" t="n">
-        <v>8.297174645122141e-07</v>
+        <v>7.437556348577345e-09</v>
       </c>
       <c r="FT6" t="n">
-        <v>4.4743001126335e-07</v>
+        <v>1.493748527536809e-06</v>
       </c>
       <c r="FU6" t="n">
-        <v>8.898921919353597e-07</v>
+        <v>6.24594463261019e-07</v>
       </c>
       <c r="FV6" t="n">
-        <v>5.199525787702441e-08</v>
+        <v>4.333057574967825e-07</v>
       </c>
       <c r="FW6" t="n">
-        <v>5.323471441442962e-07</v>
+        <v>4.964658018025148e-08</v>
       </c>
       <c r="FX6" t="n">
-        <v>5.435192065306182e-07</v>
+        <v>1.529864448457374e-07</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.089309762392077e-06</v>
+        <v>2.802809149216046e-07</v>
       </c>
       <c r="FZ6" t="n">
-        <v>4.322248230437253e-07</v>
+        <v>6.07022627718834e-08</v>
       </c>
       <c r="GA6" t="n">
-        <v>3.606594702887378e-07</v>
+        <v>3.210043644230609e-07</v>
       </c>
       <c r="GB6" t="n">
-        <v>5.556443625209795e-07</v>
+        <v>3.556067440513289e-07</v>
       </c>
       <c r="GC6" t="n">
-        <v>3.811042006418575e-07</v>
+        <v>1.874076929198054e-07</v>
       </c>
       <c r="GD6" t="n">
-        <v>8.064863550316659e-07</v>
+        <v>6.408677108993288e-07</v>
       </c>
       <c r="GE6" t="n">
-        <v>2.535508656364982e-07</v>
+        <v>2.733797543896799e-07</v>
       </c>
       <c r="GF6" t="n">
-        <v>5.270343876873085e-07</v>
+        <v>3.595135922296322e-07</v>
       </c>
       <c r="GG6" t="n">
-        <v>4.892199285677634e-07</v>
+        <v>8.527033514837967e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0002584058092907071</v>
+        <v>3.01582804240752e-06</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001488687703385949</v>
+        <v>4.511541646934347e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>5.865300772711635e-05</v>
+        <v>1.586328039593354e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009581059566698968</v>
+        <v>2.364579813729506e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0005687896627932787</v>
+        <v>5.16298405273119e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0004132661852054298</v>
+        <v>1.435465264876257e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0004106992273591459</v>
+        <v>2.479720933479257e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>7.679213013034314e-06</v>
+        <v>3.993191512563499e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>3.344769720570184e-05</v>
+        <v>5.485226665769005e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001098866923712194</v>
+        <v>2.010074240388349e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000118542491691187</v>
+        <v>3.022455302925664e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002349483256693929</v>
+        <v>1.824949436013412e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0005548928747884929</v>
+        <v>2.550352746766293e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0009807163150981069</v>
+        <v>6.247311375773279e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002605709596537054</v>
+        <v>1.171396206700592e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>4.000985063612461e-05</v>
+        <v>5.771405540144769e-07</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0001777515280991793</v>
+        <v>4.782807536685141e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0001622039708308876</v>
+        <v>2.055799768641009e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002200398012064397</v>
+        <v>1.974637484636332e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0003730432654265314</v>
+        <v>6.41976782844722e-07</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003297225630376488</v>
+        <v>8.254708063759608e-07</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0002479981631040573</v>
+        <v>1.700847974461794e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001013269880786538</v>
+        <v>6.376557848852826e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>8.907213486963883e-05</v>
+        <v>1.570771246406366e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0001965111587196589</v>
+        <v>3.967753059441748e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0002410998567938805</v>
+        <v>3.816176672444271e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.390546094626188e-05</v>
+        <v>2.363665601023968e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0003979537868872285</v>
+        <v>4.011903058653843e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.657345850020647e-05</v>
+        <v>1.758289158715343e-08</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0002872320765163749</v>
+        <v>2.064927684841678e-06</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.757458610692993e-05</v>
+        <v>3.149946223857114e-06</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0001813013950595632</v>
+        <v>1.619828822185809e-07</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.559190609958023e-05</v>
+        <v>4.243252078595106e-06</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0001304939796682447</v>
+        <v>7.114859954526764e-07</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0001970851881196722</v>
+        <v>1.165496996691218e-06</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0001392067351844162</v>
+        <v>1.256613245459448e-06</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0002760260249488056</v>
+        <v>6.012141398059612e-07</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.533738734200597e-05</v>
+        <v>1.595388994246605e-06</v>
       </c>
       <c r="AM7" t="n">
-        <v>4.995037670596503e-05</v>
+        <v>6.620386727718142e-08</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0003911180538125336</v>
+        <v>6.148724196464173e-07</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.000143759825732559</v>
+        <v>2.788269284792477e-06</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0002269628312205896</v>
+        <v>1.691524630587082e-06</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8.339440682902932e-06</v>
+        <v>3.864899440486624e-07</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0001669700432103127</v>
+        <v>1.178299044113373e-06</v>
       </c>
       <c r="AS7" t="n">
-        <v>4.124281986150891e-06</v>
+        <v>1.796678930077178e-07</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0001993568876059726</v>
+        <v>1.584049869052251e-06</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0001596328802406788</v>
+        <v>6.882355592097156e-07</v>
       </c>
       <c r="AV7" t="n">
-        <v>4.071961302543059e-05</v>
+        <v>4.467593441859208e-07</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0008031125762499869</v>
+        <v>2.528669483581325e-06</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0001436825405107811</v>
+        <v>4.255996373103699e-06</v>
       </c>
       <c r="AY7" t="n">
-        <v>5.161007720744237e-05</v>
+        <v>4.721757250081282e-06</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0002233506820630282</v>
+        <v>3.296147724540788e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0001234155060956255</v>
+        <v>5.385236363508739e-06</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0001696807739790529</v>
+        <v>2.174137534893816e-06</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0003410729113966227</v>
+        <v>2.578034582256805e-06</v>
       </c>
       <c r="BD7" t="n">
-        <v>3.208862835890613e-06</v>
+        <v>1.091186163648672e-07</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0001312324166065082</v>
+        <v>2.147947952835239e-07</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0002613872638903558</v>
+        <v>4.383674422570039e-06</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0004125874838791788</v>
+        <v>2.813710864302266e-07</v>
       </c>
       <c r="BH7" t="n">
-        <v>2.604100518510677e-05</v>
+        <v>1.238559775629255e-06</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.926694312714972e-05</v>
+        <v>7.420215979436762e-07</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.35824370267801e-05</v>
+        <v>5.130440058565e-06</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.971723006339744e-05</v>
+        <v>5.686967142537469e-06</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0003940300375688821</v>
+        <v>4.436096787685528e-07</v>
       </c>
       <c r="BM7" t="n">
-        <v>7.898337207734585e-05</v>
+        <v>2.439757508909679e-06</v>
       </c>
       <c r="BN7" t="n">
-        <v>7.938041380839422e-05</v>
+        <v>1.172204633803631e-06</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.051988510880619e-05</v>
+        <v>3.991098310507368e-06</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.000233132392168045</v>
+        <v>1.78236007286614e-07</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0001195279328385368</v>
+        <v>1.163611614174442e-06</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0001526587439002469</v>
+        <v>1.68020687851822e-06</v>
       </c>
       <c r="BS7" t="n">
-        <v>3.706445568241179e-05</v>
+        <v>3.806902896030806e-06</v>
       </c>
       <c r="BT7" t="n">
-        <v>2.216504071839154e-06</v>
+        <v>2.052523313977872e-06</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0003063639742322266</v>
+        <v>2.56421060385037e-07</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.000233313359785825</v>
+        <v>1.518615022177983e-06</v>
       </c>
       <c r="BW7" t="n">
-        <v>1.718497151159681e-05</v>
+        <v>6.287091878220963e-07</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0007376769790425897</v>
+        <v>1.095856418942276e-06</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0002985114115290344</v>
+        <v>3.341107913001906e-06</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0003652783634606749</v>
+        <v>2.064245336441672e-06</v>
       </c>
       <c r="CA7" t="n">
-        <v>5.437622894532979e-05</v>
+        <v>3.289060259703547e-06</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.310116203967482e-06</v>
+        <v>3.054204853469855e-06</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0001287383638555184</v>
+        <v>1.101076577469939e-06</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.000141232056193985</v>
+        <v>9.065522732498721e-08</v>
       </c>
       <c r="CE7" t="n">
-        <v>9.0136472863378e-06</v>
+        <v>5.742588768953283e-07</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.098989352816716e-05</v>
+        <v>4.626942882168805e-07</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0002012922486755997</v>
+        <v>1.806928509040517e-07</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.000116861003334634</v>
+        <v>1.642675442781183e-06</v>
       </c>
       <c r="CI7" t="n">
-        <v>9.241412044502795e-07</v>
+        <v>8.30578557042827e-08</v>
       </c>
       <c r="CJ7" t="n">
-        <v>3.784847649512812e-05</v>
+        <v>2.118917876714477e-07</v>
       </c>
       <c r="CK7" t="n">
-        <v>4.770532905240543e-05</v>
+        <v>1.32079946979502e-06</v>
       </c>
       <c r="CL7" t="n">
-        <v>7.615848517161794e-06</v>
+        <v>1.037673087012081e-06</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0001135184720624238</v>
+        <v>1.23762845305464e-06</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0002940012782346457</v>
+        <v>3.325885700178333e-06</v>
       </c>
       <c r="CO7" t="n">
-        <v>8.388566493522376e-05</v>
+        <v>3.382109525773558e-07</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0004760033916682005</v>
+        <v>3.327841568534495e-06</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0001532736350782216</v>
+        <v>1.896973685688863e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0003750270116142929</v>
+        <v>1.724415142234648e-06</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.000280982640106231</v>
+        <v>4.654920303437393e-06</v>
       </c>
       <c r="CT7" t="n">
-        <v>5.775770841864869e-05</v>
+        <v>2.283430831084843e-06</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.000113926398626063</v>
+        <v>9.011067163555708e-07</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0001267874613404274</v>
+        <v>3.498108469557337e-10</v>
       </c>
       <c r="CW7" t="n">
-        <v>6.152646528789774e-05</v>
+        <v>1.19160949907382e-06</v>
       </c>
       <c r="CX7" t="n">
-        <v>5.322813376551494e-05</v>
+        <v>4.017903734165884e-07</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0001810001122066751</v>
+        <v>5.54134771846293e-07</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0001734080287860706</v>
+        <v>9.177342121802212e-07</v>
       </c>
       <c r="DA7" t="n">
-        <v>7.260281563503668e-05</v>
+        <v>2.308366475745061e-07</v>
       </c>
       <c r="DB7" t="n">
-        <v>3.436943370616063e-05</v>
+        <v>9.551258699502796e-07</v>
       </c>
       <c r="DC7" t="n">
-        <v>4.31539592682384e-05</v>
+        <v>4.764731329487404e-07</v>
       </c>
       <c r="DD7" t="n">
-        <v>4.100512887816876e-05</v>
+        <v>2.149178612853575e-07</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.000441319338278845</v>
+        <v>5.984663403069135e-06</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0004027979739475995</v>
+        <v>2.088967221425264e-06</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0002302386565133929</v>
+        <v>1.005193894343392e-06</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0003687525750137866</v>
+        <v>2.287075403728522e-06</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.000101510806416627</v>
+        <v>5.731558303523343e-07</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.000197195666260086</v>
+        <v>1.97139524971135e-06</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0001894715096568689</v>
+        <v>2.148543217117549e-06</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0002057169767795131</v>
+        <v>1.029690110954107e-06</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0001845710212364793</v>
+        <v>8.495902648064657e-07</v>
       </c>
       <c r="DN7" t="n">
-        <v>8.657157741254196e-05</v>
+        <v>1.15567945613293e-06</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.000139803029014729</v>
+        <v>1.612014330021339e-06</v>
       </c>
       <c r="DP7" t="n">
-        <v>4.729836291517131e-05</v>
+        <v>6.152008040771761e-07</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0003272279282100499</v>
+        <v>2.356693812544108e-06</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0003050926607102156</v>
+        <v>2.635226792335743e-07</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0002536317333579063</v>
+        <v>9.90082753560273e-08</v>
       </c>
       <c r="DT7" t="n">
-        <v>8.125617023324594e-05</v>
+        <v>4.127671218157047e-07</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.000502230366691947</v>
+        <v>9.465446737522143e-07</v>
       </c>
       <c r="DV7" t="n">
-        <v>4.428817919688299e-05</v>
+        <v>1.604984589675951e-07</v>
       </c>
       <c r="DW7" t="n">
-        <v>5.209034497966059e-05</v>
+        <v>1.161551068662448e-07</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0002743695513345301</v>
+        <v>1.128855373622173e-07</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0001055424800142646</v>
+        <v>6.594469823539839e-07</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.000315707759000361</v>
+        <v>6.547677458001999e-07</v>
       </c>
       <c r="EA7" t="n">
-        <v>3.537967131705955e-05</v>
+        <v>3.648093525043805e-06</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0004121240926906466</v>
+        <v>2.100706296914723e-06</v>
       </c>
       <c r="EC7" t="n">
-        <v>9.645643876865506e-05</v>
+        <v>6.624459274462424e-07</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0004000448388978839</v>
+        <v>1.731454858600046e-06</v>
       </c>
       <c r="EE7" t="n">
-        <v>3.618053960963152e-05</v>
+        <v>1.581778747095086e-06</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.000125475024105981</v>
+        <v>2.685645767996903e-07</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.000106702784250956</v>
+        <v>1.61957279942726e-06</v>
       </c>
       <c r="EH7" t="n">
-        <v>3.593575820559636e-05</v>
+        <v>7.450893235727563e-09</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0001657132088439539</v>
+        <v>8.929536079449463e-07</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0002201612951466814</v>
+        <v>1.228315568368998e-06</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0002392118040006608</v>
+        <v>2.515470498565264e-08</v>
       </c>
       <c r="EL7" t="n">
-        <v>1.643689756747335e-05</v>
+        <v>3.490627022983972e-07</v>
       </c>
       <c r="EM7" t="n">
-        <v>1.920178874570411e-05</v>
+        <v>2.628886932143359e-06</v>
       </c>
       <c r="EN7" t="n">
-        <v>3.371457569301128e-05</v>
+        <v>2.186517917834863e-07</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0004537739732768387</v>
+        <v>2.910562955094065e-07</v>
       </c>
       <c r="EP7" t="n">
-        <v>5.217639409238473e-05</v>
+        <v>9.678652759248507e-07</v>
       </c>
       <c r="EQ7" t="n">
-        <v>9.574561772751622e-06</v>
+        <v>5.170705890122917e-07</v>
       </c>
       <c r="ER7" t="n">
-        <v>7.485812238883227e-05</v>
+        <v>1.755739276632085e-06</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0001461050997022539</v>
+        <v>3.199578713974915e-06</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.0001346387289231643</v>
+        <v>9.172425166070752e-07</v>
       </c>
       <c r="EU7" t="n">
-        <v>2.153350214939564e-05</v>
+        <v>9.590659146851976e-07</v>
       </c>
       <c r="EV7" t="n">
-        <v>3.197212208760902e-06</v>
+        <v>2.399702452748897e-06</v>
       </c>
       <c r="EW7" t="n">
-        <v>5.27980228071101e-06</v>
+        <v>2.473348672538123e-07</v>
       </c>
       <c r="EX7" t="n">
-        <v>9.779991523828357e-05</v>
+        <v>4.032917786389589e-07</v>
       </c>
       <c r="EY7" t="n">
-        <v>7.228955837490503e-06</v>
+        <v>1.411266794093535e-06</v>
       </c>
       <c r="EZ7" t="n">
-        <v>4.66383426100947e-05</v>
+        <v>6.846944415883627e-07</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0001027135731419548</v>
+        <v>3.786219053836248e-07</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0001846036029746756</v>
+        <v>9.802138265513349e-07</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0001190958937513642</v>
+        <v>3.791615199588705e-08</v>
       </c>
       <c r="FD7" t="n">
-        <v>2.008685987675563e-05</v>
+        <v>7.397089802907431e-07</v>
       </c>
       <c r="FE7" t="n">
-        <v>5.222706749918871e-05</v>
+        <v>1.175857732960139e-06</v>
       </c>
       <c r="FF7" t="n">
-        <v>1.715204052743502e-05</v>
+        <v>3.077823862440709e-08</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0001076684275176376</v>
+        <v>4.828031592296611e-07</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0001814222778193653</v>
+        <v>1.816907342799823e-06</v>
       </c>
       <c r="FI7" t="n">
-        <v>7.559495134046301e-05</v>
+        <v>6.143007453829341e-07</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0001482344814576209</v>
+        <v>1.132389115809929e-08</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.000170455256011337</v>
+        <v>1.403329861204838e-06</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.302619421039708e-05</v>
+        <v>2.675649056982365e-06</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0001165398280136287</v>
+        <v>1.521163085271837e-06</v>
       </c>
       <c r="FN7" t="n">
-        <v>4.526303018792532e-05</v>
+        <v>6.824309366493253e-07</v>
       </c>
       <c r="FO7" t="n">
-        <v>4.678122786572203e-05</v>
+        <v>3.069684908041381e-06</v>
       </c>
       <c r="FP7" t="n">
-        <v>4.013118450529873e-05</v>
+        <v>8.906036441658216e-07</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0003394990926608443</v>
+        <v>1.960903091458022e-06</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0001773725816747174</v>
+        <v>3.578398093395663e-07</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0002127977204509079</v>
+        <v>9.625009624869563e-07</v>
       </c>
       <c r="FT7" t="n">
-        <v>7.937492773635313e-05</v>
+        <v>7.685894161113538e-06</v>
       </c>
       <c r="FU7" t="n">
-        <v>5.970575148239732e-05</v>
+        <v>1.16145315587346e-06</v>
       </c>
       <c r="FV7" t="n">
-        <v>6.078358273953199e-05</v>
+        <v>3.207649342584773e-06</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0002056678786175326</v>
+        <v>2.133237558155088e-06</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0002002377295866609</v>
+        <v>2.434781663396279e-06</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0003757284139283001</v>
+        <v>1.289142005589383e-06</v>
       </c>
       <c r="FZ7" t="n">
-        <v>6.08962363912724e-05</v>
+        <v>1.168380549643189e-06</v>
       </c>
       <c r="GA7" t="n">
-        <v>8.767572580836713e-06</v>
+        <v>1.092684669856681e-06</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0003031024825759232</v>
+        <v>2.012181084865006e-06</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.0001601928670424968</v>
+        <v>1.278044464925188e-06</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0002520258130971342</v>
+        <v>4.661039270104084e-07</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0001612788182683289</v>
+        <v>7.947382414386084e-07</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.702952431514859e-05</v>
+        <v>2.212660547229461e-06</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0001946587872225791</v>
+        <v>1.968440301425289e-06</v>
       </c>
     </row>
     <row r="8">
@@ -4987,5123 +4987,5123 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.291511166025884e-05</v>
+        <v>1.619552858755924e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>1.202826206281316e-05</v>
+        <v>8.556163811590523e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.517851433163742e-05</v>
+        <v>1.06699371826835e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1.523258652014192e-05</v>
+        <v>4.831788101000711e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>1.986709867196623e-05</v>
+        <v>6.02885993430391e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>7.8555203799624e-06</v>
+        <v>4.72170468128752e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>1.572708424646407e-05</v>
+        <v>1.111331312131369e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.087804543611128e-06</v>
+        <v>3.067028592340648e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>4.321528831496835e-05</v>
+        <v>3.602095966925845e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>2.693676469789352e-05</v>
+        <v>2.792757913994137e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.666973498184234e-07</v>
+        <v>5.905553189222701e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.559152406116482e-05</v>
+        <v>1.082129347196314e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.006094771582866e-05</v>
+        <v>3.306295548100024e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.205902754009003e-05</v>
+        <v>6.540032336488366e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>7.249454938573763e-06</v>
+        <v>1.882709329947829e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.498255369369872e-05</v>
+        <v>1.07854120869888e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.478965441492619e-05</v>
+        <v>3.458133960521081e-06</v>
       </c>
       <c r="R9" t="n">
-        <v>3.021240627276711e-05</v>
+        <v>1.616924055269919e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>7.476905011571944e-06</v>
+        <v>6.255897915252717e-07</v>
       </c>
       <c r="T9" t="n">
-        <v>8.651107236801181e-06</v>
+        <v>1.198446625494398e-06</v>
       </c>
       <c r="U9" t="n">
-        <v>2.87470447801752e-06</v>
+        <v>1.021604589368508e-06</v>
       </c>
       <c r="V9" t="n">
-        <v>6.86010935169179e-06</v>
+        <v>2.966165993711911e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>3.89155866287183e-06</v>
+        <v>5.442467590910383e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>4.172570243099472e-06</v>
+        <v>9.8431009973865e-06</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.65915296546882e-06</v>
+        <v>1.802635779313277e-05</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.734737886901712e-07</v>
+        <v>1.273428460990544e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.089413091103779e-06</v>
+        <v>1.578641786181834e-07</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.059051768010249e-06</v>
+        <v>1.971226538444171e-06</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.790714905946516e-06</v>
+        <v>5.430340024759062e-06</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.205550481448881e-05</v>
+        <v>1.085734766093083e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.038232421204157e-07</v>
+        <v>2.100036181218456e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.870901870570378e-06</v>
+        <v>4.054246164741926e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.756234451022465e-05</v>
+        <v>2.584173307695892e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.473541361629032e-06</v>
+        <v>1.859798612713348e-05</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.692840997857274e-06</v>
+        <v>2.135417844328913e-06</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.226434147218242e-06</v>
+        <v>4.349248683865881e-06</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.224947573064128e-05</v>
+        <v>3.799927981162909e-06</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.119840403087437e-05</v>
+        <v>1.050857918016845e-06</v>
       </c>
       <c r="AM9" t="n">
-        <v>6.064468834665604e-06</v>
+        <v>7.306965699171997e-07</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.301240786233393e-06</v>
+        <v>5.503502507053781e-07</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.726742306753295e-06</v>
+        <v>2.183842298109084e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.978823199053295e-06</v>
+        <v>1.579133277118672e-05</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.662205472210189e-07</v>
+        <v>1.24509388115257e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.449245458701625e-06</v>
+        <v>1.784285996109247e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.023309050651733e-05</v>
+        <v>2.067807872663252e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.344100711430656e-06</v>
+        <v>2.05197352443065e-06</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.367516506434185e-05</v>
+        <v>2.985632636409719e-05</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.54664485307876e-06</v>
+        <v>9.359928299090825e-06</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.327366200916003e-05</v>
+        <v>2.595043952169362e-05</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.127312225435162e-05</v>
+        <v>4.032715514767915e-05</v>
       </c>
       <c r="AY9" t="n">
-        <v>4.075272954651155e-07</v>
+        <v>4.583454938256182e-05</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7.836926670279354e-06</v>
+        <v>2.687566120584961e-05</v>
       </c>
       <c r="BA9" t="n">
-        <v>9.593775757821277e-06</v>
+        <v>4.912028452963568e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.033761120401323e-05</v>
+        <v>1.9779052308877e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.819679891923442e-05</v>
+        <v>3.020278745680116e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.374437715639942e-06</v>
+        <v>2.040627623500768e-05</v>
       </c>
       <c r="BE9" t="n">
-        <v>9.962937838281505e-06</v>
+        <v>6.824970114394091e-06</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.809683428495191e-05</v>
+        <v>1.282009361602832e-05</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.04359116651176e-06</v>
+        <v>2.127748302882537e-05</v>
       </c>
       <c r="BH9" t="n">
-        <v>2.713053618208505e-05</v>
+        <v>2.592576129245572e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>9.257396982320643e-07</v>
+        <v>2.134608985215891e-05</v>
       </c>
       <c r="BJ9" t="n">
-        <v>4.04640468332218e-06</v>
+        <v>1.521847298135981e-05</v>
       </c>
       <c r="BK9" t="n">
-        <v>9.926617167366203e-06</v>
+        <v>1.408404659741791e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.300552518543554e-06</v>
+        <v>6.561881036759587e-06</v>
       </c>
       <c r="BM9" t="n">
-        <v>6.260495410970179e-06</v>
+        <v>1.123678703152109e-05</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.480180910424679e-06</v>
+        <v>2.505231577742961e-07</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.301385691476753e-05</v>
+        <v>1.801929465727881e-05</v>
       </c>
       <c r="BP9" t="n">
-        <v>8.14668328530388e-06</v>
+        <v>9.408186997461598e-06</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.666887439772836e-07</v>
+        <v>4.283505859348224e-06</v>
       </c>
       <c r="BR9" t="n">
-        <v>3.959299192501931e-06</v>
+        <v>5.504906312125968e-06</v>
       </c>
       <c r="BS9" t="n">
-        <v>7.349728548433632e-06</v>
+        <v>1.169318329630187e-05</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.317526493949117e-05</v>
+        <v>7.241141247504856e-06</v>
       </c>
       <c r="BU9" t="n">
-        <v>8.254320164269302e-06</v>
+        <v>8.24615744932089e-06</v>
       </c>
       <c r="BV9" t="n">
-        <v>4.591860488289967e-06</v>
+        <v>2.048767419182695e-05</v>
       </c>
       <c r="BW9" t="n">
-        <v>4.50051902589621e-06</v>
+        <v>8.004783012438565e-06</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.240332403540378e-05</v>
+        <v>3.619145718403161e-05</v>
       </c>
       <c r="BY9" t="n">
-        <v>2.233652958238963e-05</v>
+        <v>4.226675082463771e-05</v>
       </c>
       <c r="BZ9" t="n">
-        <v>2.036753903666977e-05</v>
+        <v>8.209252655433374e-07</v>
       </c>
       <c r="CA9" t="n">
-        <v>4.924577751808101e-06</v>
+        <v>1.5359644748969e-05</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.570129825267941e-05</v>
+        <v>2.510151352907997e-05</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.602275369805284e-05</v>
+        <v>7.543405445176177e-06</v>
       </c>
       <c r="CD9" t="n">
-        <v>4.917235401080688e-06</v>
+        <v>3.283441856183344e-06</v>
       </c>
       <c r="CE9" t="n">
-        <v>2.073512177958037e-06</v>
+        <v>1.26322802316281e-05</v>
       </c>
       <c r="CF9" t="n">
-        <v>5.380397851695307e-06</v>
+        <v>7.854919203964528e-06</v>
       </c>
       <c r="CG9" t="n">
-        <v>2.143624442396685e-06</v>
+        <v>9.116322871705052e-06</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.210462050948991e-05</v>
+        <v>1.01334535429487e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.958880486403359e-06</v>
+        <v>5.518721991393249e-06</v>
       </c>
       <c r="CJ9" t="n">
-        <v>6.498547918454278e-06</v>
+        <v>3.742933813555283e-06</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.040009349002503e-06</v>
+        <v>3.363053110660985e-06</v>
       </c>
       <c r="CL9" t="n">
-        <v>8.859389708959498e-06</v>
+        <v>1.50548999044986e-06</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.388502369081834e-05</v>
+        <v>1.459600525777205e-06</v>
       </c>
       <c r="CN9" t="n">
-        <v>1.834033901104704e-05</v>
+        <v>1.600883661012631e-05</v>
       </c>
       <c r="CO9" t="n">
-        <v>5.554767540161265e-06</v>
+        <v>9.280676749767736e-06</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.179839611926582e-05</v>
+        <v>1.290091950068017e-05</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1.111917208618252e-05</v>
+        <v>1.550705928821117e-05</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.534220427856781e-05</v>
+        <v>2.062871135422029e-05</v>
       </c>
       <c r="CS9" t="n">
-        <v>3.595233010855736e-06</v>
+        <v>2.921380655607209e-06</v>
       </c>
       <c r="CT9" t="n">
-        <v>3.893190296366811e-06</v>
+        <v>4.040499334223568e-06</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.707347473711707e-05</v>
+        <v>1.527678432466928e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>3.110377519988106e-06</v>
+        <v>2.586289610917447e-06</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.051338353543542e-06</v>
+        <v>1.612536470929626e-05</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.306648528043297e-06</v>
+        <v>4.664166226575617e-06</v>
       </c>
       <c r="CY9" t="n">
-        <v>4.886057922703912e-06</v>
+        <v>6.421968464564998e-06</v>
       </c>
       <c r="CZ9" t="n">
-        <v>8.457217518298421e-06</v>
+        <v>1.469893686589785e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>1.981427431019256e-06</v>
+        <v>6.802000825700816e-06</v>
       </c>
       <c r="DB9" t="n">
-        <v>6.791802206862485e-06</v>
+        <v>4.291701770853251e-06</v>
       </c>
       <c r="DC9" t="n">
-        <v>6.436867806769442e-06</v>
+        <v>2.434921952954028e-06</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.08306558104232e-05</v>
+        <v>8.163726761267753e-07</v>
       </c>
       <c r="DE9" t="n">
-        <v>5.762989985669265e-06</v>
+        <v>3.667782948468812e-06</v>
       </c>
       <c r="DF9" t="n">
-        <v>5.772084477939643e-06</v>
+        <v>2.484562537574675e-05</v>
       </c>
       <c r="DG9" t="n">
-        <v>1.142441033152863e-05</v>
+        <v>2.142589892173419e-07</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.168917879112996e-05</v>
+        <v>5.147901538293809e-05</v>
       </c>
       <c r="DI9" t="n">
-        <v>6.72288979330915e-06</v>
+        <v>1.409258766216226e-05</v>
       </c>
       <c r="DJ9" t="n">
-        <v>4.678158802562393e-06</v>
+        <v>2.982817750307731e-05</v>
       </c>
       <c r="DK9" t="n">
-        <v>8.870758392731659e-06</v>
+        <v>1.222439186676638e-05</v>
       </c>
       <c r="DL9" t="n">
-        <v>3.988543539890088e-07</v>
+        <v>1.336648529104423e-05</v>
       </c>
       <c r="DM9" t="n">
-        <v>6.613443474634551e-06</v>
+        <v>1.366456217510859e-05</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.01527921287925e-05</v>
+        <v>9.720563866721932e-06</v>
       </c>
       <c r="DO9" t="n">
-        <v>1.971048732229974e-05</v>
+        <v>1.77964502654504e-05</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.71582507846324e-06</v>
+        <v>1.73540456671617e-06</v>
       </c>
       <c r="DQ9" t="n">
-        <v>5.438539574242895e-06</v>
+        <v>1.523582704976434e-05</v>
       </c>
       <c r="DR9" t="n">
-        <v>5.706508545699762e-07</v>
+        <v>1.19673404697096e-05</v>
       </c>
       <c r="DS9" t="n">
-        <v>7.317657946259715e-08</v>
+        <v>1.548647742311005e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>6.747665793227497e-06</v>
+        <v>9.237944141204935e-06</v>
       </c>
       <c r="DU9" t="n">
-        <v>8.846111086313613e-06</v>
+        <v>9.085794772545341e-06</v>
       </c>
       <c r="DV9" t="n">
-        <v>2.10890248126816e-05</v>
+        <v>8.84748442331329e-06</v>
       </c>
       <c r="DW9" t="n">
-        <v>6.812225365138147e-06</v>
+        <v>1.016914848150918e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>7.883653779572342e-06</v>
+        <v>7.550152076873928e-07</v>
       </c>
       <c r="DY9" t="n">
-        <v>6.31757870905858e-07</v>
+        <v>1.08501008071471e-05</v>
       </c>
       <c r="DZ9" t="n">
-        <v>3.410544422877138e-06</v>
+        <v>1.158241593657294e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>1.182980304292869e-05</v>
+        <v>1.895510467875283e-05</v>
       </c>
       <c r="EB9" t="n">
-        <v>5.948014859313844e-06</v>
+        <v>8.198251634894405e-06</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.967326141993908e-07</v>
+        <v>6.684818799840286e-06</v>
       </c>
       <c r="ED9" t="n">
-        <v>5.689720182999736e-06</v>
+        <v>2.611799573060125e-06</v>
       </c>
       <c r="EE9" t="n">
-        <v>6.915551239217166e-06</v>
+        <v>1.015829457173822e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>3.925827968487283e-06</v>
+        <v>2.472179403412156e-06</v>
       </c>
       <c r="EG9" t="n">
-        <v>9.16023418540135e-06</v>
+        <v>1.797859567886917e-06</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.022727610688889e-05</v>
+        <v>9.871954716800246e-06</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.352947947452776e-06</v>
+        <v>1.048405647452455e-05</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.562510078656487e-05</v>
+        <v>1.110121775127482e-05</v>
       </c>
       <c r="EK9" t="n">
-        <v>8.205838639696594e-07</v>
+        <v>5.556973519560415e-06</v>
       </c>
       <c r="EL9" t="n">
-        <v>4.942684427078348e-06</v>
+        <v>4.947793058818206e-06</v>
       </c>
       <c r="EM9" t="n">
-        <v>7.295020623132586e-06</v>
+        <v>5.995576429995708e-06</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.221722504851641e-05</v>
+        <v>4.875316335528623e-06</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.759157726155536e-06</v>
+        <v>1.00217730505392e-05</v>
       </c>
       <c r="EP9" t="n">
-        <v>7.914234174677404e-07</v>
+        <v>1.905314820760395e-05</v>
       </c>
       <c r="EQ9" t="n">
-        <v>7.146982170525007e-06</v>
+        <v>6.120950729382457e-06</v>
       </c>
       <c r="ER9" t="n">
-        <v>2.047149337158771e-06</v>
+        <v>4.818214165425161e-06</v>
       </c>
       <c r="ES9" t="n">
-        <v>8.956617421063129e-07</v>
+        <v>1.127659515987034e-06</v>
       </c>
       <c r="ET9" t="n">
-        <v>8.471624823869206e-08</v>
+        <v>3.719195592566393e-05</v>
       </c>
       <c r="EU9" t="n">
-        <v>2.393054728599964e-06</v>
+        <v>1.869714105851017e-05</v>
       </c>
       <c r="EV9" t="n">
-        <v>7.098128662619274e-07</v>
+        <v>2.279817181261024e-06</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.691718716756441e-05</v>
+        <v>6.304126145550981e-06</v>
       </c>
       <c r="EX9" t="n">
-        <v>9.756931831361726e-07</v>
+        <v>4.370170699985465e-06</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.428891778232355e-06</v>
+        <v>1.206385331897764e-05</v>
       </c>
       <c r="EZ9" t="n">
-        <v>4.065814209752716e-06</v>
+        <v>2.400199264229741e-06</v>
       </c>
       <c r="FA9" t="n">
-        <v>5.896089533052873e-06</v>
+        <v>1.068034634954529e-05</v>
       </c>
       <c r="FB9" t="n">
-        <v>1.078954301192425e-05</v>
+        <v>1.239305765921017e-05</v>
       </c>
       <c r="FC9" t="n">
-        <v>5.43177065992495e-06</v>
+        <v>8.720032383280341e-06</v>
       </c>
       <c r="FD9" t="n">
-        <v>6.352765922201797e-06</v>
+        <v>5.103548573970329e-06</v>
       </c>
       <c r="FE9" t="n">
-        <v>2.763686097750906e-06</v>
+        <v>4.74237822345458e-08</v>
       </c>
       <c r="FF9" t="n">
-        <v>1.018416787701426e-05</v>
+        <v>5.610278094536625e-06</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.224039806402288e-05</v>
+        <v>2.727000037339167e-06</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.523258106317371e-05</v>
+        <v>1.086875090550166e-05</v>
       </c>
       <c r="FI9" t="n">
-        <v>7.145252311602235e-06</v>
+        <v>2.000175663852133e-05</v>
       </c>
       <c r="FJ9" t="n">
-        <v>7.874748916947283e-06</v>
+        <v>1.107805474021006e-05</v>
       </c>
       <c r="FK9" t="n">
-        <v>7.889500011515338e-06</v>
+        <v>2.016588041442446e-05</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.490034810558427e-05</v>
+        <v>3.527368789946195e-06</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.100105146178976e-05</v>
+        <v>2.913356865974492e-06</v>
       </c>
       <c r="FN9" t="n">
-        <v>1.888471388156177e-06</v>
+        <v>1.225498090207111e-05</v>
       </c>
       <c r="FO9" t="n">
-        <v>2.037193735304754e-05</v>
+        <v>9.391480944032082e-07</v>
       </c>
       <c r="FP9" t="n">
-        <v>6.430731218642904e-07</v>
+        <v>1.729626455926336e-05</v>
       </c>
       <c r="FQ9" t="n">
-        <v>1.055814118444687e-05</v>
+        <v>1.262824753212044e-05</v>
       </c>
       <c r="FR9" t="n">
-        <v>8.698292731423862e-06</v>
+        <v>7.933133929327596e-06</v>
       </c>
       <c r="FS9" t="n">
-        <v>6.06902722211089e-06</v>
+        <v>2.725834065131494e-06</v>
       </c>
       <c r="FT9" t="n">
-        <v>3.925634518964216e-05</v>
+        <v>1.244010491063818e-05</v>
       </c>
       <c r="FU9" t="n">
-        <v>5.305998456606176e-06</v>
+        <v>4.732837624032982e-06</v>
       </c>
       <c r="FV9" t="n">
-        <v>8.730745548746199e-07</v>
+        <v>2.46179370151367e-05</v>
       </c>
       <c r="FW9" t="n">
-        <v>2.090415728162043e-05</v>
+        <v>1.668468394200318e-05</v>
       </c>
       <c r="FX9" t="n">
-        <v>7.29852081349236e-06</v>
+        <v>6.049019248166587e-06</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.643597715883516e-05</v>
+        <v>2.040543768089265e-05</v>
       </c>
       <c r="FZ9" t="n">
-        <v>6.6566626628628e-06</v>
+        <v>1.336196874035522e-05</v>
       </c>
       <c r="GA9" t="n">
-        <v>4.659649221139261e-06</v>
+        <v>1.702825466054492e-05</v>
       </c>
       <c r="GB9" t="n">
-        <v>5.00471651321277e-06</v>
+        <v>7.151727004384156e-06</v>
       </c>
       <c r="GC9" t="n">
-        <v>1.828982931328937e-06</v>
+        <v>2.374721952946857e-05</v>
       </c>
       <c r="GD9" t="n">
-        <v>7.701764843659475e-06</v>
+        <v>3.581517830753e-06</v>
       </c>
       <c r="GE9" t="n">
-        <v>9.31527779357566e-08</v>
+        <v>1.127648192777997e-05</v>
       </c>
       <c r="GF9" t="n">
-        <v>1.134668491431512e-05</v>
+        <v>1.711702316242736e-05</v>
       </c>
       <c r="GG9" t="n">
-        <v>4.176684797130292e-06</v>
+        <v>1.839331707742531e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001457901322282851</v>
+        <v>0.0009384086006321013</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001100038993172348</v>
+        <v>0.001511333044618368</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001404945738613605</v>
+        <v>0.0003298403171356767</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0004151274915784597</v>
+        <v>0.0004355578566901386</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00207992410287261</v>
+        <v>0.002506774617359042</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003039157250896096</v>
+        <v>0.0008527532918378711</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001128075178712606</v>
+        <v>0.0005185274640098214</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001113693229854107</v>
+        <v>0.002802264643833041</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000738659524358809</v>
+        <v>0.000233710918109864</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001379446359351277</v>
+        <v>0.001148059847764671</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0003914357512257993</v>
+        <v>0.001037025009281933</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00142710842192173</v>
+        <v>0.0004963952233083546</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0003489356022328138</v>
+        <v>0.0002121302823070437</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001841556397266686</v>
+        <v>0.001593772671185434</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001833588117733598</v>
+        <v>0.0008898943196982145</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0003657027846202254</v>
+        <v>0.0009732301696203649</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0008630413794890046</v>
+        <v>0.001549040549434721</v>
       </c>
       <c r="R10" t="n">
-        <v>1.883064396679401e-05</v>
+        <v>0.0003516900469549</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0004831194528378546</v>
+        <v>0.0004953312454745173</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0002084550797007978</v>
+        <v>2.520776251913048e-05</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0002160649310098961</v>
+        <v>0.0006509422673843801</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0009592665592208505</v>
+        <v>0.0006478654104284942</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0002965976891573519</v>
+        <v>0.001640750211663544</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0008695506840012968</v>
+        <v>0.0004086257249582559</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0006094318814575672</v>
+        <v>0.0004516572807915509</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0004845860821660608</v>
+        <v>0.000474448868772015</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.968208279227838e-05</v>
+        <v>0.000528154952917248</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0001760110462782905</v>
+        <v>0.0006704365951009095</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0003360884147696197</v>
+        <v>2.588315692264587e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0002535218372941017</v>
+        <v>0.0001148105948232114</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.001018549432046711</v>
+        <v>0.0002478817477822304</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0003300890966784209</v>
+        <v>0.0003951811813749373</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0001614196080481634</v>
+        <v>0.001004231860861182</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.547016816213727e-05</v>
+        <v>0.0008380981744267046</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0005440270761027932</v>
+        <v>0.0006082895561121404</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.000116764786071144</v>
+        <v>0.0005920329713262618</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0003170288691762835</v>
+        <v>0.000230238088988699</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0009012877708300948</v>
+        <v>0.000724788464140147</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0006704183761030436</v>
+        <v>3.006954830198083e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0005163439782336354</v>
+        <v>0.0004930329159833491</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0002710531116463244</v>
+        <v>0.0009531762916594744</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0007638643146492541</v>
+        <v>0.0006649190909229219</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.30201258091256e-05</v>
+        <v>0.0004525135736912489</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0002881989057641476</v>
+        <v>0.0006841649883426726</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0001046210381900892</v>
+        <v>0.0001145797141361982</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0006898848805576563</v>
+        <v>0.0001082363596651703</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.00118118419777602</v>
+        <v>4.227485624141991e-05</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.001581392018124461</v>
+        <v>0.0002925545268226415</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.000235224433708936</v>
+        <v>0.0003667980490718037</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.001452694064937532</v>
+        <v>0.001931524369865656</v>
       </c>
       <c r="AY10" t="n">
-        <v>6.238184869289398e-05</v>
+        <v>0.001893745269626379</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0008492018678225577</v>
+        <v>0.0002361913793720305</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0008914674981497228</v>
+        <v>0.0007320934673771262</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0002528465120121837</v>
+        <v>0.0007605515420436859</v>
       </c>
       <c r="BC10" t="n">
-        <v>7.611528417328373e-05</v>
+        <v>0.001225136686116457</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.0007729551289230585</v>
+        <v>0.0001639489200897515</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0004373885167296976</v>
+        <v>0.0003844813909381628</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.0006176254828460515</v>
+        <v>0.0006660776562057436</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.0001128648946178146</v>
+        <v>0.001152395270764828</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.001005347352474928</v>
+        <v>3.558276512194425e-05</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.360876194667071e-05</v>
+        <v>7.388061203528196e-05</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0001741845917422324</v>
+        <v>0.001155084581114352</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0004394201387185603</v>
+        <v>0.0004017016326542944</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.822293415898457e-05</v>
+        <v>0.0007957101333886385</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0007245268789120018</v>
+        <v>0.0009931901004165411</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0003087207151111215</v>
+        <v>0.0006572005804628134</v>
       </c>
       <c r="BO10" t="n">
-        <v>6.792694330215454e-05</v>
+        <v>0.0006583231734111905</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0002966706524603069</v>
+        <v>2.482327181496657e-05</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0004089076537638903</v>
+        <v>9.160154149867594e-05</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.0003449151990935206</v>
+        <v>0.0003305901191197336</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0005675970460288227</v>
+        <v>0.0003528743400238454</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0003656925982795656</v>
+        <v>0.001119044958613813</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0005857990472577512</v>
+        <v>0.0001066116819856688</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.0007618616218678653</v>
+        <v>0.000352422270225361</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.0002737402974162251</v>
+        <v>7.617086521349847e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.001106544048525393</v>
+        <v>0.0006321259425021708</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.002265774644911289</v>
+        <v>0.002074501942843199</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.000813045771792531</v>
+        <v>0.000126403640024364</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0001528877473901957</v>
+        <v>0.0002332446456421167</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.0007050861022435129</v>
+        <v>0.0005382315721362829</v>
       </c>
       <c r="CC10" t="n">
-        <v>5.476371006807312e-05</v>
+        <v>0.000130061074742116</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0002965701569337398</v>
+        <v>0.0002621499297674745</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0006947323563508689</v>
+        <v>0.0003403945884201676</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.000245407281909138</v>
+        <v>0.0001142425098805688</v>
       </c>
       <c r="CG10" t="n">
-        <v>5.883428821107373e-05</v>
+        <v>6.026046685292386e-05</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0003868375497404486</v>
+        <v>4.72491628897842e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0001041748764691874</v>
+        <v>0.0001536923955427483</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0001300494914175943</v>
+        <v>0.000135975205921568</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0004022744251415133</v>
+        <v>0.0003028736100532115</v>
       </c>
       <c r="CL10" t="n">
-        <v>2.800347647280432e-05</v>
+        <v>0.0003394267114344984</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.000148419858305715</v>
+        <v>0.0002727740502450615</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.0004782131290994585</v>
+        <v>0.0009096130961552262</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0005857234355062246</v>
+        <v>0.0001017593458527699</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.0008574395324103534</v>
+        <v>0.0006705343257635832</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0005136686959303916</v>
+        <v>0.0003369178157299757</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.000542580324690789</v>
+        <v>0.0009865046013146639</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0001325473131146282</v>
+        <v>0.0004611184122040868</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0005568392225541174</v>
+        <v>0.0006542251794598997</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0001185236033052206</v>
+        <v>0.001160290790721774</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.000287729490082711</v>
+        <v>0.000212791099329479</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0006654628086835146</v>
+        <v>0.000369041837984696</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0002900285762734711</v>
+        <v>7.911089778644964e-05</v>
       </c>
       <c r="CY10" t="n">
-        <v>6.221685907803476e-05</v>
+        <v>0.0001867245882749557</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0004667287576012313</v>
+        <v>1.684381277300417e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0002916262892540544</v>
+        <v>0.0002216842258349061</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0001982900430448353</v>
+        <v>3.182118598488159e-05</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0002760702336672693</v>
+        <v>0.0003230594738852233</v>
       </c>
       <c r="DD10" t="n">
-        <v>6.372451025526971e-05</v>
+        <v>0.0003193129668943584</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.000331441086018458</v>
+        <v>0.0001991498429561034</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0006165236700326204</v>
+        <v>0.0008265528595075011</v>
       </c>
       <c r="DG10" t="n">
-        <v>8.503557182848454e-05</v>
+        <v>0.001136866863816977</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.0003934683627448976</v>
+        <v>0.001300113857723773</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0004855856241192669</v>
+        <v>0.0005978362751193345</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.000831370591185987</v>
+        <v>0.0006876913248561323</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0001512386952526867</v>
+        <v>0.0005947009776718915</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0004206065204925835</v>
+        <v>0.0002436382492305711</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.546699786558747e-05</v>
+        <v>0.0005945373559370637</v>
       </c>
       <c r="DN10" t="n">
-        <v>7.702782022533938e-05</v>
+        <v>0.0002870197058655322</v>
       </c>
       <c r="DO10" t="n">
-        <v>4.489159618970007e-05</v>
+        <v>2.734959707595408e-06</v>
       </c>
       <c r="DP10" t="n">
-        <v>5.627615610137582e-05</v>
+        <v>0.0005273386486805975</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0008583333692513406</v>
+        <v>0.0003220807993784547</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0006966991350054741</v>
+        <v>0.0008778023766353726</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0009932985994964838</v>
+        <v>0.001355849206447601</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.0001208801550092176</v>
+        <v>0.0001372839760733768</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0006449427455663681</v>
+        <v>0.0006639140192419291</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0004746413615066558</v>
+        <v>0.0001845513470470905</v>
       </c>
       <c r="DW10" t="n">
-        <v>9.715269698062912e-05</v>
+        <v>0.0008792860899120569</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0001281569857383147</v>
+        <v>0.0009300076635554433</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.773460098775104e-05</v>
+        <v>0.000148683087900281</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0001708867639536038</v>
+        <v>0.0009921748423948884</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0003950030077248812</v>
+        <v>0.001495207659900188</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.0002734180015977472</v>
+        <v>0.0005032281624153256</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0001625505101401359</v>
+        <v>0.0003570350527297705</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0003872480010613799</v>
+        <v>0.0006486513884738088</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0003819272969849408</v>
+        <v>0.0002732165739871562</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0003454515826888382</v>
+        <v>4.052970325574279e-06</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0001146498470916413</v>
+        <v>0.0003548368986230344</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.000392557994928211</v>
+        <v>0.0002500129048712552</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0001933983585331589</v>
+        <v>0.0003036381094716489</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.0003439864958636463</v>
+        <v>0.000179622758878395</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.001093856641091406</v>
+        <v>0.000403973157517612</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0004400667967274785</v>
+        <v>0.0002139910066034645</v>
       </c>
       <c r="EM10" t="n">
-        <v>5.842558675794862e-05</v>
+        <v>0.000182907737325877</v>
       </c>
       <c r="EN10" t="n">
-        <v>8.262020855909213e-06</v>
+        <v>0.0002514152438379824</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0002520179259590805</v>
+        <v>0.0004822784103453159</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.000634893134701997</v>
+        <v>0.0007459872867912054</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0002308263356098905</v>
+        <v>0.0008344994857907295</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0002892464108299464</v>
+        <v>0.0002223371993750334</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.0009736727806739509</v>
+        <v>0.000171822786796838</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0004490942228585482</v>
+        <v>0.001186384586617351</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.000329219939885661</v>
+        <v>0.0005343411467038095</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0002793532621581107</v>
+        <v>0.0004154184716753662</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0002909798640757799</v>
+        <v>0.0002552272635512054</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0002778273192234337</v>
+        <v>0.0003149948315694928</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.0005621284362860024</v>
+        <v>0.0003957849112339318</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0002079433761537075</v>
+        <v>0.000120718359539751</v>
       </c>
       <c r="FA10" t="n">
-        <v>2.793089515762404e-05</v>
+        <v>0.000260612228885293</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0004764277546200901</v>
+        <v>0.0001279430871363729</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0001486812107032165</v>
+        <v>0.0001438080507796258</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0001512494927737862</v>
+        <v>9.061487071448937e-05</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.0004212271014694124</v>
+        <v>0.0001428480609320104</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.3917424439569e-05</v>
+        <v>0.0005349211860448122</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0002141486620530486</v>
+        <v>0.0001465440145693719</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.001002562930807471</v>
+        <v>0.0007123590912669897</v>
       </c>
       <c r="FI10" t="n">
-        <v>3.259898949181661e-05</v>
+        <v>0.0002874548663385212</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0005579765420407057</v>
+        <v>0.0004135387425776571</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0001992595643969253</v>
+        <v>0.0001298801798839122</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.0002710348926484585</v>
+        <v>5.841001257067546e-05</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0004182149714324623</v>
+        <v>0.0001022257420117967</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0007995578926056623</v>
+        <v>4.11301152780652e-06</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0002752692089416087</v>
+        <v>0.0001523666142020375</v>
       </c>
       <c r="FP10" t="n">
-        <v>9.28790686884895e-05</v>
+        <v>0.001076655928045511</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.0005172311211936176</v>
+        <v>0.0005339612253010273</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0002172888052882627</v>
+        <v>0.0007085545221343637</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.001072096172720194</v>
+        <v>0.0006153747672215104</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0001414131256751716</v>
+        <v>0.0002333420561626554</v>
       </c>
       <c r="FU10" t="n">
-        <v>6.352286436595023e-05</v>
+        <v>0.0003122132620774209</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.0003665621625259519</v>
+        <v>0.002196541056036949</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.0003817666438408196</v>
+        <v>0.001611134270206094</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0005175209371373057</v>
+        <v>0.0006992680137045681</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0001061219300027005</v>
+        <v>0.001380948000587523</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0007429241668432951</v>
+        <v>0.0001354713458567858</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0006636481266468763</v>
+        <v>0.001161352614872158</v>
       </c>
       <c r="GB10" t="n">
-        <v>4.618256207322702e-05</v>
+        <v>0.0002593572135083377</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0004658408579416573</v>
+        <v>0.0008683850755915046</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0004610701580531895</v>
+        <v>1.041650102706626e-05</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0004016828024759889</v>
+        <v>8.183245518011972e-05</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.000178826303454116</v>
+        <v>0.0008410447626374662</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0002978844859171659</v>
+        <v>0.0002679188910406083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.025802245015257e-13</v>
+        <v>5.251000766293146e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>6.149900144691856e-09</v>
+        <v>8.689486094226595e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>2.981464408691181e-09</v>
+        <v>3.648485653684475e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>5.660084401171162e-09</v>
+        <v>1.720688669593073e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>3.372195633843944e-09</v>
+        <v>0.0001383884518872947</v>
       </c>
       <c r="F11" t="n">
-        <v>2.533099952017892e-09</v>
+        <v>5.313252404448576e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>1.598139176550717e-09</v>
+        <v>3.370548074599355e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.973892687663238e-09</v>
+        <v>4.498083580983803e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.693318235102993e-09</v>
+        <v>6.545505311805755e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>5.179535689237014e-10</v>
+        <v>1.608852289791685e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>8.726430245076244e-09</v>
+        <v>6.394722004188225e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.329902049069688e-09</v>
+        <v>8.359630010090768e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>5.417862158907383e-09</v>
+        <v>1.846548002504278e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>6.334736291080389e-09</v>
+        <v>9.653798042563722e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>1.418795525509609e-09</v>
+        <v>5.915613655815832e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>2.133912824220374e-09</v>
+        <v>6.148599641164765e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.497834549255231e-09</v>
+        <v>4.417091622599401e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>2.468945492495322e-09</v>
+        <v>2.279720683873165e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.043916397769351e-09</v>
+        <v>2.813548417179845e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.596762944089392e-09</v>
+        <v>4.084645843249746e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.888507128455785e-09</v>
+        <v>2.158365532523021e-06</v>
       </c>
       <c r="V11" t="n">
-        <v>1.036949748289828e-09</v>
+        <v>2.361620136070997e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.5787172397429e-09</v>
+        <v>0.0001024064113153145</v>
       </c>
       <c r="X11" t="n">
-        <v>1.628506884898684e-09</v>
+        <v>1.848460306064226e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.800102178428631e-09</v>
+        <v>2.453309934935533e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.797308968320976e-09</v>
+        <v>4.917074329569004e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.70386615927498e-09</v>
+        <v>3.369465775904246e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.071755406118925e-10</v>
+        <v>1.848823012551293e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.352281563451243e-09</v>
+        <v>5.105757736600935e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.85187132295539e-09</v>
+        <v>7.118072971934453e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>4.150669141722574e-09</v>
+        <v>1.780869934009388e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.097107820731026e-09</v>
+        <v>8.10383862699382e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.175629010281455e-09</v>
+        <v>4.31447278970154e-06</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.902141246380779e-10</v>
+        <v>9.615073940949515e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.031535523665639e-09</v>
+        <v>6.477389251813293e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.35126173875733e-10</v>
+        <v>0.0001010592968668789</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.561812539880748e-09</v>
+        <v>7.520124654547544e-06</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.005656085657392e-09</v>
+        <v>4.811562394024804e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.568705248506831e-10</v>
+        <v>1.571282609802438e-06</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.381709217682328e-09</v>
+        <v>6.32532246527262e-05</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.152796080816643e-09</v>
+        <v>7.930146966828033e-05</v>
       </c>
       <c r="AP11" t="n">
-        <v>4.676611320419966e-10</v>
+        <v>1.927326411532704e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.3121357179432e-11</v>
+        <v>3.061664028791711e-05</v>
       </c>
       <c r="AR11" t="n">
-        <v>7.53373530226753e-10</v>
+        <v>4.066639667144045e-05</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.703117646911778e-10</v>
+        <v>1.221843467646977e-05</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.274737592207089e-09</v>
+        <v>3.750706309801899e-05</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.090980195073143e-08</v>
+        <v>1.537634125270415e-05</v>
       </c>
       <c r="AV11" t="n">
-        <v>3.527290903804214e-09</v>
+        <v>9.433109880774282e-06</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.527366316229518e-09</v>
+        <v>7.699179695919156e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.238277006076487e-09</v>
+        <v>0.0001552279718453065</v>
       </c>
       <c r="AY11" t="n">
-        <v>4.884932902626815e-09</v>
+        <v>4.733538662549108e-05</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.827638484996896e-09</v>
+        <v>0.0001232783833984286</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.458943854615313e-09</v>
+        <v>0.0001424084912287071</v>
       </c>
       <c r="BB11" t="n">
-        <v>2.623044004224084e-09</v>
+        <v>1.950344631040934e-05</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.348535061396205e-09</v>
+        <v>3.51274611603003e-05</v>
       </c>
       <c r="BD11" t="n">
-        <v>6.245867711918152e-11</v>
+        <v>1.078482728189556e-05</v>
       </c>
       <c r="BE11" t="n">
-        <v>7.730379669723675e-10</v>
+        <v>4.010215343441814e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>9.45169165156301e-10</v>
+        <v>2.178812064812519e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>3.641269064047492e-09</v>
+        <v>5.802243322250433e-06</v>
       </c>
       <c r="BH11" t="n">
-        <v>5.620988119403592e-09</v>
+        <v>4.15350659750402e-05</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.291420164723945e-09</v>
+        <v>9.744981798576191e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>2.530464282557432e-09</v>
+        <v>3.350541737745516e-05</v>
       </c>
       <c r="BK11" t="n">
-        <v>8.485583347095371e-10</v>
+        <v>1.898484879347961e-05</v>
       </c>
       <c r="BL11" t="n">
-        <v>1.412264971634158e-09</v>
+        <v>1.058254929375835e-05</v>
       </c>
       <c r="BM11" t="n">
-        <v>3.719840657723239e-09</v>
+        <v>4.558534783427604e-05</v>
       </c>
       <c r="BN11" t="n">
-        <v>5.333282704356179e-09</v>
+        <v>3.859023127006367e-05</v>
       </c>
       <c r="BO11" t="n">
-        <v>3.557075189952741e-10</v>
+        <v>9.451970981899649e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>3.546512417074155e-09</v>
+        <v>3.618804839788936e-05</v>
       </c>
       <c r="BQ11" t="n">
-        <v>3.017429417440098e-09</v>
+        <v>4.880327469436452e-05</v>
       </c>
       <c r="BR11" t="n">
-        <v>4.46309345036866e-09</v>
+        <v>8.215960406232625e-06</v>
       </c>
       <c r="BS11" t="n">
-        <v>3.882581811609498e-09</v>
+        <v>4.742692908621393e-05</v>
       </c>
       <c r="BT11" t="n">
-        <v>7.968157245130669e-10</v>
+        <v>8.228630758821964e-05</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.545344296971507e-09</v>
+        <v>3.147822280880064e-05</v>
       </c>
       <c r="BV11" t="n">
-        <v>9.000067358044817e-10</v>
+        <v>8.186627383111045e-06</v>
       </c>
       <c r="BW11" t="n">
-        <v>1.000403315742915e-09</v>
+        <v>4.442235876922496e-05</v>
       </c>
       <c r="BX11" t="n">
-        <v>2.890215622386449e-09</v>
+        <v>2.304323970747646e-05</v>
       </c>
       <c r="BY11" t="n">
-        <v>1.480300770850818e-09</v>
+        <v>5.31346449861303e-05</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2.943504107122408e-09</v>
+        <v>2.256000152556226e-05</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.668850391212118e-09</v>
+        <v>4.499765782384202e-05</v>
       </c>
       <c r="CB11" t="n">
-        <v>2.23123652887125e-09</v>
+        <v>6.269300502026454e-05</v>
       </c>
       <c r="CC11" t="n">
-        <v>2.032786161620947e-09</v>
+        <v>4.764566983794793e-05</v>
       </c>
       <c r="CD11" t="n">
-        <v>1.479814604188334e-09</v>
+        <v>1.0075740647153e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>1.825995687987358e-09</v>
+        <v>1.967120988410898e-05</v>
       </c>
       <c r="CF11" t="n">
-        <v>3.009452687052772e-10</v>
+        <v>3.0911760404706e-06</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.062203769386372e-09</v>
+        <v>3.546873995219357e-05</v>
       </c>
       <c r="CH11" t="n">
-        <v>5.895517962706265e-10</v>
+        <v>2.547441545175388e-05</v>
       </c>
       <c r="CI11" t="n">
-        <v>3.807529291854905e-10</v>
+        <v>6.951871000637766e-06</v>
       </c>
       <c r="CJ11" t="n">
-        <v>7.082578967754216e-10</v>
+        <v>5.37363848707173e-06</v>
       </c>
       <c r="CK11" t="n">
-        <v>6.165975507954613e-10</v>
+        <v>1.556926690682303e-05</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.597568466404908e-10</v>
+        <v>2.036160140050924e-06</v>
       </c>
       <c r="CM11" t="n">
-        <v>3.41386696689483e-09</v>
+        <v>1.787310429790523e-05</v>
       </c>
       <c r="CN11" t="n">
-        <v>3.412967686244883e-09</v>
+        <v>4.7668581828475e-05</v>
       </c>
       <c r="CO11" t="n">
-        <v>3.563187522814815e-10</v>
+        <v>8.776662070886232e-06</v>
       </c>
       <c r="CP11" t="n">
-        <v>3.242588864083018e-09</v>
+        <v>6.640046194661409e-06</v>
       </c>
       <c r="CQ11" t="n">
-        <v>3.320158592501343e-09</v>
+        <v>2.415335438854527e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>8.348888247411423e-10</v>
+        <v>2.045204018941149e-05</v>
       </c>
       <c r="CS11" t="n">
-        <v>4.15929823915917e-09</v>
+        <v>2.098219010804314e-05</v>
       </c>
       <c r="CT11" t="n">
-        <v>3.547170779327757e-09</v>
+        <v>2.524709452700336e-05</v>
       </c>
       <c r="CU11" t="n">
-        <v>2.355623474059598e-09</v>
+        <v>0.000100619756267406</v>
       </c>
       <c r="CV11" t="n">
-        <v>2.258459419479664e-09</v>
+        <v>1.149199852079619e-05</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.384617309696523e-09</v>
+        <v>2.232397855550516e-05</v>
       </c>
       <c r="CX11" t="n">
-        <v>8.924491146089508e-10</v>
+        <v>7.922410077298991e-06</v>
       </c>
       <c r="CY11" t="n">
-        <v>1.05884578882609e-09</v>
+        <v>3.533123162924312e-05</v>
       </c>
       <c r="CZ11" t="n">
-        <v>1.009648253891271e-09</v>
+        <v>1.489907481300179e-05</v>
       </c>
       <c r="DA11" t="n">
-        <v>8.451824795585594e-10</v>
+        <v>2.262960151711013e-05</v>
       </c>
       <c r="DB11" t="n">
-        <v>1.563939977522466e-09</v>
+        <v>1.702668123471085e-05</v>
       </c>
       <c r="DC11" t="n">
-        <v>6.879377068003123e-10</v>
+        <v>4.432176865520887e-06</v>
       </c>
       <c r="DD11" t="n">
-        <v>5.077493980820691e-12</v>
+        <v>9.789800060389098e-06</v>
       </c>
       <c r="DE11" t="n">
-        <v>1.515012004738026e-10</v>
+        <v>9.024627797771245e-05</v>
       </c>
       <c r="DF11" t="n">
-        <v>3.70224495505056e-09</v>
+        <v>9.20672609936446e-05</v>
       </c>
       <c r="DG11" t="n">
-        <v>3.725995068037946e-10</v>
+        <v>3.507330575303058e-06</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.356864037267314e-09</v>
+        <v>1.148935552919284e-05</v>
       </c>
       <c r="DI11" t="n">
-        <v>2.625826667213005e-09</v>
+        <v>1.472455733164679e-05</v>
       </c>
       <c r="DJ11" t="n">
-        <v>6.116100514930167e-09</v>
+        <v>0.0001506408152636141</v>
       </c>
       <c r="DK11" t="n">
-        <v>2.163770940200038e-09</v>
+        <v>1.690850695013069e-05</v>
       </c>
       <c r="DL11" t="n">
-        <v>1.624349321716068e-09</v>
+        <v>3.290806489530951e-06</v>
       </c>
       <c r="DM11" t="n">
-        <v>3.405143722545745e-09</v>
+        <v>0.0001047433543135412</v>
       </c>
       <c r="DN11" t="n">
-        <v>2.135651433476937e-09</v>
+        <v>2.535360181354918e-06</v>
       </c>
       <c r="DO11" t="n">
-        <v>1.472863386808854e-09</v>
+        <v>3.896902853739448e-05</v>
       </c>
       <c r="DP11" t="n">
-        <v>1.013846007147379e-09</v>
+        <v>3.90785098716151e-05</v>
       </c>
       <c r="DQ11" t="n">
-        <v>1.095186163979633e-09</v>
+        <v>5.271109330351464e-05</v>
       </c>
       <c r="DR11" t="n">
-        <v>8.345070412474342e-09</v>
+        <v>5.672446422977373e-05</v>
       </c>
       <c r="DS11" t="n">
-        <v>2.424802580947016e-09</v>
+        <v>1.129470365412999e-05</v>
       </c>
       <c r="DT11" t="n">
-        <v>1.444374619907762e-09</v>
+        <v>4.642163912649266e-05</v>
       </c>
       <c r="DU11" t="n">
-        <v>1.649862690911164e-09</v>
+        <v>2.166143895010464e-05</v>
       </c>
       <c r="DV11" t="n">
-        <v>9.144597301613544e-10</v>
+        <v>9.349828906124458e-05</v>
       </c>
       <c r="DW11" t="n">
-        <v>1.143697136996025e-09</v>
+        <v>2.589974792499561e-05</v>
       </c>
       <c r="DX11" t="n">
-        <v>1.764469237386379e-09</v>
+        <v>2.963001315947622e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>2.127777731786296e-09</v>
+        <v>3.119878601864912e-05</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.864725457378924e-10</v>
+        <v>7.665594603167847e-05</v>
       </c>
       <c r="EA11" t="n">
-        <v>1.943156746619934e-09</v>
+        <v>5.35084618604742e-05</v>
       </c>
       <c r="EB11" t="n">
-        <v>1.812132999212679e-09</v>
+        <v>3.913194086635485e-05</v>
       </c>
       <c r="EC11" t="n">
-        <v>5.83887216354384e-10</v>
+        <v>7.029939297353849e-08</v>
       </c>
       <c r="ED11" t="n">
-        <v>1.146593597844969e-09</v>
+        <v>3.019559517269954e-05</v>
       </c>
       <c r="EE11" t="n">
-        <v>1.468332122556149e-09</v>
+        <v>2.169676736230031e-05</v>
       </c>
       <c r="EF11" t="n">
-        <v>1.287445150488509e-09</v>
+        <v>1.968694596143905e-05</v>
       </c>
       <c r="EG11" t="n">
-        <v>8.445721344507717e-10</v>
+        <v>1.30204830384173e-06</v>
       </c>
       <c r="EH11" t="n">
-        <v>6.069251767826245e-10</v>
+        <v>1.64817038239562e-07</v>
       </c>
       <c r="EI11" t="n">
-        <v>5.069540787161486e-09</v>
+        <v>7.500949141103774e-05</v>
       </c>
       <c r="EJ11" t="n">
-        <v>9.517727717067714e-10</v>
+        <v>3.204861786798574e-05</v>
       </c>
       <c r="EK11" t="n">
-        <v>2.017887634764293e-09</v>
+        <v>5.210797462495975e-05</v>
       </c>
       <c r="EL11" t="n">
-        <v>4.957900756608069e-10</v>
+        <v>1.957029053301085e-05</v>
       </c>
       <c r="EM11" t="n">
-        <v>7.122223921740556e-10</v>
+        <v>3.549076791387051e-05</v>
       </c>
       <c r="EN11" t="n">
-        <v>3.095300016298097e-09</v>
+        <v>6.035852493369021e-06</v>
       </c>
       <c r="EO11" t="n">
-        <v>1.09029474337774e-09</v>
+        <v>1.336848254140932e-05</v>
       </c>
       <c r="EP11" t="n">
-        <v>5.326221241830353e-09</v>
+        <v>4.054915734741371e-06</v>
       </c>
       <c r="EQ11" t="n">
-        <v>3.62930074881973e-10</v>
+        <v>5.357215286494466e-06</v>
       </c>
       <c r="ER11" t="n">
-        <v>1.583267073002048e-09</v>
+        <v>5.114432497066446e-06</v>
       </c>
       <c r="ES11" t="n">
-        <v>1.513442260403508e-09</v>
+        <v>2.174996916437522e-05</v>
       </c>
       <c r="ET11" t="n">
-        <v>1.185441078632721e-09</v>
+        <v>1.539865297672804e-05</v>
       </c>
       <c r="EU11" t="n">
-        <v>1.707509689197195e-09</v>
+        <v>2.986601612064987e-05</v>
       </c>
       <c r="EV11" t="n">
-        <v>3.929006453518014e-09</v>
+        <v>3.09511597151868e-05</v>
       </c>
       <c r="EW11" t="n">
-        <v>2.381430330711254e-10</v>
+        <v>6.417595432139933e-05</v>
       </c>
       <c r="EX11" t="n">
-        <v>1.978107011524344e-09</v>
+        <v>1.712486300675664e-05</v>
       </c>
       <c r="EY11" t="n">
-        <v>2.244848529286969e-09</v>
+        <v>1.374696785205742e-05</v>
       </c>
       <c r="EZ11" t="n">
-        <v>2.325514225631764e-10</v>
+        <v>2.413916718069231e-06</v>
       </c>
       <c r="FA11" t="n">
-        <v>1.593220888551627e-09</v>
+        <v>3.571997513063252e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>1.070334487707214e-09</v>
+        <v>2.141833465429954e-05</v>
       </c>
       <c r="FC11" t="n">
-        <v>2.013568756176198e-10</v>
+        <v>3.724396947291098e-06</v>
       </c>
       <c r="FD11" t="n">
-        <v>1.165756713383814e-09</v>
+        <v>5.975362000754103e-07</v>
       </c>
       <c r="FE11" t="n">
-        <v>8.693540332060934e-10</v>
+        <v>2.410754677839577e-05</v>
       </c>
       <c r="FF11" t="n">
-        <v>6.545330388796344e-10</v>
+        <v>2.044439315795898e-05</v>
       </c>
       <c r="FG11" t="n">
-        <v>4.714055368282288e-09</v>
+        <v>4.957339842803776e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>1.435584984221805e-10</v>
+        <v>3.680197187350132e-05</v>
       </c>
       <c r="FI11" t="n">
-        <v>1.795950943517255e-09</v>
+        <v>2.06263066502288e-05</v>
       </c>
       <c r="FJ11" t="n">
-        <v>1.438668739695004e-09</v>
+        <v>8.201898890547454e-05</v>
       </c>
       <c r="FK11" t="n">
-        <v>4.782636064959433e-09</v>
+        <v>2.474049870215822e-05</v>
       </c>
       <c r="FL11" t="n">
-        <v>5.197237085141637e-11</v>
+        <v>1.227807115355972e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>1.266762361673557e-09</v>
+        <v>2.036058504018001e-05</v>
       </c>
       <c r="FN11" t="n">
-        <v>6.483083847541593e-09</v>
+        <v>1.312142012466211e-05</v>
       </c>
       <c r="FO11" t="n">
-        <v>1.313300135308282e-09</v>
+        <v>3.482408283161931e-05</v>
       </c>
       <c r="FP11" t="n">
-        <v>1.59678270605923e-09</v>
+        <v>4.48087157565169e-05</v>
       </c>
       <c r="FQ11" t="n">
-        <v>2.622121408890621e-10</v>
+        <v>1.821362093323842e-05</v>
       </c>
       <c r="FR11" t="n">
-        <v>1.524218751214335e-09</v>
+        <v>3.16072191708372e-06</v>
       </c>
       <c r="FS11" t="n">
-        <v>3.589129660142021e-09</v>
+        <v>8.460197932436131e-06</v>
       </c>
       <c r="FT11" t="n">
-        <v>3.079548172024715e-09</v>
+        <v>0.0002816588967107236</v>
       </c>
       <c r="FU11" t="n">
-        <v>3.357260247582872e-09</v>
+        <v>0.0001006663733278401</v>
       </c>
       <c r="FV11" t="n">
-        <v>1.531383353459148e-09</v>
+        <v>2.923452120739967e-05</v>
       </c>
       <c r="FW11" t="n">
-        <v>2.94094881780893e-09</v>
+        <v>4.428872489370406e-05</v>
       </c>
       <c r="FX11" t="n">
-        <v>1.293637197363751e-09</v>
+        <v>3.327739250380546e-05</v>
       </c>
       <c r="FY11" t="n">
-        <v>7.421786518690965e-10</v>
+        <v>4.956532939104363e-05</v>
       </c>
       <c r="FZ11" t="n">
-        <v>5.2459586674658e-10</v>
+        <v>1.482255720475223e-05</v>
       </c>
       <c r="GA11" t="n">
-        <v>1.944060690206584e-09</v>
+        <v>4.46922640549019e-05</v>
       </c>
       <c r="GB11" t="n">
-        <v>3.118302949189911e-09</v>
+        <v>5.065038567408919e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>4.465816161314251e-09</v>
+        <v>5.833803879795596e-05</v>
       </c>
       <c r="GD11" t="n">
-        <v>8.939573525879041e-10</v>
+        <v>3.321362964925356e-05</v>
       </c>
       <c r="GE11" t="n">
-        <v>4.58214827192549e-10</v>
+        <v>0.0001178183447336778</v>
       </c>
       <c r="GF11" t="n">
-        <v>4.087724048140728e-10</v>
+        <v>0.0001186910303658806</v>
       </c>
       <c r="GG11" t="n">
-        <v>8.91375695477592e-10</v>
+        <v>0.0001276642578886822</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.728375203441828e-05</v>
+        <v>0.000138850708026439</v>
       </c>
       <c r="B12" t="n">
-        <v>6.118515739217401e-05</v>
+        <v>0.01334600429981947</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003119545290246606</v>
+        <v>0.0005051125772297382</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001599141862243414</v>
+        <v>0.01262422651052475</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002842191024683416</v>
+        <v>0.009304528124630451</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0006909916992299259</v>
+        <v>0.008043248206377029</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002219650195911527</v>
+        <v>0.003055476117879152</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001730192016111687</v>
+        <v>0.0003959353198297322</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002543739101383835</v>
+        <v>0.005105647724121809</v>
       </c>
       <c r="J12" t="n">
-        <v>4.318283390603028e-05</v>
+        <v>0.000186738179763779</v>
       </c>
       <c r="K12" t="n">
-        <v>6.02117070229724e-05</v>
+        <v>0.01122438348829746</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002786645200103521</v>
+        <v>0.0006511492538265884</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001554170856252313</v>
+        <v>0.01034509763121605</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0001289460196858272</v>
+        <v>0.007850856520235538</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0002319576888112351</v>
+        <v>0.0059206523001194</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0004548578872345388</v>
+        <v>0.003994994796812534</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.000772294239141047</v>
+        <v>0.004386312328279018</v>
       </c>
       <c r="R12" t="n">
-        <v>0.000107323590782471</v>
+        <v>0.005015528295189142</v>
       </c>
       <c r="S12" t="n">
-        <v>3.111430487479083e-05</v>
+        <v>0.0001508777786511928</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0003714200283866376</v>
+        <v>0.001130418851971626</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0001869902043836191</v>
+        <v>0.0003239033976569772</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0001912080479087308</v>
+        <v>0.003063815180212259</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0005500478437170386</v>
+        <v>0.00790753960609436</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0001321402087341994</v>
+        <v>0.001100778579711914</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.000200779119040817</v>
+        <v>0.002683989005163312</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0004832952108699828</v>
+        <v>0.0005838593351654708</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.043625762686133e-05</v>
+        <v>0.0005214780103415251</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.704504918772727e-05</v>
+        <v>0.0004320290172472596</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.0003037628775928169</v>
+        <v>0.0001374170533381402</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0002381098602199927</v>
+        <v>0.00130306207574904</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.296330396551639e-05</v>
+        <v>0.004117508418858051</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0002660633763298392</v>
+        <v>0.005117260850965977</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.0002044338325504214</v>
+        <v>0.003114842344075441</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0002850194287020713</v>
+        <v>0.001587512902915478</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0004060425271745771</v>
+        <v>1.220527337864041e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0001516689953859895</v>
+        <v>0.001206375192850828</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.077634366694838e-05</v>
+        <v>0.0005277625168673694</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.248747867066413e-05</v>
+        <v>0.0007161704706959426</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.483598862250801e-05</v>
+        <v>0.0006151539855636656</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.0006207587430253625</v>
+        <v>0.00061512750107795</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0001306133344769478</v>
+        <v>0.002869952935725451</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0003424740571063012</v>
+        <v>0.003019586205482483</v>
       </c>
       <c r="AQ12" t="n">
-        <v>8.483530837111175e-05</v>
+        <v>0.002839335706084967</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.0001077188280760311</v>
+        <v>0.001023430842906237</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.232892100233585e-05</v>
+        <v>0.0005095854867249727</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0001880849740700796</v>
+        <v>9.105133358389139e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.0001263790472876281</v>
+        <v>0.003875616006553173</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0001250024943146855</v>
+        <v>0.002561109140515327</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0008461029501631856</v>
+        <v>0.007223770953714848</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0004023209621664137</v>
+        <v>0.008315486833453178</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0003646391269285232</v>
+        <v>0.002658150624483824</v>
       </c>
       <c r="AZ12" t="n">
-        <v>6.87285210005939e-05</v>
+        <v>0.008738459087908268</v>
       </c>
       <c r="BA12" t="n">
-        <v>6.013160600559786e-05</v>
+        <v>0.009810945950448513</v>
       </c>
       <c r="BB12" t="n">
-        <v>8.053325291257352e-05</v>
+        <v>0.0005986469914205372</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0002737587783485651</v>
+        <v>0.001375154359266162</v>
       </c>
       <c r="BD12" t="n">
-        <v>8.185878687072545e-05</v>
+        <v>0.003528874833136797</v>
       </c>
       <c r="BE12" t="n">
-        <v>7.035617454675958e-05</v>
+        <v>0.0006245883414521813</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.0006040703156031668</v>
+        <v>0.0007222288986667991</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.000282328954199329</v>
+        <v>0.001058868831023574</v>
       </c>
       <c r="BH12" t="n">
-        <v>9.608300752006471e-05</v>
+        <v>0.001883030636236072</v>
       </c>
       <c r="BI12" t="n">
-        <v>7.799461309332401e-05</v>
+        <v>0.004839041270315647</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.681894668261521e-05</v>
+        <v>0.002122285543009639</v>
       </c>
       <c r="BK12" t="n">
-        <v>4.14183596149087e-05</v>
+        <v>0.006051639560610056</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0002271625562570989</v>
+        <v>8.761408389545977e-05</v>
       </c>
       <c r="BM12" t="n">
-        <v>3.739188468898647e-05</v>
+        <v>0.0009851224021986127</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.000139208510518074</v>
+        <v>0.001536747557111084</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0001237616233993322</v>
+        <v>0.005374450236558914</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.923650754382834e-05</v>
+        <v>0.002588144270703197</v>
       </c>
       <c r="BQ12" t="n">
-        <v>9.051422239281237e-05</v>
+        <v>0.0007165262359194458</v>
       </c>
       <c r="BR12" t="n">
-        <v>7.485153037123382e-05</v>
+        <v>0.001717878738418221</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0001887013349914923</v>
+        <v>0.004281484521925449</v>
       </c>
       <c r="BT12" t="n">
-        <v>6.594854494323954e-05</v>
+        <v>0.002837501233443618</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.568936568219215e-05</v>
+        <v>0.001759465783834457</v>
       </c>
       <c r="BV12" t="n">
-        <v>8.916560909710824e-05</v>
+        <v>0.005348433740437031</v>
       </c>
       <c r="BW12" t="n">
-        <v>3.133597783744335e-05</v>
+        <v>0.0003078992594964802</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.000949490291532129</v>
+        <v>0.008391357958316803</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0004074301104992628</v>
+        <v>0.007409264333546162</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0002724380174186081</v>
+        <v>0.0005321436328813434</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.0001466823305236176</v>
+        <v>0.004293672740459442</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.000147716753417626</v>
+        <v>0.003141295863315463</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0001413843856425956</v>
+        <v>0.001436273683793843</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0001390939287375659</v>
+        <v>5.926815356360748e-05</v>
       </c>
       <c r="CE12" t="n">
-        <v>3.273766196798533e-05</v>
+        <v>0.00143137073609978</v>
       </c>
       <c r="CF12" t="n">
-        <v>7.535605982411653e-05</v>
+        <v>0.0001943648385349661</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.000361317623173818</v>
+        <v>0.001835820381529629</v>
       </c>
       <c r="CH12" t="n">
-        <v>7.81598464527633e-06</v>
+        <v>0.0008959927945397794</v>
       </c>
       <c r="CI12" t="n">
-        <v>4.065348548465408e-05</v>
+        <v>0.0006007826304994524</v>
       </c>
       <c r="CJ12" t="n">
-        <v>7.235998054966331e-06</v>
+        <v>0.00105400918982923</v>
       </c>
       <c r="CK12" t="n">
-        <v>3.586194361560047e-05</v>
+        <v>0.0002978375996463001</v>
       </c>
       <c r="CL12" t="n">
-        <v>8.81981395650655e-05</v>
+        <v>0.0009938585571944714</v>
       </c>
       <c r="CM12" t="n">
-        <v>6.522826879518107e-06</v>
+        <v>0.0002516773238312453</v>
       </c>
       <c r="CN12" t="n">
-        <v>6.862965528853238e-05</v>
+        <v>0.003127865958958864</v>
       </c>
       <c r="CO12" t="n">
-        <v>2.467593003530055e-05</v>
+        <v>0.0007665205048397183</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.0006324021378532052</v>
+        <v>0.001521399128250778</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.0002812226302921772</v>
+        <v>0.00114411860704422</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.0003394722589291632</v>
+        <v>0.003372999140992761</v>
       </c>
       <c r="CS12" t="n">
-        <v>3.932153049390763e-06</v>
+        <v>0.003133660182356834</v>
       </c>
       <c r="CT12" t="n">
-        <v>8.586622425355017e-05</v>
+        <v>0.004668138455599546</v>
       </c>
       <c r="CU12" t="n">
-        <v>5.300991688272916e-05</v>
+        <v>0.0007432398269884288</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.0001973235775949433</v>
+        <v>1.282825542148203e-05</v>
       </c>
       <c r="CW12" t="n">
-        <v>5.03964074596297e-05</v>
+        <v>0.00204925169236958</v>
       </c>
       <c r="CX12" t="n">
-        <v>7.631782500538975e-05</v>
+        <v>0.0004327805363573134</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.00031372404191643</v>
+        <v>0.001668130746111274</v>
       </c>
       <c r="CZ12" t="n">
-        <v>4.728382009488996e-06</v>
+        <v>0.001890324056148529</v>
       </c>
       <c r="DA12" t="n">
-        <v>4.173585693934001e-05</v>
+        <v>0.0008342678193002939</v>
       </c>
       <c r="DB12" t="n">
-        <v>4.164103302173316e-06</v>
+        <v>0.0007404271746054292</v>
       </c>
       <c r="DC12" t="n">
-        <v>4.364494088804349e-05</v>
+        <v>0.0004625493020284921</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0001431388081982732</v>
+        <v>0.001047867117449641</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.0001709844509605318</v>
+        <v>0.0006797765381634235</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.0001095868210541084</v>
+        <v>0.005597962532192469</v>
       </c>
       <c r="DG12" t="n">
-        <v>8.722393977222964e-05</v>
+        <v>0.0003837732365354896</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0001481552026234567</v>
+        <v>0.007205008529126644</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.0005515661323443055</v>
+        <v>0.0060142632573843</v>
       </c>
       <c r="DJ12" t="n">
-        <v>2.842465983121656e-05</v>
+        <v>0.003080856753513217</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.0001107067218981683</v>
+        <v>0.003204186446964741</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.0001467494003009051</v>
+        <v>0.00128857628442347</v>
       </c>
       <c r="DM12" t="n">
-        <v>8.218320726882666e-05</v>
+        <v>0.002624302404001355</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.296878872381058e-05</v>
+        <v>0.002437630202621222</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.000187006255146116</v>
+        <v>0.003923848271369934</v>
       </c>
       <c r="DP12" t="n">
-        <v>4.894551238976419e-05</v>
+        <v>0.001306304126046598</v>
       </c>
       <c r="DQ12" t="n">
-        <v>5.095681990496814e-05</v>
+        <v>0.004745263606309891</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.599094684934244e-05</v>
+        <v>0.0002072083007078618</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0001822259218897671</v>
+        <v>0.001029086532071233</v>
       </c>
       <c r="DT12" t="n">
-        <v>7.090740837156773e-06</v>
+        <v>0.001196167897433043</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0003378686960786581</v>
+        <v>0.001390268327668309</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.000149563726154156</v>
+        <v>8.822798554319888e-05</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0002087867469526827</v>
+        <v>0.001266636420041323</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0001650000631343573</v>
+        <v>0.0003268042637500912</v>
       </c>
       <c r="DY12" t="n">
-        <v>5.307206447469071e-05</v>
+        <v>0.001731378259137273</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.000225114417844452</v>
+        <v>0.002619674196466804</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0001550767483422533</v>
+        <v>0.003981403540819883</v>
       </c>
       <c r="EB12" t="n">
-        <v>4.056499165017158e-05</v>
+        <v>0.0005368028068915009</v>
       </c>
       <c r="EC12" t="n">
-        <v>3.578512405510992e-06</v>
+        <v>0.0006240768125280738</v>
       </c>
       <c r="ED12" t="n">
-        <v>2.157779090339318e-05</v>
+        <v>0.002001312095671892</v>
       </c>
       <c r="EE12" t="n">
-        <v>7.956812623888254e-05</v>
+        <v>0.0005123240407556295</v>
       </c>
       <c r="EF12" t="n">
-        <v>7.765721238683909e-05</v>
+        <v>0.0007237490499392152</v>
       </c>
       <c r="EG12" t="n">
-        <v>5.386349221225828e-05</v>
+        <v>0.0003189790295436978</v>
       </c>
       <c r="EH12" t="n">
-        <v>4.377789082354866e-05</v>
+        <v>0.001182259176857769</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.0005103484727442265</v>
+        <v>0.0001321472809650004</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.0001170650066342205</v>
+        <v>0.002256616950035095</v>
       </c>
       <c r="EK12" t="n">
-        <v>9.91249326034449e-05</v>
+        <v>0.0006941435276530683</v>
       </c>
       <c r="EL12" t="n">
-        <v>8.940568659454584e-05</v>
+        <v>0.001135686645284295</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.0001148888914030977</v>
+        <v>0.0003657171619124711</v>
       </c>
       <c r="EN12" t="n">
-        <v>9.831978240981698e-05</v>
+        <v>0.0002366129192523658</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0003043507167603821</v>
+        <v>0.0008923212299123406</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0003184124361723661</v>
+        <v>6.393952207872644e-05</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0002234394487459213</v>
+        <v>0.0002086526656057686</v>
       </c>
       <c r="ER12" t="n">
-        <v>8.68428178364411e-05</v>
+        <v>0.003419179003685713</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0001655186642892659</v>
+        <v>0.001194667303934693</v>
       </c>
       <c r="ET12" t="n">
-        <v>6.246533303055912e-05</v>
+        <v>0.007419535890221596</v>
       </c>
       <c r="EU12" t="n">
-        <v>2.377288001298439e-05</v>
+        <v>0.003890689229592681</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.0001239736302522942</v>
+        <v>0.001070488360710442</v>
       </c>
       <c r="EW12" t="n">
-        <v>9.753316408023238e-05</v>
+        <v>0.004848964512348175</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.0001418742758687586</v>
+        <v>6.320963439065963e-05</v>
       </c>
       <c r="EY12" t="n">
-        <v>4.036342033941764e-06</v>
+        <v>0.001305481302551925</v>
       </c>
       <c r="EZ12" t="n">
-        <v>9.038599091582e-05</v>
+        <v>8.133619849104434e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.0002932818024419248</v>
+        <v>0.002390220062807202</v>
       </c>
       <c r="FB12" t="n">
-        <v>2.318627593922429e-05</v>
+        <v>0.0006571959238499403</v>
       </c>
       <c r="FC12" t="n">
-        <v>8.676035940879956e-05</v>
+        <v>0.0008567907498218119</v>
       </c>
       <c r="FD12" t="n">
-        <v>5.249641253612936e-05</v>
+        <v>0.001891713589429855</v>
       </c>
       <c r="FE12" t="n">
-        <v>6.612426659557968e-05</v>
+        <v>0.0008822148665785789</v>
       </c>
       <c r="FF12" t="n">
-        <v>5.037148730480112e-05</v>
+        <v>0.001342070288956165</v>
       </c>
       <c r="FG12" t="n">
-        <v>1.476323541282909e-05</v>
+        <v>0.0003747490991372615</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.0002562696754466742</v>
+        <v>8.551873179385439e-05</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.0001862469507614151</v>
+        <v>0.002437958028167486</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.0001490662689320743</v>
+        <v>0.001545121660456061</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0002134030219167471</v>
+        <v>0.004051214549690485</v>
       </c>
       <c r="FL12" t="n">
-        <v>8.187682396965101e-05</v>
+        <v>0.003817651886492968</v>
       </c>
       <c r="FM12" t="n">
-        <v>9.421246795682237e-05</v>
+        <v>0.0009143347851932049</v>
       </c>
       <c r="FN12" t="n">
-        <v>9.967538790078834e-05</v>
+        <v>0.00165887305047363</v>
       </c>
       <c r="FO12" t="n">
-        <v>8.625119517091662e-05</v>
+        <v>0.001677484251558781</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0002207108482252806</v>
+        <v>0.001204223488457501</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0001017635513562709</v>
+        <v>0.003532396629452705</v>
       </c>
       <c r="FR12" t="n">
-        <v>3.764649591175839e-05</v>
+        <v>0.001133281271904707</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.0006181973149068654</v>
+        <v>0.003846524748951197</v>
       </c>
       <c r="FT12" t="n">
-        <v>4.31333901360631e-05</v>
+        <v>0.009801417589187622</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.0002318042679689825</v>
+        <v>0.004126905929297209</v>
       </c>
       <c r="FV12" t="n">
-        <v>3.924653356079943e-05</v>
+        <v>0.003069516271352768</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0001819588360376656</v>
+        <v>0.002243167487904429</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0003450785879977047</v>
+        <v>0.0009377174428664148</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0001116232451749966</v>
+        <v>0.0004552550090011209</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.000413574802223593</v>
+        <v>0.0008928063907660544</v>
       </c>
       <c r="GA12" t="n">
-        <v>4.468502447707579e-05</v>
+        <v>0.0008397130877710879</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.0003443698806222528</v>
+        <v>0.001854491303674877</v>
       </c>
       <c r="GC12" t="n">
-        <v>6.861137808300555e-05</v>
+        <v>0.003826095955446362</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0002224635827587917</v>
+        <v>0.001112200669012964</v>
       </c>
       <c r="GE12" t="n">
-        <v>5.787996633443981e-05</v>
+        <v>0.0007209465838968754</v>
       </c>
       <c r="GF12" t="n">
-        <v>5.055994552094489e-05</v>
+        <v>0.002565388334915042</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.000284414942143485</v>
+        <v>0.003099927678704262</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.790383663546891e-07</v>
+        <v>0.0002791601582430303</v>
       </c>
       <c r="B13" t="n">
-        <v>1.582101731401053e-06</v>
+        <v>0.001668465789407492</v>
       </c>
       <c r="C13" t="n">
-        <v>1.075211116585706e-06</v>
+        <v>0.0002775951288640499</v>
       </c>
       <c r="D13" t="n">
-        <v>3.910010036634048e-06</v>
+        <v>0.001593884429894388</v>
       </c>
       <c r="E13" t="n">
-        <v>1.944167934198049e-06</v>
+        <v>0.0004925940884277225</v>
       </c>
       <c r="F13" t="n">
-        <v>1.298431129725941e-06</v>
+        <v>0.001215839991346002</v>
       </c>
       <c r="G13" t="n">
-        <v>8.673038109918707e-07</v>
+        <v>0.0005909869214519858</v>
       </c>
       <c r="H13" t="n">
-        <v>1.504009361497083e-08</v>
+        <v>0.0008052054909057915</v>
       </c>
       <c r="I13" t="n">
-        <v>2.774413019324129e-07</v>
+        <v>0.0006475569680333138</v>
       </c>
       <c r="J13" t="n">
-        <v>3.610315957303101e-08</v>
+        <v>0.0002828036085702479</v>
       </c>
       <c r="K13" t="n">
-        <v>7.754161970296991e-07</v>
+        <v>0.001553048845380545</v>
       </c>
       <c r="L13" t="n">
-        <v>3.719911774169304e-07</v>
+        <v>0.0002852293837349862</v>
       </c>
       <c r="M13" t="n">
-        <v>3.579104941309197e-06</v>
+        <v>0.001276931376196444</v>
       </c>
       <c r="N13" t="n">
-        <v>1.057504050550051e-06</v>
+        <v>7.235459634102881e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>6.004941610626702e-07</v>
+        <v>0.001002581790089607</v>
       </c>
       <c r="P13" t="n">
-        <v>8.899233989723143e-07</v>
+        <v>0.0007934205932542682</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.517885088262119e-07</v>
+        <v>0.0007171686156652868</v>
       </c>
       <c r="R13" t="n">
-        <v>2.960068457014131e-07</v>
+        <v>8.265374344773591e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>4.346710227309813e-07</v>
+        <v>8.488347521051764e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>2.539378556321026e-07</v>
+        <v>0.0002872671175282449</v>
       </c>
       <c r="U13" t="n">
-        <v>1.052479490226688e-07</v>
+        <v>0.000195915752556175</v>
       </c>
       <c r="V13" t="n">
-        <v>6.962789598219388e-07</v>
+        <v>0.0005568602355197072</v>
       </c>
       <c r="W13" t="n">
-        <v>1.786450980034715e-06</v>
+        <v>0.00117256841622293</v>
       </c>
       <c r="X13" t="n">
-        <v>2.109391594729004e-08</v>
+        <v>0.000446642137831077</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.228730515227653e-07</v>
+        <v>5.599635187536478e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.04499130518343e-07</v>
+        <v>0.0003617394831962883</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.380444013600936e-07</v>
+        <v>7.461415225407109e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.285533812733775e-07</v>
+        <v>1.56516907736659e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.716248902994266e-07</v>
+        <v>0.0001072438462870196</v>
       </c>
       <c r="AD13" t="n">
-        <v>4.358262515324896e-07</v>
+        <v>9.74557624431327e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.965303557786683e-07</v>
+        <v>0.0002666743821464479</v>
       </c>
       <c r="AF13" t="n">
-        <v>7.048997190395312e-07</v>
+        <v>5.725468508899212e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.608330747643777e-07</v>
+        <v>0.0001257176918443292</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.565293470979668e-07</v>
+        <v>0.0001891491992864758</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.413339418832038e-07</v>
+        <v>0.0004080794169567525</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.889189888970577e-07</v>
+        <v>0.0002971151552628726</v>
       </c>
       <c r="AK13" t="n">
-        <v>9.888546514957852e-08</v>
+        <v>7.312206435017288e-06</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.568491683201501e-07</v>
+        <v>0.0001826665393309668</v>
       </c>
       <c r="AM13" t="n">
-        <v>4.955950885232596e-07</v>
+        <v>1.944041287060827e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.014173562907672e-06</v>
+        <v>0.0004614354111254215</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.696578344478894e-08</v>
+        <v>0.0001263640879187733</v>
       </c>
       <c r="AP13" t="n">
-        <v>5.518529064829636e-07</v>
+        <v>0.0001630011101951823</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.303082678485225e-07</v>
+        <v>0.0001505277323303744</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.108758335201856e-07</v>
+        <v>0.0003656185872387141</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.645278662782857e-08</v>
+        <v>4.760074079968035e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.015800077970198e-07</v>
+        <v>0.0004197533125989139</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.828326159942662e-07</v>
+        <v>0.0003277248470112681</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.623897674107866e-07</v>
+        <v>9.457456326344982e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.272646725032246e-06</v>
+        <v>0.001181675703264773</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.148936118828715e-06</v>
+        <v>0.001560989418067038</v>
       </c>
       <c r="AY13" t="n">
-        <v>4.42614805251651e-07</v>
+        <v>0.000989771680906415</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.583213074558444e-07</v>
+        <v>0.0009205908863805234</v>
       </c>
       <c r="BA13" t="n">
-        <v>2.954095066343143e-07</v>
+        <v>0.0007383190095424652</v>
       </c>
       <c r="BB13" t="n">
-        <v>3.117013420705916e-07</v>
+        <v>0.0004440735501702875</v>
       </c>
       <c r="BC13" t="n">
-        <v>5.837494541083288e-07</v>
+        <v>0.000346840126439929</v>
       </c>
       <c r="BD13" t="n">
-        <v>3.604553171498992e-07</v>
+        <v>0.0006515113636851311</v>
       </c>
       <c r="BE13" t="n">
-        <v>9.648078957980033e-08</v>
+        <v>0.0003481538442429155</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.696411118246033e-06</v>
+        <v>0.0007141001988202333</v>
       </c>
       <c r="BG13" t="n">
-        <v>5.273377610137686e-07</v>
+        <v>0.0002240429457742721</v>
       </c>
       <c r="BH13" t="n">
-        <v>8.401022100201772e-10</v>
+        <v>0.0003439347783569247</v>
       </c>
       <c r="BI13" t="n">
-        <v>6.137129275884945e-07</v>
+        <v>0.001018351991660893</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1.800152347186668e-07</v>
+        <v>0.0004456714086700231</v>
       </c>
       <c r="BK13" t="n">
-        <v>5.391461286308186e-07</v>
+        <v>0.0002962510334327817</v>
       </c>
       <c r="BL13" t="n">
-        <v>4.003092328730418e-07</v>
+        <v>0.000161935604410246</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.049054503710067e-06</v>
+        <v>0.0003246600099373609</v>
       </c>
       <c r="BN13" t="n">
-        <v>3.218466702037404e-07</v>
+        <v>0.000280369509709999</v>
       </c>
       <c r="BO13" t="n">
-        <v>7.001043513810146e-07</v>
+        <v>0.00112292286939919</v>
       </c>
       <c r="BP13" t="n">
-        <v>4.082164366536745e-07</v>
+        <v>0.0006116802105680108</v>
       </c>
       <c r="BQ13" t="n">
-        <v>4.970138434146065e-07</v>
+        <v>0.0001481071230955422</v>
       </c>
       <c r="BR13" t="n">
-        <v>3.50242601143691e-07</v>
+        <v>0.0002318446058779955</v>
       </c>
       <c r="BS13" t="n">
-        <v>3.14390575795187e-07</v>
+        <v>0.001117881038226187</v>
       </c>
       <c r="BT13" t="n">
-        <v>1.072425632742124e-07</v>
+        <v>0.0003381493734195828</v>
       </c>
       <c r="BU13" t="n">
-        <v>5.927564643570804e-07</v>
+        <v>0.000153573535499163</v>
       </c>
       <c r="BV13" t="n">
-        <v>3.335227347633918e-07</v>
+        <v>0.0003842993173748255</v>
       </c>
       <c r="BW13" t="n">
-        <v>1.762472265909309e-07</v>
+        <v>0.0003018113202415407</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.845680230871949e-06</v>
+        <v>0.0004181060648988932</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.009355742098705e-06</v>
+        <v>0.0004868910764344037</v>
       </c>
       <c r="BZ13" t="n">
-        <v>6.303974373622623e-07</v>
+        <v>0.000885724788531661</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.803727087690277e-07</v>
+        <v>0.0006465625483542681</v>
       </c>
       <c r="CB13" t="n">
-        <v>4.353136375812028e-07</v>
+        <v>0.0003660618385765702</v>
       </c>
       <c r="CC13" t="n">
-        <v>5.81744643568527e-07</v>
+        <v>0.0001167583250207826</v>
       </c>
       <c r="CD13" t="n">
-        <v>2.134146370735834e-07</v>
+        <v>3.41984341503121e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>2.239114422764032e-07</v>
+        <v>0.0002006848226301372</v>
       </c>
       <c r="CF13" t="n">
-        <v>7.663508938549057e-09</v>
+        <v>0.0002113252994604409</v>
       </c>
       <c r="CG13" t="n">
-        <v>8.639109410069068e-07</v>
+        <v>3.974703213316388e-05</v>
       </c>
       <c r="CH13" t="n">
-        <v>3.024742909474298e-07</v>
+        <v>0.000136228118208237</v>
       </c>
       <c r="CI13" t="n">
-        <v>2.181382967592072e-07</v>
+        <v>0.000109166132460814</v>
       </c>
       <c r="CJ13" t="n">
-        <v>2.95233832048325e-07</v>
+        <v>1.765081833582371e-06</v>
       </c>
       <c r="CK13" t="n">
-        <v>4.985436774518348e-08</v>
+        <v>0.0002145127509720623</v>
       </c>
       <c r="CL13" t="n">
-        <v>2.228293283224048e-07</v>
+        <v>0.0001185569417430088</v>
       </c>
       <c r="CM13" t="n">
-        <v>2.236197360616643e-08</v>
+        <v>0.0001165506619145162</v>
       </c>
       <c r="CN13" t="n">
-        <v>9.359685009258101e-07</v>
+        <v>0.000320294959237799</v>
       </c>
       <c r="CO13" t="n">
-        <v>1.15110680098951e-07</v>
+        <v>3.174457742716186e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.553261881781509e-06</v>
+        <v>2.248763121315278e-05</v>
       </c>
       <c r="CQ13" t="n">
-        <v>8.550654229111387e-08</v>
+        <v>0.000948626606259495</v>
       </c>
       <c r="CR13" t="n">
-        <v>3.659936282929266e-07</v>
+        <v>0.0002365352265769616</v>
       </c>
       <c r="CS13" t="n">
-        <v>2.693194574021618e-07</v>
+        <v>0.0008577174739912152</v>
       </c>
       <c r="CT13" t="n">
-        <v>7.234643817355391e-07</v>
+        <v>0.0005261592450551689</v>
       </c>
       <c r="CU13" t="n">
-        <v>4.512556017743918e-08</v>
+        <v>0.0001668169716140255</v>
       </c>
       <c r="CV13" t="n">
-        <v>2.602334063794842e-07</v>
+        <v>4.647727837436832e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>2.459690335854248e-07</v>
+        <v>0.0002294126752531156</v>
       </c>
       <c r="CX13" t="n">
-        <v>4.927736441118213e-08</v>
+        <v>0.0002289270050823689</v>
       </c>
       <c r="CY13" t="n">
-        <v>7.964421229189611e-07</v>
+        <v>1.962247188203037e-05</v>
       </c>
       <c r="CZ13" t="n">
-        <v>3.096275804637116e-07</v>
+        <v>2.718421637837309e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>1.762519303838417e-07</v>
+        <v>6.901651795487851e-05</v>
       </c>
       <c r="DB13" t="n">
-        <v>3.482454360437259e-07</v>
+        <v>0.0001105498449760489</v>
       </c>
       <c r="DC13" t="n">
-        <v>1.150941670857719e-07</v>
+        <v>0.0001532167661935091</v>
       </c>
       <c r="DD13" t="n">
-        <v>1.957569537580639e-07</v>
+        <v>7.753886166028678e-05</v>
       </c>
       <c r="DE13" t="n">
-        <v>9.337906021755771e-07</v>
+        <v>0.000911930575966835</v>
       </c>
       <c r="DF13" t="n">
-        <v>1.261522442064233e-07</v>
+        <v>0.0009778919629752636</v>
       </c>
       <c r="DG13" t="n">
-        <v>9.962278113562206e-08</v>
+        <v>0.0001805041829356924</v>
       </c>
       <c r="DH13" t="n">
-        <v>3.902906797748074e-08</v>
+        <v>0.001062787021510303</v>
       </c>
       <c r="DI13" t="n">
-        <v>7.485739956791804e-07</v>
+        <v>0.0002299828047398478</v>
       </c>
       <c r="DJ13" t="n">
-        <v>8.477129540551687e-07</v>
+        <v>0.00146596331615001</v>
       </c>
       <c r="DK13" t="n">
-        <v>3.45636465226562e-07</v>
+        <v>0.0005571070360019803</v>
       </c>
       <c r="DL13" t="n">
-        <v>4.027220086300076e-07</v>
+        <v>0.0001956664491444826</v>
       </c>
       <c r="DM13" t="n">
-        <v>2.220436954303295e-07</v>
+        <v>0.000599463761318475</v>
       </c>
       <c r="DN13" t="n">
-        <v>3.695228087963187e-07</v>
+        <v>0.000401644705561921</v>
       </c>
       <c r="DO13" t="n">
-        <v>1.684808523805259e-07</v>
+        <v>0.0003745775320567191</v>
       </c>
       <c r="DP13" t="n">
-        <v>2.551933562244812e-07</v>
+        <v>0.0002300685155205429</v>
       </c>
       <c r="DQ13" t="n">
-        <v>1.75111196654143e-07</v>
+        <v>0.000229887169552967</v>
       </c>
       <c r="DR13" t="n">
-        <v>4.557768704671616e-07</v>
+        <v>0.0001830128603614867</v>
       </c>
       <c r="DS13" t="n">
-        <v>3.871425349188939e-07</v>
+        <v>0.0004409933171700686</v>
       </c>
       <c r="DT13" t="n">
-        <v>1.646204594862866e-07</v>
+        <v>0.0002418793592369184</v>
       </c>
       <c r="DU13" t="n">
-        <v>5.055105702922447e-07</v>
+        <v>6.4014398958534e-05</v>
       </c>
       <c r="DV13" t="n">
-        <v>5.152121502760565e-07</v>
+        <v>0.0002648491063155234</v>
       </c>
       <c r="DW13" t="n">
-        <v>7.058460482767259e-09</v>
+        <v>0.0001398585009155795</v>
       </c>
       <c r="DX13" t="n">
-        <v>2.89150762000645e-07</v>
+        <v>9.826791938394308e-05</v>
       </c>
       <c r="DY13" t="n">
-        <v>6.613770153762744e-08</v>
+        <v>0.0001353362313238904</v>
       </c>
       <c r="DZ13" t="n">
-        <v>7.352325042120356e-07</v>
+        <v>0.0007226521847769618</v>
       </c>
       <c r="EA13" t="n">
-        <v>2.104867178331915e-07</v>
+        <v>0.0001946143165696412</v>
       </c>
       <c r="EB13" t="n">
-        <v>5.766325728018273e-08</v>
+        <v>0.0008299402543343604</v>
       </c>
       <c r="EC13" t="n">
-        <v>5.834454697151159e-09</v>
+        <v>0.0002495822554919869</v>
       </c>
       <c r="ED13" t="n">
-        <v>1.504793090134626e-07</v>
+        <v>0.0002353880554437637</v>
       </c>
       <c r="EE13" t="n">
-        <v>3.162929544942017e-07</v>
+        <v>0.0007058926275931299</v>
       </c>
       <c r="EF13" t="n">
-        <v>1.437508245771824e-07</v>
+        <v>0.0001398075255565345</v>
       </c>
       <c r="EG13" t="n">
-        <v>4.086545004611253e-07</v>
+        <v>0.0006526774377562106</v>
       </c>
       <c r="EH13" t="n">
-        <v>2.604417659313185e-07</v>
+        <v>0.0002053327771136537</v>
       </c>
       <c r="EI13" t="n">
-        <v>1.145113174061407e-06</v>
+        <v>0.000438026268966496</v>
       </c>
       <c r="EJ13" t="n">
-        <v>4.329270666403318e-07</v>
+        <v>0.000271406548563391</v>
       </c>
       <c r="EK13" t="n">
-        <v>1.296186127319743e-07</v>
+        <v>0.0002752183354459703</v>
       </c>
       <c r="EL13" t="n">
-        <v>4.367230417301471e-07</v>
+        <v>8.435160998487845e-05</v>
       </c>
       <c r="EM13" t="n">
-        <v>1.701263130371444e-07</v>
+        <v>0.0004218693647999316</v>
       </c>
       <c r="EN13" t="n">
-        <v>2.302291193245765e-07</v>
+        <v>3.127702439087443e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>4.477472543840122e-07</v>
+        <v>0.0003133163263555616</v>
       </c>
       <c r="EP13" t="n">
-        <v>1.438069858750168e-07</v>
+        <v>0.0002488577738404274</v>
       </c>
       <c r="EQ13" t="n">
-        <v>2.836116550497536e-07</v>
+        <v>0.0001682795555097982</v>
       </c>
       <c r="ER13" t="n">
-        <v>3.381465774054959e-08</v>
+        <v>0.0002745242672972381</v>
       </c>
       <c r="ES13" t="n">
-        <v>1.161957783324397e-07</v>
+        <v>8.029614400584251e-05</v>
       </c>
       <c r="ET13" t="n">
-        <v>3.362820422125878e-08</v>
+        <v>0.0002805947442539036</v>
       </c>
       <c r="EU13" t="n">
-        <v>2.155570655304473e-07</v>
+        <v>0.0004567610158119351</v>
       </c>
       <c r="EV13" t="n">
-        <v>2.72918640575881e-07</v>
+        <v>0.0008006470743566751</v>
       </c>
       <c r="EW13" t="n">
-        <v>1.280106971535133e-07</v>
+        <v>0.0001132128454628401</v>
       </c>
       <c r="EX13" t="n">
-        <v>2.465577608745662e-07</v>
+        <v>3.015212678292301e-05</v>
       </c>
       <c r="EY13" t="n">
-        <v>1.809532932384172e-07</v>
+        <v>0.0002258861204609275</v>
       </c>
       <c r="EZ13" t="n">
-        <v>3.112465662979957e-08</v>
+        <v>0.0001668891200097278</v>
       </c>
       <c r="FA13" t="n">
-        <v>6.960534619793179e-07</v>
+        <v>3.539132012519985e-05</v>
       </c>
       <c r="FB13" t="n">
-        <v>2.954746776140382e-07</v>
+        <v>0.0001465746900066733</v>
       </c>
       <c r="FC13" t="n">
-        <v>9.168333292564057e-08</v>
+        <v>3.992200072389096e-05</v>
       </c>
       <c r="FD13" t="n">
-        <v>4.767532004734676e-07</v>
+        <v>8.320393681060523e-05</v>
       </c>
       <c r="FE13" t="n">
-        <v>7.81297231355893e-08</v>
+        <v>0.0003421260043978691</v>
       </c>
       <c r="FF13" t="n">
-        <v>3.877160992260542e-08</v>
+        <v>0.0001903485244838521</v>
       </c>
       <c r="FG13" t="n">
-        <v>2.628400466164749e-07</v>
+        <v>0.0004626559966709465</v>
       </c>
       <c r="FH13" t="n">
-        <v>1.280635899547633e-07</v>
+        <v>0.0001289916108362377</v>
       </c>
       <c r="FI13" t="n">
-        <v>1.01638541138982e-07</v>
+        <v>0.0002092164359055459</v>
       </c>
       <c r="FJ13" t="n">
-        <v>5.859557177245733e-07</v>
+        <v>0.0005837984499521554</v>
       </c>
       <c r="FK13" t="n">
-        <v>3.90475719314054e-07</v>
+        <v>0.0001270294596906751</v>
       </c>
       <c r="FL13" t="n">
-        <v>2.501369351648464e-07</v>
+        <v>0.0009147676173597574</v>
       </c>
       <c r="FM13" t="n">
-        <v>1.632583064292703e-07</v>
+        <v>0.0001093681930797175</v>
       </c>
       <c r="FN13" t="n">
-        <v>2.549570297105674e-07</v>
+        <v>0.0001843953359639272</v>
       </c>
       <c r="FO13" t="n">
-        <v>3.269032902153413e-07</v>
+        <v>1.79081253008917e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>1.234670889971312e-06</v>
+        <v>0.0001136037462856621</v>
       </c>
       <c r="FQ13" t="n">
-        <v>3.960190326779411e-07</v>
+        <v>0.0008167413761839271</v>
       </c>
       <c r="FR13" t="n">
-        <v>4.006747928997356e-07</v>
+        <v>0.000386634113965556</v>
       </c>
       <c r="FS13" t="n">
-        <v>2.356912318646209e-07</v>
+        <v>0.0005091443890705705</v>
       </c>
       <c r="FT13" t="n">
-        <v>1.195684603771952e-06</v>
+        <v>0.0020832191221416</v>
       </c>
       <c r="FU13" t="n">
-        <v>9.433248919776815e-07</v>
+        <v>2.331128780497238e-05</v>
       </c>
       <c r="FV13" t="n">
-        <v>3.908590713308513e-07</v>
+        <v>0.001062555471435189</v>
       </c>
       <c r="FW13" t="n">
-        <v>1.323184164903068e-06</v>
+        <v>0.0005611787782981992</v>
       </c>
       <c r="FX13" t="n">
-        <v>3.953025782266195e-07</v>
+        <v>0.000528094416949898</v>
       </c>
       <c r="FY13" t="n">
-        <v>3.765389777754535e-08</v>
+        <v>0.0003466398629825562</v>
       </c>
       <c r="FZ13" t="n">
-        <v>1.122309782886077e-07</v>
+        <v>0.0006129287648946047</v>
       </c>
       <c r="GA13" t="n">
-        <v>1.414665433685514e-07</v>
+        <v>0.0001053554951795377</v>
       </c>
       <c r="GB13" t="n">
-        <v>7.2547771878817e-07</v>
+        <v>0.0009706126293167472</v>
       </c>
       <c r="GC13" t="n">
-        <v>6.624032948820968e-07</v>
+        <v>0.0001564237172715366</v>
       </c>
       <c r="GD13" t="n">
-        <v>2.381733281708875e-07</v>
+        <v>0.0002045866713160649</v>
       </c>
       <c r="GE13" t="n">
-        <v>1.178823865188861e-07</v>
+        <v>0.000339835649356246</v>
       </c>
       <c r="GF13" t="n">
-        <v>4.259592571997928e-07</v>
+        <v>0.0007490382995456457</v>
       </c>
       <c r="GG13" t="n">
-        <v>1.447303077384277e-07</v>
+        <v>0.0005387855926528573</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.153904311852362e-11</v>
+        <v>0.0002139683929271996</v>
       </c>
       <c r="B14" t="n">
-        <v>3.988465807625019e-11</v>
+        <v>0.002852493897080421</v>
       </c>
       <c r="C14" t="n">
-        <v>1.334064456126605e-11</v>
+        <v>0.0001725863548927009</v>
       </c>
       <c r="D14" t="n">
-        <v>5.984317902330005e-11</v>
+        <v>0.001335340784862638</v>
       </c>
       <c r="E14" t="n">
-        <v>5.987403628449073e-11</v>
+        <v>0.0005609900690615177</v>
       </c>
       <c r="F14" t="n">
-        <v>2.668544205053358e-12</v>
+        <v>1.448604780307505e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>9.76123869234069e-12</v>
+        <v>0.000235577259445563</v>
       </c>
       <c r="H14" t="n">
-        <v>1.783486726358863e-11</v>
+        <v>8.771513967076316e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>1.226802080062095e-11</v>
+        <v>0.0002424022386549041</v>
       </c>
       <c r="J14" t="n">
-        <v>1.689497153289921e-11</v>
+        <v>7.837687735445797e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>4.914233256436695e-11</v>
+        <v>0.002147547900676727</v>
       </c>
       <c r="L14" t="n">
-        <v>1.070764223815024e-11</v>
+        <v>0.0001410979893989861</v>
       </c>
       <c r="M14" t="n">
-        <v>6.318835732432859e-11</v>
+        <v>0.001137580606155097</v>
       </c>
       <c r="N14" t="n">
-        <v>4.052570085066876e-11</v>
+        <v>0.0007424495415762067</v>
       </c>
       <c r="O14" t="n">
-        <v>2.199656082280121e-11</v>
+        <v>0.0002394094044575468</v>
       </c>
       <c r="P14" t="n">
-        <v>5.002393031056096e-12</v>
+        <v>0.0001383521012030542</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04717319485237e-11</v>
+        <v>0.0004019899643026292</v>
       </c>
       <c r="R14" t="n">
-        <v>2.968299564476418e-11</v>
+        <v>2.182810203521512e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>8.063936671187655e-12</v>
+        <v>1.276360853808001e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>8.561300973708441e-12</v>
+        <v>0.0003311237378511578</v>
       </c>
       <c r="U14" t="n">
-        <v>5.348703684820988e-12</v>
+        <v>0.0001543817779747769</v>
       </c>
       <c r="V14" t="n">
-        <v>1.914084689358386e-11</v>
+        <v>0.0003678711946122348</v>
       </c>
       <c r="W14" t="n">
-        <v>3.029335463033966e-11</v>
+        <v>0.0004538115754257888</v>
       </c>
       <c r="X14" t="n">
-        <v>7.18082017459043e-12</v>
+        <v>0.0002357070043217391</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.222779690002174e-11</v>
+        <v>8.515874651493505e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.846154999707306e-11</v>
+        <v>0.000250467041041702</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.972909682845803e-12</v>
+        <v>3.454428951954469e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.550214817624962e-11</v>
+        <v>0.0001218255056301132</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.776159928306713e-12</v>
+        <v>0.0002659688761923462</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.130275552654105e-12</v>
+        <v>0.0001505334221292287</v>
       </c>
       <c r="AE14" t="n">
-        <v>3.397997855314472e-11</v>
+        <v>0.0001392141712130979</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.095917800952861e-11</v>
+        <v>8.76660124049522e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.505957901784538e-12</v>
+        <v>0.0003785045119002461</v>
       </c>
       <c r="AH14" t="n">
-        <v>2.842459340818282e-12</v>
+        <v>8.085919398581609e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.26948926801818e-12</v>
+        <v>0.0002538106054998934</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.594344968547379e-11</v>
+        <v>6.489644874818623e-06</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.168856760853544e-11</v>
+        <v>0.0003855658869724721</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.973226675590418e-12</v>
+        <v>6.237896013772115e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.51477268228728e-12</v>
+        <v>8.349577547051013e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.07271482563598e-12</v>
+        <v>0.0002709577674977481</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.727359054404243e-11</v>
+        <v>0.0004159228992648423</v>
       </c>
       <c r="AP14" t="n">
-        <v>9.06382954801721e-12</v>
+        <v>0.0004568551375996321</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.262800411114262e-12</v>
+        <v>7.704721610934939e-06</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.741579970515605e-13</v>
+        <v>0.0002693894784897566</v>
       </c>
       <c r="AS14" t="n">
-        <v>5.801033264862809e-12</v>
+        <v>5.420162779046223e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.433257233538157e-11</v>
+        <v>3.783674037549645e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>3.405150467150619e-11</v>
+        <v>0.001671495498158038</v>
       </c>
       <c r="AV14" t="n">
-        <v>3.637606708906116e-13</v>
+        <v>1.411676203133538e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>2.956315747759675e-13</v>
+        <v>0.0004992579342797399</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.357044933178678e-11</v>
+        <v>5.158384010428563e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>1.291257812480184e-11</v>
+        <v>2.203638359787874e-06</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1.292854278495126e-12</v>
+        <v>0.0001130640666815452</v>
       </c>
       <c r="BA14" t="n">
-        <v>1.12588740414088e-11</v>
+        <v>0.0001018966067931615</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.077859329567943e-11</v>
+        <v>0.0002404517435934395</v>
       </c>
       <c r="BC14" t="n">
-        <v>7.623837325332339e-12</v>
+        <v>0.0002472485066391528</v>
       </c>
       <c r="BD14" t="n">
-        <v>7.080226595984618e-12</v>
+        <v>0.0005175013211555779</v>
       </c>
       <c r="BE14" t="n">
-        <v>7.727808193705443e-13</v>
+        <v>0.000487877958221361</v>
       </c>
       <c r="BF14" t="n">
-        <v>3.932613262813689e-11</v>
+        <v>0.0002459851384628564</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.103410154385976e-11</v>
+        <v>0.0008490387117490172</v>
       </c>
       <c r="BH14" t="n">
-        <v>2.667914500431579e-11</v>
+        <v>0.0002429332234896719</v>
       </c>
       <c r="BI14" t="n">
-        <v>3.957810641719295e-13</v>
+        <v>0.0003113580751232803</v>
       </c>
       <c r="BJ14" t="n">
-        <v>9.838536235706741e-12</v>
+        <v>0.0001559865922899917</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.889673487132093e-11</v>
+        <v>3.320413816254586e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>9.349029363170391e-12</v>
+        <v>9.306105494033545e-05</v>
       </c>
       <c r="BM14" t="n">
-        <v>3.244243068634134e-11</v>
+        <v>0.000419927149778232</v>
       </c>
       <c r="BN14" t="n">
-        <v>3.854933733338228e-12</v>
+        <v>0.0002064931468339637</v>
       </c>
       <c r="BO14" t="n">
-        <v>2.183232761243659e-11</v>
+        <v>5.003860860597342e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.353436286655185e-11</v>
+        <v>0.0004134871414862573</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.93501421483222e-12</v>
+        <v>0.000312729476718232</v>
       </c>
       <c r="BR14" t="n">
-        <v>4.615709724153927e-12</v>
+        <v>0.0001250600180355832</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.146548047475937e-11</v>
+        <v>4.098640420124866e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.619313841003112e-12</v>
+        <v>0.0001941957743838429</v>
       </c>
       <c r="BU14" t="n">
-        <v>3.683663443720953e-11</v>
+        <v>0.0002957970718853176</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.067464909867977e-12</v>
+        <v>0.0009596176678314805</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.818219533267218e-11</v>
+        <v>0.0001554449700051919</v>
       </c>
       <c r="BX14" t="n">
-        <v>1.683680972419666e-11</v>
+        <v>0.0002109347842633724</v>
       </c>
       <c r="BY14" t="n">
-        <v>3.144158197687652e-11</v>
+        <v>1.564215745020192e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.526618566803639e-12</v>
+        <v>0.000365525484085083</v>
       </c>
       <c r="CA14" t="n">
-        <v>2.051376646675096e-12</v>
+        <v>5.113292718306184e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>7.874288894538228e-12</v>
+        <v>0.0001403550559189171</v>
       </c>
       <c r="CC14" t="n">
-        <v>1.300298670819933e-11</v>
+        <v>0.0001005598169285804</v>
       </c>
       <c r="CD14" t="n">
-        <v>6.942151280914244e-12</v>
+        <v>0.0001133883124566637</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.302929899388294e-11</v>
+        <v>0.0004839369212277234</v>
       </c>
       <c r="CF14" t="n">
-        <v>2.439154347250172e-12</v>
+        <v>0.0001291750086238608</v>
       </c>
       <c r="CG14" t="n">
-        <v>1.04671306344617e-11</v>
+        <v>0.0002099034754792228</v>
       </c>
       <c r="CH14" t="n">
-        <v>2.264996523670959e-11</v>
+        <v>8.957286627264693e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>8.006559824857984e-13</v>
+        <v>1.778181103873067e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>1.269201323900182e-12</v>
+        <v>0.0001470480783609673</v>
       </c>
       <c r="CK14" t="n">
-        <v>8.285653413375726e-12</v>
+        <v>0.0001014832232613117</v>
       </c>
       <c r="CL14" t="n">
-        <v>3.115848508025709e-12</v>
+        <v>1.77213460119674e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>5.803712978952325e-12</v>
+        <v>0.0008601742447353899</v>
       </c>
       <c r="CN14" t="n">
-        <v>8.174658866488826e-12</v>
+        <v>0.0001408801908837631</v>
       </c>
       <c r="CO14" t="n">
-        <v>1.86051911724161e-12</v>
+        <v>1.98798061319394e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>1.915580194467026e-11</v>
+        <v>4.747675484395586e-05</v>
       </c>
       <c r="CQ14" t="n">
-        <v>3.627350503299098e-11</v>
+        <v>0.0002317730686627328</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.382659004650622e-11</v>
+        <v>0.0009543364867568016</v>
       </c>
       <c r="CS14" t="n">
-        <v>3.049464977408767e-12</v>
+        <v>0.0001971022866200656</v>
       </c>
       <c r="CT14" t="n">
-        <v>2.423939347850901e-11</v>
+        <v>0.0001924737152876332</v>
       </c>
       <c r="CU14" t="n">
-        <v>8.998664660642142e-12</v>
+        <v>0.0004221346462145448</v>
       </c>
       <c r="CV14" t="n">
-        <v>7.427795357950462e-12</v>
+        <v>7.964962424011901e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>1.409840039851007e-11</v>
+        <v>0.0004793805710505694</v>
       </c>
       <c r="CX14" t="n">
-        <v>2.674127629401224e-12</v>
+        <v>0.0002447034639772028</v>
       </c>
       <c r="CY14" t="n">
-        <v>6.703426876086827e-12</v>
+        <v>0.0002675902505870908</v>
       </c>
       <c r="CZ14" t="n">
-        <v>1.80874464711378e-11</v>
+        <v>6.960328755667433e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>2.702450676433932e-12</v>
+        <v>3.781817213166505e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>6.143974218275616e-13</v>
+        <v>9.9842349300161e-05</v>
       </c>
       <c r="DC14" t="n">
-        <v>7.068482084371386e-12</v>
+        <v>0.0001662200957071036</v>
       </c>
       <c r="DD14" t="n">
-        <v>3.47949100087952e-12</v>
+        <v>1.863171019067522e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>3.595914885301532e-11</v>
+        <v>0.0003480666782706976</v>
       </c>
       <c r="DF14" t="n">
-        <v>2.433782342325941e-11</v>
+        <v>0.0008719406323507428</v>
       </c>
       <c r="DG14" t="n">
-        <v>4.208952197187754e-12</v>
+        <v>0.0005325279198586941</v>
       </c>
       <c r="DH14" t="n">
-        <v>3.825620376041172e-12</v>
+        <v>0.0005121889989823103</v>
       </c>
       <c r="DI14" t="n">
-        <v>1.46077160784186e-12</v>
+        <v>5.6819299061317e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>2.832929550666829e-11</v>
+        <v>9.578673052601516e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>9.880505268122786e-12</v>
+        <v>0.000453033106168732</v>
       </c>
       <c r="DL14" t="n">
-        <v>2.544484935251834e-11</v>
+        <v>0.0003717282088473439</v>
       </c>
       <c r="DM14" t="n">
-        <v>1.172340349797629e-11</v>
+        <v>0.000134363304823637</v>
       </c>
       <c r="DN14" t="n">
-        <v>2.786034857676922e-12</v>
+        <v>0.0002917022502515465</v>
       </c>
       <c r="DO14" t="n">
-        <v>3.491825752155453e-12</v>
+        <v>0.0001052069419529289</v>
       </c>
       <c r="DP14" t="n">
-        <v>4.160795839813769e-12</v>
+        <v>3.550519977579825e-06</v>
       </c>
       <c r="DQ14" t="n">
-        <v>1.40878732290961e-11</v>
+        <v>0.0004348168440628797</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.873229175941571e-11</v>
+        <v>8.096316742012277e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.201402952816233e-11</v>
+        <v>5.855906783835962e-05</v>
       </c>
       <c r="DT14" t="n">
-        <v>1.451049783801617e-12</v>
+        <v>0.0001311222149524838</v>
       </c>
       <c r="DU14" t="n">
-        <v>2.237454579251397e-12</v>
+        <v>0.0002118213305948302</v>
       </c>
       <c r="DV14" t="n">
-        <v>3.137790374752036e-12</v>
+        <v>0.0001893235312309116</v>
       </c>
       <c r="DW14" t="n">
-        <v>2.891810922667215e-12</v>
+        <v>0.0002460935502313077</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.172746014882486e-11</v>
+        <v>0.000188328413059935</v>
       </c>
       <c r="DY14" t="n">
-        <v>8.766687029093667e-12</v>
+        <v>1.125798735301942e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.050870545096783e-12</v>
+        <v>0.0001559924421599135</v>
       </c>
       <c r="EA14" t="n">
-        <v>2.978255662922091e-13</v>
+        <v>0.0003479626029729843</v>
       </c>
       <c r="EB14" t="n">
-        <v>1.427040517004707e-11</v>
+        <v>0.0003400064597371966</v>
       </c>
       <c r="EC14" t="n">
-        <v>7.930976296706416e-13</v>
+        <v>0.000425836507929489</v>
       </c>
       <c r="ED14" t="n">
-        <v>3.381076451799969e-12</v>
+        <v>5.825063999509439e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>7.447291047735227e-12</v>
+        <v>0.0001968019059859216</v>
       </c>
       <c r="EF14" t="n">
-        <v>1.600546604973996e-11</v>
+        <v>0.0004421196063049138</v>
       </c>
       <c r="EG14" t="n">
-        <v>3.736688042321745e-12</v>
+        <v>0.0004460913187358528</v>
       </c>
       <c r="EH14" t="n">
-        <v>2.075790711195125e-13</v>
+        <v>0.000482443138025701</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.958136951196732e-11</v>
+        <v>0.0002689263201318681</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.308161998864188e-11</v>
+        <v>0.0001379294699290767</v>
       </c>
       <c r="EK14" t="n">
-        <v>4.525985489167716e-12</v>
+        <v>2.702617712202482e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>1.368501666154653e-12</v>
+        <v>8.738604810787365e-05</v>
       </c>
       <c r="EM14" t="n">
-        <v>5.917766277008241e-12</v>
+        <v>5.882781624677591e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>7.450082217808074e-12</v>
+        <v>7.37807567929849e-06</v>
       </c>
       <c r="EO14" t="n">
-        <v>9.689122334316513e-13</v>
+        <v>9.788740135263652e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>1.467648745590022e-11</v>
+        <v>0.0004970589652657509</v>
       </c>
       <c r="EQ14" t="n">
-        <v>2.016849144290123e-13</v>
+        <v>8.656946738483384e-05</v>
       </c>
       <c r="ER14" t="n">
-        <v>5.279541994557269e-12</v>
+        <v>0.0003941062896046788</v>
       </c>
       <c r="ES14" t="n">
-        <v>1.904780499994985e-11</v>
+        <v>0.0001642085844650865</v>
       </c>
       <c r="ET14" t="n">
-        <v>4.601360525241516e-12</v>
+        <v>7.15026690158993e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>3.641021945749445e-13</v>
+        <v>0.0002736841270234436</v>
       </c>
       <c r="EV14" t="n">
-        <v>7.48666103070339e-13</v>
+        <v>0.0001327361533185467</v>
       </c>
       <c r="EW14" t="n">
-        <v>3.932498424119579e-12</v>
+        <v>6.863546150270849e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>5.831661108873787e-12</v>
+        <v>0.0001787970250006765</v>
       </c>
       <c r="EY14" t="n">
-        <v>1.209526923062754e-11</v>
+        <v>0.0004914595047011971</v>
       </c>
       <c r="EZ14" t="n">
-        <v>1.197818428645692e-12</v>
+        <v>0.0001741244341246784</v>
       </c>
       <c r="FA14" t="n">
-        <v>7.960698940323585e-12</v>
+        <v>0.0002635899290908128</v>
       </c>
       <c r="FB14" t="n">
-        <v>1.989133510682528e-11</v>
+        <v>5.757692997576669e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>1.159460114724675e-12</v>
+        <v>1.477759724366479e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>6.378148877106415e-13</v>
+        <v>0.0001297377166338265</v>
       </c>
       <c r="FE14" t="n">
-        <v>5.088268348329983e-12</v>
+        <v>0.00016187404980883</v>
       </c>
       <c r="FF14" t="n">
-        <v>1.233830745905884e-12</v>
+        <v>6.027974450262263e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>1.165341521197627e-11</v>
+        <v>1.394197170156986e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>1.075087414925679e-11</v>
+        <v>5.743243673350662e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>3.730061398643514e-12</v>
+        <v>0.0001440389896743</v>
       </c>
       <c r="FJ14" t="n">
-        <v>1.187990331108502e-11</v>
+        <v>0.0003540755715221167</v>
       </c>
       <c r="FK14" t="n">
-        <v>2.925225339733828e-11</v>
+        <v>0.00028561832732521</v>
       </c>
       <c r="FL14" t="n">
-        <v>3.216468758004964e-11</v>
+        <v>0.0001890962012112141</v>
       </c>
       <c r="FM14" t="n">
-        <v>3.721146654700469e-12</v>
+        <v>5.343204611563124e-05</v>
       </c>
       <c r="FN14" t="n">
-        <v>8.910030699360583e-12</v>
+        <v>7.350218947976828e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>7.807240964829987e-12</v>
+        <v>0.0001032764339470305</v>
       </c>
       <c r="FP14" t="n">
-        <v>6.853182084320952e-12</v>
+        <v>0.0006251265876926482</v>
       </c>
       <c r="FQ14" t="n">
-        <v>2.236003916744611e-11</v>
+        <v>8.305320079671219e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>2.622397264617771e-11</v>
+        <v>0.0008377510821446776</v>
       </c>
       <c r="FS14" t="n">
-        <v>1.99915830417785e-11</v>
+        <v>2.71683147730073e-05</v>
       </c>
       <c r="FT14" t="n">
-        <v>2.324045123014429e-11</v>
+        <v>0.0002159091818612069</v>
       </c>
       <c r="FU14" t="n">
-        <v>1.041117365929711e-11</v>
+        <v>0.0001986950519494712</v>
       </c>
       <c r="FV14" t="n">
-        <v>3.374743626910481e-12</v>
+        <v>0.0003858245036099106</v>
       </c>
       <c r="FW14" t="n">
-        <v>1.467778329433678e-11</v>
+        <v>0.000181613489985466</v>
       </c>
       <c r="FX14" t="n">
-        <v>8.671697908357867e-12</v>
+        <v>0.0003307248698547482</v>
       </c>
       <c r="FY14" t="n">
-        <v>6.769938342560122e-12</v>
+        <v>0.0001069883655873127</v>
       </c>
       <c r="FZ14" t="n">
-        <v>2.824800116041359e-11</v>
+        <v>0.0001390701218042523</v>
       </c>
       <c r="GA14" t="n">
-        <v>5.432267483063136e-12</v>
+        <v>6.941190804354846e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>2.050722439084218e-12</v>
+        <v>2.570287506387103e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>3.294264513953316e-11</v>
+        <v>0.000127893450553529</v>
       </c>
       <c r="GD14" t="n">
-        <v>6.562402531107292e-13</v>
+        <v>0.0001054232780006714</v>
       </c>
       <c r="GE14" t="n">
-        <v>1.246497436518945e-11</v>
+        <v>0.000360428006388247</v>
       </c>
       <c r="GF14" t="n">
-        <v>1.360160421792767e-11</v>
+        <v>4.279726636013947e-05</v>
       </c>
       <c r="GG14" t="n">
-        <v>2.048646408764343e-12</v>
+        <v>0.0001019582632579841</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.006696394644677639</v>
+        <v>0.02594318985939026</v>
       </c>
       <c r="B15" t="n">
-        <v>0.006918378174304962</v>
+        <v>0.3475268185138702</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009536675177514553</v>
+        <v>0.1231445446610451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01402028650045395</v>
+        <v>0.008661026135087013</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01057863794267178</v>
+        <v>0.01342079974710941</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0003711167664732784</v>
+        <v>0.07997775822877884</v>
       </c>
       <c r="G15" t="n">
-        <v>2.013304037973285e-05</v>
+        <v>0.01763477548956871</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00710825202986598</v>
+        <v>0.06365422904491425</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01881263218820095</v>
+        <v>0.01505524665117264</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004405615385621786</v>
+        <v>0.1088123917579651</v>
       </c>
       <c r="K15" t="n">
-        <v>0.008139199577271938</v>
+        <v>0.3395982682704926</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01425071526318789</v>
+        <v>0.08378876000642776</v>
       </c>
       <c r="M15" t="n">
-        <v>0.011910580098629</v>
+        <v>0.007350843399763107</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0133909685537219</v>
+        <v>0.08922919631004333</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005332212429493666</v>
+        <v>0.002781086135655642</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001290227053686976</v>
+        <v>0.04508696496486664</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.008920088410377502</v>
+        <v>0.09291313588619232</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01897396147251129</v>
+        <v>0.03458975255489349</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002488166792318225</v>
+        <v>0.03855692595243454</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00155148864723742</v>
+        <v>0.02487541921436787</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001415214966982603</v>
+        <v>0.05558227002620697</v>
       </c>
       <c r="V15" t="n">
-        <v>0.004872494377195835</v>
+        <v>0.04974659159779549</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01355654280632734</v>
+        <v>0.01656754687428474</v>
       </c>
       <c r="X15" t="n">
-        <v>0.005545437335968018</v>
+        <v>0.002099481411278248</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.003061557188630104</v>
+        <v>0.002355905249714851</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.001890609273687005</v>
+        <v>0.02936372719705105</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.001161226886324584</v>
+        <v>0.02688756585121155</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0007396300788968801</v>
+        <v>0.06410676240921021</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.001979894004762173</v>
+        <v>0.06533961743116379</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.001263312296941876</v>
+        <v>0.03731640055775642</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.00259327469393611</v>
+        <v>0.04587128013372421</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.004824223462492228</v>
+        <v>0.0141366720199585</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.006553559564054012</v>
+        <v>0.02385378628969193</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.001464290311560035</v>
+        <v>0.001635940745472908</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.0102405846118927</v>
+        <v>0.006334815640002489</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.006285267416387796</v>
+        <v>0.03552890941500664</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.00341887935064733</v>
+        <v>0.01248682476580143</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.009762624278664589</v>
+        <v>0.03772177919745445</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.001945152296684682</v>
+        <v>0.003221596591174603</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.00414835661649704</v>
+        <v>0.0209316611289978</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0007746081682853401</v>
+        <v>0.00869383942335844</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.006259981077164412</v>
+        <v>0.07135650515556335</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.001682289410382509</v>
+        <v>0.03477921709418297</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.0007557299104519188</v>
+        <v>0.0008224444463849068</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.001343250973150134</v>
+        <v>0.02195542305707932</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.0002553740050643682</v>
+        <v>0.07883424311876297</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.001970954239368439</v>
+        <v>0.1467837542295456</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.007288500666618347</v>
+        <v>0.049000583589077</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.007236640900373459</v>
+        <v>0.0002380609512329102</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0006094570271670818</v>
+        <v>0.06694317609071732</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.01070888247340918</v>
+        <v>0.0650244727730751</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.002191994339227676</v>
+        <v>0.01929721236228943</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.003363914787769318</v>
+        <v>0.002429206855595112</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.003544959705322981</v>
+        <v>0.06612485647201538</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.002452315296977758</v>
+        <v>0.09108491241931915</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.007737403735518456</v>
+        <v>0.1030858904123306</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.002971284557133913</v>
+        <v>0.06671108305454254</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.005294883158057928</v>
+        <v>0.02985335886478424</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.003205066779628396</v>
+        <v>0.1208131164312363</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0004156786890234798</v>
+        <v>0.001768971211276948</v>
       </c>
       <c r="BI15" t="n">
-        <v>6.196449976414442e-05</v>
+        <v>0.05642754584550858</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0001245236053364351</v>
+        <v>0.1432172805070877</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.007261247374117374</v>
+        <v>0.002257874701172113</v>
       </c>
       <c r="BL15" t="n">
-        <v>2.073466021101922e-06</v>
+        <v>0.04685211181640625</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0002082789578707889</v>
+        <v>0.044378362596035</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.006652208045125008</v>
+        <v>0.04714317992329597</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.003431274322792888</v>
+        <v>0.01308125350624323</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.002132008317857981</v>
+        <v>0.08646470308303833</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.001276785274967551</v>
+        <v>0.009410659782588482</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.001467322697862983</v>
+        <v>0.05516798794269562</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.003249125555157661</v>
+        <v>0.02899387292563915</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.00337813631631434</v>
+        <v>0.0424654558300972</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.00322291417978704</v>
+        <v>0.06164299696683884</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.004412401933223009</v>
+        <v>0.06865137070417404</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.0007876602467149496</v>
+        <v>0.007204134482890368</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.005723299458622932</v>
+        <v>0.0426785908639431</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.006107128225266933</v>
+        <v>0.05223142355680466</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.0004737680428661406</v>
+        <v>0.02421516925096512</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.000213629289646633</v>
+        <v>0.02880189754068851</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.00460731890052557</v>
+        <v>0.0335746556520462</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.01028938498347998</v>
+        <v>0.060544453561306</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.002741388278082013</v>
+        <v>0.0274403840303421</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.004561896435916424</v>
+        <v>0.05701301246881485</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.002185240387916565</v>
+        <v>0.01822507008910179</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.002895512152463198</v>
+        <v>0.006820843555033207</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.003339233808219433</v>
+        <v>0.05448154360055923</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.0002666310756467283</v>
+        <v>0.02360467985272408</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.000459647475508973</v>
+        <v>0.0001336508430540562</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0008360149804502726</v>
+        <v>0.01060642395168543</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.00195369403809309</v>
+        <v>0.03253401443362236</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.0003573788562789559</v>
+        <v>3.889389336109161e-05</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.01017834711819887</v>
+        <v>0.004253196530044079</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.000988055020570755</v>
+        <v>0.02268070168793201</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.006985274143517017</v>
+        <v>0.004058755002915859</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.007883967831730843</v>
+        <v>0.05562947317957878</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.005944925826042891</v>
+        <v>0.0677511915564537</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.000482394709251821</v>
+        <v>0.04911007732152939</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0007112789899110794</v>
+        <v>0.0389421246945858</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.001915689674206078</v>
+        <v>0.02973541244864464</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.003270877059549093</v>
+        <v>0.02139902673661709</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.005682660732418299</v>
+        <v>0.06112863123416901</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.002426968654617667</v>
+        <v>0.006969481706619263</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.003050063271075487</v>
+        <v>0.01568698324263096</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.004589013755321503</v>
+        <v>0.03337304666638374</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.001185355358757079</v>
+        <v>0.01448743045330048</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.001064576208591461</v>
+        <v>0.007296061143279076</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.00047042325604707</v>
+        <v>0.001995624275878072</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.002248819451779127</v>
+        <v>0.03493507578969002</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.005477281287312508</v>
+        <v>0.01226180978119373</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.009143166244029999</v>
+        <v>0.1862061768770218</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.00927382055670023</v>
+        <v>0.01821448467671871</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.001568397739902139</v>
+        <v>0.1014569625258446</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.008895737119019032</v>
+        <v>0.01962137222290039</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.001009965548291802</v>
+        <v>0.07696038484573364</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.001953727565705776</v>
+        <v>0.1000258699059486</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.002840404864400625</v>
+        <v>0.01129746157675982</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.00123640988022089</v>
+        <v>0.03954071551561356</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.0007635474903509021</v>
+        <v>0.04867422580718994</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.002924655564129353</v>
+        <v>0.03695874288678169</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.003355315886437893</v>
+        <v>0.1318580061197281</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0009003365412354469</v>
+        <v>0.03582952171564102</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.003170614829286933</v>
+        <v>0.09255951642990112</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0005890269530937076</v>
+        <v>0.06663484871387482</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.0005555099924094975</v>
+        <v>0.002104154322296381</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.002456419635564089</v>
+        <v>0.03277913108468056</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.003089256817474961</v>
+        <v>0.009382856078445911</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.0005477142403833568</v>
+        <v>0.01477952115237713</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.001817365875467658</v>
+        <v>0.01286192797124386</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.001782677718438208</v>
+        <v>0.04520725458860397</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0009780997643247247</v>
+        <v>0.04961615055799484</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.001666538999415934</v>
+        <v>0.008361461572349072</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.002310575218871236</v>
+        <v>0.06139134243130684</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.001650781254284084</v>
+        <v>0.01948575861752033</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.001197417848743498</v>
+        <v>0.02733869478106499</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.005072785541415215</v>
+        <v>0.001627064310014248</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.003241528756916523</v>
+        <v>0.03540321439504623</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.004575564060360193</v>
+        <v>0.04732086509466171</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.0008726998348720372</v>
+        <v>0.001394644612446427</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.004051138181239367</v>
+        <v>0.015758216381073</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.001321678049862385</v>
+        <v>0.02095152623951435</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.0008431191672571003</v>
+        <v>0.02796664461493492</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0009480216540396214</v>
+        <v>0.007290026172995567</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.004924872424453497</v>
+        <v>0.02443895116448402</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.001620449940674007</v>
+        <v>0.03948304429650307</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.002700087614357471</v>
+        <v>0.01539623085409403</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.002925760811194777</v>
+        <v>0.04988768696784973</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.006953255273401737</v>
+        <v>0.003555390285328031</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.000554741476662457</v>
+        <v>0.01176085788756609</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.007863996550440788</v>
+        <v>0.01291779614984989</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0008635467966087162</v>
+        <v>0.0117482328787446</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.0007202287670224905</v>
+        <v>0.04856350272893906</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0003215097531210631</v>
+        <v>0.03426959738135338</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.003203805070370436</v>
+        <v>0.01026364229619503</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.002705118153244257</v>
+        <v>0.020384406670928</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.005520475097000599</v>
+        <v>0.07181982696056366</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.002921547275036573</v>
+        <v>0.02359138801693916</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.002446276601403952</v>
+        <v>0.008843928575515747</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.004119329154491425</v>
+        <v>0.03318938612937927</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0001327100035268813</v>
+        <v>0.01694805733859539</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0007467730320058763</v>
+        <v>0.02271432802081108</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.0005646373610943556</v>
+        <v>0.0005143575835973024</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.002678151708096266</v>
+        <v>0.04068920761346817</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.000817346794065088</v>
+        <v>0.01261715590953827</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.002786557655781507</v>
+        <v>0.02541374415159225</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.003332193242385983</v>
+        <v>0.03636208921670914</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.003771071787923574</v>
+        <v>0.002486696001142263</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.002151729306206107</v>
+        <v>0.04569472745060921</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.00154355785343796</v>
+        <v>0.04695810005068779</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.001334326807409525</v>
+        <v>0.01617163605988026</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.002454499714076519</v>
+        <v>0.008648483082652092</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.0007880268385633826</v>
+        <v>0.0251038521528244</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.00144228944554925</v>
+        <v>0.123902902007103</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.005366369150578976</v>
+        <v>0.06929440051317215</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.0009784300345927477</v>
+        <v>0.1216369494795799</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.00366960046812892</v>
+        <v>0.005615214817225933</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0002513796789571643</v>
+        <v>0.04357064887881279</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.00101758074015379</v>
+        <v>0.0590314194560051</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.002558060456067324</v>
+        <v>0.01130188815295696</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.004163898527622223</v>
+        <v>0.009508280083537102</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.00181213382165879</v>
+        <v>0.02645019814372063</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.001840281300246716</v>
+        <v>0.02875741198658943</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.001056719105690718</v>
+        <v>0.04298746213316917</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.002414557617157698</v>
+        <v>0.01150720193982124</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0008503994322381914</v>
+        <v>0.01620853319764137</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.001783918123692274</v>
+        <v>0.1107088029384613</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.003423869144171476</v>
+        <v>0.06364257633686066</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.002025037072598934</v>
+        <v>0.05269480869174004</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.001014635316096246</v>
+        <v>0.007203650195151567</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.004685196559876204</v>
+        <v>0.005148413591086864</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0006984120700508356</v>
+        <v>0.001070183236151934</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0008985248859971762</v>
+        <v>0.0005242241895757616</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001560500357300043</v>
+        <v>0.002682355465367436</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001124096219427884</v>
+        <v>0.002169081708416343</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002444393001496792</v>
+        <v>0.001418792875483632</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004020988009870052</v>
+        <v>0.0005740289343520999</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0009204964735545218</v>
+        <v>0.0005921581177972257</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006131035275757313</v>
+        <v>0.0003173980803694576</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0009825334418565035</v>
+        <v>0.0005317417089827359</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002183053875342011</v>
+        <v>0.0008868294535204768</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002955442760139704</v>
+        <v>0.0005035190843045712</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002155778231099248</v>
+        <v>0.002056797035038471</v>
       </c>
       <c r="M16" t="n">
-        <v>0.000933850125875324</v>
+        <v>0.002275720005854964</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002821869449689984</v>
+        <v>5.615689588012174e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00428433483466506</v>
+        <v>0.0006294577615335584</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0008358749328181148</v>
+        <v>0.0003370787017047405</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.006776009686291218</v>
+        <v>5.25014620507136e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0005606167251244187</v>
+        <v>0.0009769813623279333</v>
       </c>
       <c r="S16" t="n">
-        <v>0.001504979911260307</v>
+        <v>0.0003254271578043699</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0003382109862286597</v>
+        <v>0.0004239756963215768</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002397670468781143</v>
+        <v>0.0004135834751650691</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0002839247754309326</v>
+        <v>0.0004531383456196636</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0004041215288452804</v>
+        <v>0.0003475963312666863</v>
       </c>
       <c r="X16" t="n">
-        <v>0.001071279402822256</v>
+        <v>0.0001731461670715362</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0003388597397133708</v>
+        <v>0.0003700978995766491</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.001682251575402915</v>
+        <v>0.0002574885438662022</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.322843885049224e-05</v>
+        <v>4.045624518766999e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0003787151363212615</v>
+        <v>0.0008794124587439001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0001928575220517814</v>
+        <v>6.927968934178352e-05</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.808882320299745e-05</v>
+        <v>9.643657540436834e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.001068601151928306</v>
+        <v>0.0009182635694742203</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.002292063785716891</v>
+        <v>0.0007593284244649112</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0005947057507000864</v>
+        <v>3.352655767230317e-06</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.001967648509889841</v>
+        <v>4.335808625910431e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.0007528991554863751</v>
+        <v>0.0003171199641656131</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0001745179615681991</v>
+        <v>0.000360210775397718</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.0003658819478005171</v>
+        <v>0.0002627731009852141</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0004888091934844851</v>
+        <v>4.687078762799501e-05</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.001361999660730362</v>
+        <v>2.150512591470033e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0002191639505326748</v>
+        <v>0.0001670619240030646</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.00308078364469111</v>
+        <v>0.0006517691072076559</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0003046611382160336</v>
+        <v>0.0001562025572638959</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5.060081821284257e-05</v>
+        <v>0.0002959671546705067</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0004337050195317715</v>
+        <v>7.092978921718895e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.000404249643906951</v>
+        <v>0.0001990087330341339</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.001096619293093681</v>
+        <v>0.0008846773416735232</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.002118843840435147</v>
+        <v>0.0009676560875959694</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0007397377048619092</v>
+        <v>0.001500040758401155</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0001211897397297435</v>
+        <v>0.001869140774942935</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.0008747010724619031</v>
+        <v>0.0003433837846387178</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.003040173556655645</v>
+        <v>0.000686434970702976</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.0002448398154228926</v>
+        <v>0.0004373713163658977</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.002020890824496746</v>
+        <v>0.0005069856415502727</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.00019178117509</v>
+        <v>0.0004045004025101662</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.0006683808169327676</v>
+        <v>0.0007965218974277377</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0006560437614098191</v>
+        <v>0.001543106860481203</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.0008539134287275374</v>
+        <v>0.0003453704121056944</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.001445102039724588</v>
+        <v>0.0007806475041434169</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.001334924018010497</v>
+        <v>0.0006162742502056062</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.0002925996668636799</v>
+        <v>0.001003530924208462</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.001476802630349994</v>
+        <v>0.0006337865488603711</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.001565495971590281</v>
+        <v>7.83940777182579e-07</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.0001843620848376304</v>
+        <v>0.0008492241031490266</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.0001314130931859836</v>
+        <v>4.008491669083014e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0007445140508934855</v>
+        <v>0.0005365857505239546</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.0006932637188583612</v>
+        <v>0.000208970857784152</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.0003461525193415582</v>
+        <v>3.969223689637147e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>1.616976442164741e-05</v>
+        <v>0.0005491788615472615</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.0006695236079394817</v>
+        <v>7.463518704753369e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.001247894135303795</v>
+        <v>2.272996061947197e-05</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.0002512962382752448</v>
+        <v>0.0002855139318853617</v>
       </c>
       <c r="BT16" t="n">
-        <v>2.370517904637381e-06</v>
+        <v>0.0002031073527177796</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.0004716240800917149</v>
+        <v>0.000238328633713536</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.0006076691788621247</v>
+        <v>0.0005807155393995345</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0002187233767472208</v>
+        <v>0.00103259552270174</v>
       </c>
       <c r="BX16" t="n">
-        <v>3.481465682853013e-05</v>
+        <v>0.001248363638296723</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.000633911055047065</v>
+        <v>0.0004832896811421961</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.002354330150410533</v>
+        <v>0.0002305278612766415</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.0005540882120840251</v>
+        <v>0.0001171511685242876</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.0020817203912884</v>
+        <v>0.000376773503376171</v>
       </c>
       <c r="CC16" t="n">
-        <v>5.845051782671362e-05</v>
+        <v>0.0004659165279008448</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.0001612342748558149</v>
+        <v>0.0003178826882503927</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.000252756173722446</v>
+        <v>6.014472091919743e-05</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.0005294544389471412</v>
+        <v>0.0007004234939813614</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.000425310165155679</v>
+        <v>0.0003655343316495419</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0008307928219437599</v>
+        <v>0.0003351240884512663</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.0008180425502359867</v>
+        <v>4.984392944606952e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>9.851919458014891e-05</v>
+        <v>0.0002352340234210715</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.001084677060134709</v>
+        <v>0.0001768205547705293</v>
       </c>
       <c r="CL16" t="n">
-        <v>4.193045970168896e-05</v>
+        <v>6.132340058684349e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.0009867070475593209</v>
+        <v>0.0009825477609410882</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.001861359691247344</v>
+        <v>0.0008236478315666318</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.001021998701617122</v>
+        <v>1.780633465386927e-05</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.00142859376501292</v>
+        <v>0.0003929930098820478</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.0002257958258269355</v>
+        <v>0.0002285032824147493</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.0001934195024659857</v>
+        <v>0.000305788271361962</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.0005472323973663151</v>
+        <v>0.000214299390790984</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.0009944007033482194</v>
+        <v>0.001059880945831537</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.0003648306883405894</v>
+        <v>0.0002232005790574476</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.0003453056851867586</v>
+        <v>0.0002394314069533721</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.0003226128756068647</v>
+        <v>0.000229482728173025</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.000605397333856672</v>
+        <v>0.0004642331041395664</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.000400026619900018</v>
+        <v>0.000405839120503515</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.000715717498678714</v>
+        <v>0.0001458048791391775</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.0008292694692499936</v>
+        <v>2.162644886993803e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>1.244339364347979e-05</v>
+        <v>0.0002105302119161934</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.001285049831494689</v>
+        <v>0.0001142617402365431</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.0001163606502814218</v>
+        <v>1.551390232634731e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.00278860074467957</v>
+        <v>8.069344039540738e-05</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.001317214220762253</v>
+        <v>0.0009107223595492542</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.001168409711681306</v>
+        <v>0.000819950713776052</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.0007615311769768596</v>
+        <v>0.0002655238495208323</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.0002823757531587034</v>
+        <v>0.0001158177401521243</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.001487602712586522</v>
+        <v>0.0002451590844430029</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.0002453200286254287</v>
+        <v>0.0008671774412505329</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.0002065594017039984</v>
+        <v>0.0002516661770641804</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.0007197453523986042</v>
+        <v>0.000287227361695841</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.0005366627010516822</v>
+        <v>2.635354758240283e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.0007366487989202142</v>
+        <v>0.0006005583563819528</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.0005520802224054933</v>
+        <v>0.0004657107638195157</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.000526918622199446</v>
+        <v>7.76882516220212e-05</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.001119610271416605</v>
+        <v>0.0009208928095176816</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.0007098111091181636</v>
+        <v>0.000384739541914314</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.0008096139063127339</v>
+        <v>0.0003924164338968694</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.0001613398926565424</v>
+        <v>0.0001353481638943776</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.0007295421091839671</v>
+        <v>0.0006486767088063061</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.0004301770823076367</v>
+        <v>0.0001973928592633456</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.0001367611694149673</v>
+        <v>0.0008868408622220159</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.0007465751259587705</v>
+        <v>0.0002827206335496157</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.000119452117360197</v>
+        <v>0.00017662147001829</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.0001450058771297336</v>
+        <v>0.0004324231122154742</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.0001801312027964741</v>
+        <v>0.000594095850829035</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.0004670048074331135</v>
+        <v>3.5028402635362e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.000129566848045215</v>
+        <v>0.0001719928113743663</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.0003867620544042438</v>
+        <v>3.601855132728815e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.001243666163645685</v>
+        <v>2.699517244764138e-05</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.001654855557717383</v>
+        <v>0.0003040713490918279</v>
       </c>
       <c r="EH16" t="n">
-        <v>0.000133056310005486</v>
+        <v>0.0007177659426815808</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.0004488804843276739</v>
+        <v>0.0008410761947743595</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.0003913914551958442</v>
+        <v>1.045762383000692e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.0006062405882403255</v>
+        <v>6.241200026124716e-06</v>
       </c>
       <c r="EL16" t="n">
-        <v>2.203281837864779e-06</v>
+        <v>0.000284853857010603</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.001086008618585765</v>
+        <v>8.849102596286684e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.0002727368264459074</v>
+        <v>0.0002963391889352351</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.0002350229624425992</v>
+        <v>2.541033609304577e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.0002375954791205004</v>
+        <v>0.0005958336405456066</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.0007726291078142822</v>
+        <v>0.0003070450620725751</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.0003048611979465932</v>
+        <v>0.0004067666013725102</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.0008920283289626241</v>
+        <v>0.0002109721972374246</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.0004408526001498103</v>
+        <v>9.774179488886148e-05</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.0001540434604976326</v>
+        <v>0.0003155407612212002</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.00124087929725647</v>
+        <v>1.3315071555553e-05</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.0005660381866618991</v>
+        <v>0.0003410975623410195</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.0002593274984974414</v>
+        <v>0.000243998336372897</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.0003835785901173949</v>
+        <v>0.0002914717770181596</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.000545267597772181</v>
+        <v>0.0006130626425147057</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.0006461284938268363</v>
+        <v>0.0003907536738552153</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.001113392761908472</v>
+        <v>0.0001977596548385918</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.0009140154579654336</v>
+        <v>8.900729881133884e-06</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.0001012021166388877</v>
+        <v>0.0001807493099477142</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.001236596726812422</v>
+        <v>9.517658327240497e-05</v>
       </c>
       <c r="FF16" t="n">
-        <v>2.890906398533843e-05</v>
+        <v>0.0001608886668691412</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.0002675975556485355</v>
+        <v>9.298199438489974e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>2.635038254084066e-05</v>
+        <v>0.0004095019539818168</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.0007519334321841598</v>
+        <v>1.380120556859765e-05</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.000652581627946347</v>
+        <v>0.0004054601886309683</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.000327790214214474</v>
+        <v>0.0002826677518896759</v>
       </c>
       <c r="FL16" t="n">
-        <v>3.639960777945817e-05</v>
+        <v>0.0003187778347637504</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.0001915266911964864</v>
+        <v>0.0001936134358402342</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.0005021011456847191</v>
+        <v>0.0004320171719882637</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.0002790978469420224</v>
+        <v>0.0002905826841015369</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.0009702665265649557</v>
+        <v>0.0004354143457021564</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.0002598765131551772</v>
+        <v>0.0002307973627466708</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.0003146814415231347</v>
+        <v>0.0006244128453545272</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.0001431633572792634</v>
+        <v>5.568485357798636e-05</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.0007047775434330106</v>
+        <v>4.509325663093477e-05</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.00138101086486131</v>
+        <v>0.0003437700506765395</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.0009490889497101307</v>
+        <v>0.0001237188844243065</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.0007714633247815073</v>
+        <v>0.000308311078697443</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.0001246315514435992</v>
+        <v>0.000107096871943213</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.0004655870143324137</v>
+        <v>0.000135502777993679</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.0001600450777914375</v>
+        <v>0.0005420373636297882</v>
       </c>
       <c r="GA16" t="n">
-        <v>2.087483881041408e-05</v>
+        <v>9.501620661467314e-05</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.0002997371484525502</v>
+        <v>4.416062438394874e-06</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.0006812213105149567</v>
+        <v>0.0005632381653413177</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.0002532844373490661</v>
+        <v>0.0008309768163599074</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.000295848265523091</v>
+        <v>0.0002630728995427489</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.0001935385225806385</v>
+        <v>0.0001499563513789326</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.0004473866720218211</v>
+        <v>2.216751818195917e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.008139462210238e-05</v>
+        <v>5.99786017119186e-06</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000189807906281203</v>
+        <v>0.0001210503105539829</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0005228085210546851</v>
+        <v>1.985249036806636e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001388874603435397</v>
+        <v>4.851119956583716e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0009325782302767038</v>
+        <v>5.99705490458291e-05</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0002120459103025496</v>
+        <v>5.99590057390742e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>2.044538268819451e-05</v>
+        <v>2.350299109821208e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002067882567644119</v>
+        <v>2.821531234076247e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>7.023986836429685e-05</v>
+        <v>9.561234037391841e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>4.387221633805893e-05</v>
+        <v>1.15713646664517e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003625094541348517</v>
+        <v>9.425223834114149e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004860300978180021</v>
+        <v>3.524062094584224e-06</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0009245554101653397</v>
+        <v>3.06061738228891e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001538796233944595</v>
+        <v>4.385720967547968e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0003498770529404283</v>
+        <v>5.345715180737898e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0003747009322978556</v>
+        <v>2.537144064262975e-05</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.002532907528802752</v>
+        <v>4.556904968922026e-06</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0001548237778479233</v>
+        <v>8.909118150768336e-06</v>
       </c>
       <c r="S17" t="n">
-        <v>7.095208275131881e-05</v>
+        <v>8.957767363426683e-07</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0002178386930609122</v>
+        <v>1.708003583189566e-05</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0001296468544751406</v>
+        <v>2.826865511451615e-06</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0001110697048716247</v>
+        <v>2.217849578300957e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>0.001006042584776878</v>
+        <v>1.722491288091987e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0002106402243953198</v>
+        <v>1.863746183516923e-05</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.599505048943684e-05</v>
+        <v>6.268486231419956e-06</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0004361233150120825</v>
+        <v>1.6638012311887e-05</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0001047524274326861</v>
+        <v>9.982203664549161e-06</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0004599609819706529</v>
+        <v>7.672882929909974e-06</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0002311916323378682</v>
+        <v>1.362447073915973e-05</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0003931907413061708</v>
+        <v>2.1707692212658e-06</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.000679418386425823</v>
+        <v>8.614036232756916e-06</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0001606087025720626</v>
+        <v>1.512737071607262e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.376314665132668e-06</v>
+        <v>4.681379778048722e-06</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0006064811605028808</v>
+        <v>9.081031748792157e-06</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0001406618393957615</v>
+        <v>8.091428753687069e-06</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0001286237529711798</v>
+        <v>4.920727860735497e-06</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.000371523346984759</v>
+        <v>1.245277962880209e-05</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.00015153011190705</v>
+        <v>2.221997783635743e-05</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0002356342447455972</v>
+        <v>2.563771886343602e-06</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.006135425996035e-05</v>
+        <v>7.894257578300312e-06</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0004509271821007133</v>
+        <v>3.859800017380621e-06</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0001445437083020806</v>
+        <v>2.335721364943311e-05</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0003412113874219358</v>
+        <v>1.003376837616088e-06</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0001360630849376321</v>
+        <v>1.099936980608618e-05</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.762871412822278e-07</v>
+        <v>1.406978662998881e-05</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.0003438758139964193</v>
+        <v>7.337956049013883e-06</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.0001971768506336957</v>
+        <v>8.235047425841913e-05</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0001044665696099401</v>
+        <v>1.251908088306664e-05</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0004464654775802046</v>
+        <v>4.714693204732612e-06</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.0007179492386057973</v>
+        <v>2.00087160919793e-05</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0001138696243287995</v>
+        <v>3.587641549529508e-05</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.0007308232598006725</v>
+        <v>1.736048716338701e-06</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.001059693866409361</v>
+        <v>1.80827992153354e-05</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0001485295069869608</v>
+        <v>9.518105798633769e-06</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0003206446999683976</v>
+        <v>6.679400485154474e-06</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0001302639866480604</v>
+        <v>1.942867675097659e-05</v>
       </c>
       <c r="BE17" t="n">
-        <v>5.422389949671924e-05</v>
+        <v>2.146295082638972e-05</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.0007119650254026055</v>
+        <v>1.443008113710675e-05</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0002347142290091142</v>
+        <v>4.419406468514353e-05</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.0004721754230558872</v>
+        <v>1.164966852229554e-05</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.000270253891358152</v>
+        <v>1.768121910572518e-05</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.0004036798200104386</v>
+        <v>1.925318065332249e-05</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.0001420331827830523</v>
+        <v>6.859113454993349e-06</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.0001564679696457461</v>
+        <v>1.097332824429031e-05</v>
       </c>
       <c r="BM17" t="n">
-        <v>9.293384937336668e-05</v>
+        <v>2.879385465348605e-05</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.000243628368480131</v>
+        <v>1.285343296331121e-05</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.0003045788034796715</v>
+        <v>7.834205462131649e-06</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0002700968470890075</v>
+        <v>2.273137170050177e-06</v>
       </c>
       <c r="BQ17" t="n">
-        <v>2.236106411146466e-08</v>
+        <v>8.656017598696053e-06</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.0004041604697704315</v>
+        <v>4.705586434283759e-06</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.000327535904943943</v>
+        <v>5.951725142949726e-06</v>
       </c>
       <c r="BT17" t="n">
-        <v>3.666427437565289e-05</v>
+        <v>9.168913493340369e-06</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.000933523231651634</v>
+        <v>6.703675353492144e-06</v>
       </c>
       <c r="BV17" t="n">
-        <v>1.155418794951402e-05</v>
+        <v>5.076784873381257e-05</v>
       </c>
       <c r="BW17" t="n">
-        <v>0.0002426648861728609</v>
+        <v>2.474816392350476e-05</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.0001113236648961902</v>
+        <v>1.113477264880203e-05</v>
       </c>
       <c r="BY17" t="n">
-        <v>0.0003315345093142241</v>
+        <v>1.577339753566775e-05</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.0001903331140056252</v>
+        <v>4.891796379524749e-06</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.0005574981914833188</v>
+        <v>6.764526915503666e-06</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.0007372634136117995</v>
+        <v>5.685876203642692e-06</v>
       </c>
       <c r="CC17" t="n">
-        <v>2.579561623861082e-05</v>
+        <v>1.051495837600669e-05</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.0003053172549698502</v>
+        <v>5.33011643710779e-08</v>
       </c>
       <c r="CE17" t="n">
-        <v>6.182753713801503e-05</v>
+        <v>1.869632615125738e-05</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.0001290179352508858</v>
+        <v>7.360177733062301e-06</v>
       </c>
       <c r="CG17" t="n">
-        <v>0.0001891696010716259</v>
+        <v>8.03492366685532e-06</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.0002775527827907354</v>
+        <v>1.908392164295947e-07</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.0001040427960106172</v>
+        <v>1.136659011535812e-05</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.0001408783136866987</v>
+        <v>4.879997050011298e-06</v>
       </c>
       <c r="CK17" t="n">
-        <v>0.000425367004936561</v>
+        <v>4.150319000473246e-06</v>
       </c>
       <c r="CL17" t="n">
-        <v>5.062018681201153e-05</v>
+        <v>5.830835107190069e-06</v>
       </c>
       <c r="CM17" t="n">
-        <v>3.876256960211322e-05</v>
+        <v>1.902221265481785e-05</v>
       </c>
       <c r="CN17" t="n">
-        <v>0.0004448523104656488</v>
+        <v>7.190580618043896e-06</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.0003965121577493846</v>
+        <v>5.703848728444427e-06</v>
       </c>
       <c r="CP17" t="n">
-        <v>0.0001779279700713232</v>
+        <v>6.001099791319575e-06</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0006457884446717799</v>
+        <v>1.190149032481713e-05</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.0006926355417817831</v>
+        <v>1.00989309430588e-05</v>
       </c>
       <c r="CS17" t="n">
-        <v>4.089397407369688e-06</v>
+        <v>2.205769851570949e-05</v>
       </c>
       <c r="CT17" t="n">
-        <v>1.674857048783451e-05</v>
+        <v>1.772862560756039e-05</v>
       </c>
       <c r="CU17" t="n">
-        <v>4.544149123830721e-05</v>
+        <v>1.520919568065437e-06</v>
       </c>
       <c r="CV17" t="n">
-        <v>0.0002249271492473781</v>
+        <v>3.331754214741522e-07</v>
       </c>
       <c r="CW17" t="n">
-        <v>8.40178836369887e-05</v>
+        <v>1.57350477820728e-05</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.0001229559420607984</v>
+        <v>8.420531230513006e-06</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.0002040377876255661</v>
+        <v>1.27651946968399e-05</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.0002791965962387621</v>
+        <v>1.852504283306189e-06</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.0001478000776842237</v>
+        <v>1.579371746629477e-05</v>
       </c>
       <c r="DB17" t="n">
-        <v>8.103906293399632e-05</v>
+        <v>3.112233571300749e-06</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.0005136107793077826</v>
+        <v>7.459331754944287e-06</v>
       </c>
       <c r="DD17" t="n">
-        <v>7.688228652114049e-05</v>
+        <v>1.462197133150767e-06</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.0004796038847416639</v>
+        <v>4.726956831291318e-06</v>
       </c>
       <c r="DF17" t="n">
-        <v>0.0004694417293649167</v>
+        <v>2.462342126818839e-05</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.000136048678541556</v>
+        <v>4.535534117167117e-06</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.0001491756120231003</v>
+        <v>3.206069231964648e-05</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0003953308332711458</v>
+        <v>7.966709745232947e-06</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.0001884175289887935</v>
+        <v>3.281285671619116e-06</v>
       </c>
       <c r="DK17" t="n">
-        <v>7.240888953674585e-05</v>
+        <v>1.93261839740444e-05</v>
       </c>
       <c r="DL17" t="n">
-        <v>0.0001151473479694687</v>
+        <v>1.305141449847724e-05</v>
       </c>
       <c r="DM17" t="n">
-        <v>2.717837742238771e-05</v>
+        <v>1.177073045255383e-05</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.000168602928170003</v>
+        <v>5.026999133406207e-06</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.0001307621714659035</v>
+        <v>7.914016350696329e-06</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.0001667580363573506</v>
+        <v>1.647102408242063e-06</v>
       </c>
       <c r="DQ17" t="n">
-        <v>8.297295426018536e-05</v>
+        <v>3.618323944465374e-06</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.0006526801735162735</v>
+        <v>2.525655872887e-06</v>
       </c>
       <c r="DS17" t="n">
-        <v>7.576665666420013e-06</v>
+        <v>1.193718890135642e-05</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.0003687349380925298</v>
+        <v>5.891160526516614e-06</v>
       </c>
       <c r="DU17" t="n">
-        <v>0.0001629237522138283</v>
+        <v>7.634464054717682e-06</v>
       </c>
       <c r="DV17" t="n">
-        <v>8.601287845522165e-05</v>
+        <v>6.310720436886186e-06</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.0001159494640887715</v>
+        <v>3.048755843337858e-06</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.0004359330632723868</v>
+        <v>2.338362946829875e-06</v>
       </c>
       <c r="DY17" t="n">
-        <v>0.0001349645026493818</v>
+        <v>1.289136616833275e-05</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.0002019752282649279</v>
+        <v>1.322751586485538e-06</v>
       </c>
       <c r="EA17" t="n">
-        <v>1.711613549559843e-05</v>
+        <v>5.04848458149354e-06</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.0003445057373028249</v>
+        <v>4.525616532191634e-06</v>
       </c>
       <c r="EC17" t="n">
-        <v>0.0001523485698271543</v>
+        <v>8.512369049640256e-07</v>
       </c>
       <c r="ED17" t="n">
-        <v>0.000129752850625664</v>
+        <v>8.572059414291289e-06</v>
       </c>
       <c r="EE17" t="n">
-        <v>5.260175748844631e-05</v>
+        <v>6.937707439647056e-07</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.000106089748442173</v>
+        <v>5.773405973741319e-06</v>
       </c>
       <c r="EG17" t="n">
-        <v>2.631104507599957e-05</v>
+        <v>1.540171251690481e-05</v>
       </c>
       <c r="EH17" t="n">
-        <v>5.249692185316235e-05</v>
+        <v>9.544208296574652e-06</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.000433488457929343</v>
+        <v>2.803829374897759e-06</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.0003524034400470555</v>
+        <v>8.28500105853891e-06</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.0002690315595827997</v>
+        <v>8.511537089361809e-06</v>
       </c>
       <c r="EL17" t="n">
-        <v>6.875525286886841e-07</v>
+        <v>5.96288464294048e-06</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.000622862484306097</v>
+        <v>2.707903831833391e-06</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.0002648010267876089</v>
+        <v>6.714560640830314e-08</v>
       </c>
       <c r="EO17" t="n">
-        <v>0.0002976339310407639</v>
+        <v>5.163519745110534e-06</v>
       </c>
       <c r="EP17" t="n">
-        <v>0.0002316723112016916</v>
+        <v>8.14022496342659e-06</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.0002480128896422684</v>
+        <v>1.370988411508733e-05</v>
       </c>
       <c r="ER17" t="n">
-        <v>0.0001006653910735622</v>
+        <v>1.606374280527234e-05</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.0003670316946227103</v>
+        <v>9.645586942497175e-06</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.0002109600318362936</v>
+        <v>1.535720366518945e-05</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.0001203568899654783</v>
+        <v>6.501652933366131e-06</v>
       </c>
       <c r="EV17" t="n">
-        <v>5.514821168617345e-05</v>
+        <v>1.951166268554516e-05</v>
       </c>
       <c r="EW17" t="n">
-        <v>0.000152808366692625</v>
+        <v>2.271710400236771e-06</v>
       </c>
       <c r="EX17" t="n">
-        <v>0.0002185430203098804</v>
+        <v>1.790878741303459e-06</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.0001295875408686697</v>
+        <v>1.46308357216185e-05</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.000154652661876753</v>
+        <v>5.551692993321922e-06</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.0001729166251607239</v>
+        <v>1.215464271808742e-05</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.0004039613995701075</v>
+        <v>2.924494765466079e-06</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.0001750663504935801</v>
+        <v>1.222731953021139e-05</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.0001762090105330572</v>
+        <v>7.215533969429089e-06</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.0004777302674483508</v>
+        <v>6.210501851455774e-06</v>
       </c>
       <c r="FF17" t="n">
-        <v>6.423241575248539e-05</v>
+        <v>6.7107830545865e-06</v>
       </c>
       <c r="FG17" t="n">
-        <v>4.602342596626841e-05</v>
+        <v>6.739264790667221e-06</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.0001827833475545049</v>
+        <v>1.061777220456861e-05</v>
       </c>
       <c r="FI17" t="n">
-        <v>1.513379902462475e-05</v>
+        <v>8.46879538585199e-06</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.0001871356944320723</v>
+        <v>1.66459667525487e-05</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.0004387477820273489</v>
+        <v>4.931749117531581e-06</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.0004051697324030101</v>
+        <v>9.084741577680688e-06</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.0003030916850548238</v>
+        <v>3.594415375118842e-06</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.0003868047497235239</v>
+        <v>8.135753887472674e-06</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.0001339239825028926</v>
+        <v>8.220767085731495e-06</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.0006950623355805874</v>
+        <v>2.534372470108792e-06</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0.0003156156162731349</v>
+        <v>4.386961336422246e-06</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.000479554757475853</v>
+        <v>1.104487273551058e-05</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.0001202604253194295</v>
+        <v>1.957268614205532e-05</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.0003784155414905399</v>
+        <v>9.523603694105987e-06</v>
       </c>
       <c r="FU17" t="n">
-        <v>9.442148439120501e-05</v>
+        <v>1.945634039657307e-06</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.0001581616088515148</v>
+        <v>8.538063411833718e-06</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.0003872193628922105</v>
+        <v>6.747131919837557e-06</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.0003424400929361582</v>
+        <v>8.983845418697456e-07</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.0003548150998540223</v>
+        <v>2.253436468890868e-05</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.0003357842506375164</v>
+        <v>8.484075806336477e-07</v>
       </c>
       <c r="GA17" t="n">
-        <v>0.0001657751272432506</v>
+        <v>4.361500941740815e-06</v>
       </c>
       <c r="GB17" t="n">
-        <v>0.000379925622837618</v>
+        <v>1.153936864284333e-05</v>
       </c>
       <c r="GC17" t="n">
-        <v>0.0001627526653464884</v>
+        <v>1.167244045063853e-05</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.0003490847011562437</v>
+        <v>1.639102265471593e-05</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.0006744800484739244</v>
+        <v>4.67333520646207e-05</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.0001377250300720334</v>
+        <v>5.13345639774343e-07</v>
       </c>
       <c r="GG17" t="n">
-        <v>0.0001971946039702743</v>
+        <v>1.356988605039078e-06</v>
       </c>
     </row>
   </sheetData>
